--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -111,28 +111,61 @@
     <t>//*[@id="dialogContent_158"]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
   </si>
   <si>
-    <t>//*[@id="select_option_201"]</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/md-content/md-content/div[3]/md-content/md-list/md-list/md-list-item[1]/div/div[1]/div/div[2]/button[1]/md-icon</t>
-  </si>
-  <si>
-    <t>//*[@id="input_216"]</t>
-  </si>
-  <si>
     <t>non1</t>
   </si>
   <si>
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/div[1]/div[2]/div/md-menu/button</t>
   </si>
   <si>
-    <t>//*[@id="menu_container_217"]/md-menu-content/md-menu-item[1]/button</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list/md-list-item[2]/div/button</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>scheduling</t>
+  </si>
+  <si>
+    <t>Search Icon</t>
+  </si>
+  <si>
+    <t>search input</t>
+  </si>
+  <si>
+    <t>select item</t>
+  </si>
+  <si>
+    <t>select first schedule on the calendar</t>
+  </si>
+  <si>
+    <t>visit type</t>
+  </si>
+  <si>
+    <t>//div/form/md-input-container/md-select/md-select-value/span</t>
+  </si>
+  <si>
+    <t>//md-option[@class="ng-scope md-ink-ripple"][1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/md-dialog/md-dialog-actions/button</t>
+  </si>
+  <si>
+    <t>//md-icon[@class="ng-scope md-cs-content-theme-theme md-font fa fa-commenting-o material-icons"][1]</t>
+  </si>
+  <si>
+    <t>//div[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/div/div[2]/md-input-container/textarea</t>
+  </si>
+  <si>
+    <t>//div[@class="_md _md-open-menu-container md-whiteframe-z2 md-cs-content-theme-theme _md-active _md-clickable"]/md-menu-content/md-menu-item/button</t>
+  </si>
+  <si>
+    <t>//div[@class="_md _md-open-menu-container md-whiteframe-z2 md-cs-content-theme-theme _md-active _md-clickable"]/md-menu-content/md-menu-item[2]/button</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list/md-list-item/div/button</t>
   </si>
 </sst>
 </file>
@@ -473,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -486,7 +519,7 @@
     <col min="3" max="16384" width="23.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +541,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="36.75" customHeight="1">
+      <c r="H1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -526,7 +565,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="36.75" customHeight="1">
+    <row r="3" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -543,7 +585,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="36.75" customHeight="1">
+    <row r="4" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -560,7 +605,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="36.75" customHeight="1">
+    <row r="5" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -579,10 +627,16 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="36.75" customHeight="1">
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -597,7 +651,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="36.75" customHeight="1">
+    <row r="7" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -614,7 +671,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="36.75" customHeight="1">
+    <row r="8" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -631,9 +691,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="36.75" customHeight="1">
+    <row r="9" spans="1:8" ht="36.75" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -648,9 +708,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="36.75" customHeight="1">
+    <row r="10" spans="1:8" ht="36.75" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -665,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="36.75" customHeight="1">
+    <row r="11" spans="1:8" ht="36.75" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -682,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="36.75" customHeight="1">
+    <row r="12" spans="1:8" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -702,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="36.75" customHeight="1">
+    <row r="13" spans="1:8" ht="36.75" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -722,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="36.75" customHeight="1">
+    <row r="14" spans="1:8" ht="36.75" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
@@ -739,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="36.75" customHeight="1">
+    <row r="15" spans="1:8" ht="36.75" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
@@ -759,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="36.75" customHeight="1">
+    <row r="16" spans="1:8" ht="36.75" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
@@ -863,7 +923,7 @@
     </row>
     <row r="22" spans="1:7" ht="36.75" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>12</v>
@@ -880,35 +940,35 @@
     </row>
     <row r="23" spans="1:7" ht="36.75" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36.75" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
@@ -920,6 +980,68 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
         <v>1</v>
       </c>
     </row>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -63,9 +63,6 @@
     <t>//a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"][1]</t>
   </si>
   <si>
-    <t>//*[@id="tab-content-155"]/div/md-table-container/table/tbody/tr[2]/td[2]</t>
-  </si>
-  <si>
     <t>/html/body/md-edit-dialog/div[2]/button[2]</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>visit type</t>
   </si>
   <si>
-    <t>//div/form/md-input-container/md-select/md-select-value/span</t>
-  </si>
-  <si>
     <t>//md-option[@class="ng-scope md-ink-ripple"][1]</t>
   </si>
   <si>
@@ -165,7 +159,13 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list/md-list-item/div/button</t>
+    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list/md-list-item[2]/div/button</t>
+  </si>
+  <si>
+    <t>//td[@ng-click="vm.updateVisitType($event)"]</t>
+  </si>
+  <si>
+    <t>//form[@name="editDialog"]/md-input-container/md-select</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -542,12 +542,12 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4" spans="1:8" ht="36.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="5" spans="1:8" ht="36.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -628,15 +628,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="7" spans="1:8" ht="36.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="8" spans="1:8" ht="36.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="9" spans="1:8" ht="36.75" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="12" spans="1:8" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
@@ -764,13 +764,13 @@
     </row>
     <row r="13" spans="1:8" ht="36.75" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="14" spans="1:8" ht="36.75" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="15" spans="1:8" ht="36.75" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
@@ -838,10 +838,10 @@
     </row>
     <row r="17" spans="1:7" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="18" spans="1:7" ht="36.75" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -875,18 +875,18 @@
     </row>
     <row r="19" spans="1:7" ht="36.75" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36.75" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="21" spans="1:7" ht="36.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="22" spans="1:7" ht="36.75" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>12</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="23" spans="1:7" ht="36.75" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>12</v>
@@ -957,18 +957,18 @@
     </row>
     <row r="24" spans="1:7" ht="36.75" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="26" spans="1:7" ht="36.75" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
@@ -1002,18 +1002,18 @@
     </row>
     <row r="27" spans="1:7" ht="36.75" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="36.75" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>12</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="29" spans="1:7" ht="36.75" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>//*[@id="nameSeach"]</t>
-  </si>
-  <si>
-    <t>test7</t>
   </si>
   <si>
     <t>click</t>
@@ -508,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -542,18 +539,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -567,13 +564,13 @@
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -587,13 +584,13 @@
     </row>
     <row r="4" spans="1:8" ht="36.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -607,16 +604,13 @@
     </row>
     <row r="5" spans="1:8" ht="36.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -628,18 +622,18 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -653,13 +647,13 @@
     </row>
     <row r="7" spans="1:8" ht="36.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -673,13 +667,13 @@
     </row>
     <row r="8" spans="1:8" ht="36.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -693,10 +687,10 @@
     </row>
     <row r="9" spans="1:8" ht="36.75" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -710,10 +704,10 @@
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -727,10 +721,10 @@
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -744,13 +738,13 @@
     </row>
     <row r="12" spans="1:8" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -764,13 +758,13 @@
     </row>
     <row r="13" spans="1:8" ht="36.75" customHeight="1">
       <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -784,10 +778,10 @@
     </row>
     <row r="14" spans="1:8" ht="36.75" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -801,13 +795,13 @@
     </row>
     <row r="15" spans="1:8" ht="36.75" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -821,10 +815,10 @@
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -838,13 +832,13 @@
     </row>
     <row r="17" spans="1:7" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -858,10 +852,10 @@
     </row>
     <row r="18" spans="1:7" ht="36.75" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -875,21 +869,21 @@
     </row>
     <row r="19" spans="1:7" ht="36.75" customHeight="1">
       <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36.75" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -903,13 +897,13 @@
     </row>
     <row r="21" spans="1:7" ht="36.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -923,10 +917,10 @@
     </row>
     <row r="22" spans="1:7" ht="36.75" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -940,10 +934,10 @@
     </row>
     <row r="23" spans="1:7" ht="36.75" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -957,21 +951,21 @@
     </row>
     <row r="24" spans="1:7" ht="36.75" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -985,10 +979,10 @@
     </row>
     <row r="26" spans="1:7" ht="36.75" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1002,21 +996,21 @@
     </row>
     <row r="27" spans="1:7" ht="36.75" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="36.75" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1030,10 +1024,10 @@
     </row>
     <row r="29" spans="1:7" ht="36.75" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -156,13 +156,13 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list/md-list-item[2]/div/button</t>
-  </si>
-  <si>
     <t>//td[@ng-click="vm.updateVisitType($event)"]</t>
   </si>
   <si>
     <t>//form[@name="editDialog"]/md-input-container/md-select</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list/md-list-item[1]/div/button</t>
   </si>
 </sst>
 </file>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -630,7 +630,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -670,7 +670,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="9" spans="1:8" ht="36.75" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="36.75" customHeight="1">
+    <row r="17" spans="1:9" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="36.75" customHeight="1">
+    <row r="18" spans="1:9" ht="36.75" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1">
+    <row r="19" spans="1:9" ht="36.75" customHeight="1">
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
@@ -878,7 +878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="36.75" customHeight="1">
+    <row r="20" spans="1:9" ht="36.75" customHeight="1">
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="36.75" customHeight="1">
+    <row r="21" spans="1:9" ht="36.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="36.75" customHeight="1">
+    <row r="22" spans="1:9" ht="36.75" customHeight="1">
       <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
@@ -931,8 +931,11 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="36.75" customHeight="1">
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="36.75" customHeight="1">
       <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
@@ -949,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="36.75" customHeight="1">
+    <row r="24" spans="1:9" ht="36.75" customHeight="1">
       <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
@@ -960,7 +963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="36.75" customHeight="1">
+    <row r="25" spans="1:9" ht="36.75" customHeight="1">
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
@@ -977,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="36.75" customHeight="1">
+    <row r="26" spans="1:9" ht="36.75" customHeight="1">
       <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
@@ -994,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="36.75" customHeight="1">
+    <row r="27" spans="1:9" ht="36.75" customHeight="1">
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="36.75" customHeight="1">
+    <row r="28" spans="1:9" ht="36.75" customHeight="1">
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="36.75" customHeight="1">
+    <row r="29" spans="1:9" ht="36.75" customHeight="1">
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>/html/body/div/div/md-content/div/section/div[9]/button</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[6]/button</t>
-  </si>
-  <si>
     <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/div/div/div/div[1]/button</t>
   </si>
   <si>
@@ -63,48 +60,24 @@
     <t>/html/body/md-edit-dialog/div[2]/button[2]</t>
   </si>
   <si>
-    <t>//*[@id="dialogContent_158"]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[2]</t>
-  </si>
-  <si>
     <t>assign clinician tab</t>
   </si>
   <si>
-    <t>//*[@id="tab-content-156"]/div/div/div[1]/md-table-container/table/tbody/tr/td[1]/md-checkbox</t>
-  </si>
-  <si>
-    <t>//*[@id="tab-content-156"]/div/div/div[1]/md-input-container/div/button</t>
-  </si>
-  <si>
     <t>confirm</t>
   </si>
   <si>
     <t>Edit Task</t>
   </si>
   <si>
-    <t>//*[@id="input_187"]</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
-    <t>//*[@id="tab-content-157"]/div/div/div[2]/div/button</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
-    <t>//*[@id="tab-content-156"]/div/div/div[1]/div[1]/button[1]/md-icon</t>
-  </si>
-  <si>
     <t>//*[@id="clinicianSeach"]</t>
   </si>
   <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>//*[@id="dialogContent_158"]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
-  </si>
-  <si>
     <t>non1</t>
   </si>
   <si>
@@ -132,12 +105,6 @@
     <t>visit type</t>
   </si>
   <si>
-    <t>//md-option[@class="ng-scope md-ink-ripple"][1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[3]/md-dialog/md-dialog-actions/button</t>
-  </si>
-  <si>
     <t>//md-icon[@class="ng-scope md-cs-content-theme-theme md-font fa fa-commenting-o material-icons"][1]</t>
   </si>
   <si>
@@ -163,6 +130,75 @@
   </si>
   <si>
     <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list/md-list-item[1]/div/button</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/div/section/div[7]/button</t>
+  </si>
+  <si>
+    <t>Click Visit</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Select first visit</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.newTaskContent"]</t>
+  </si>
+  <si>
+    <t>New Task Field</t>
+  </si>
+  <si>
+    <t>//button[@class="md-primary md-button ng-scope md-cs-content-theme-theme md-ink-ripple"]</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.filterShow = !vm.filterShow;  vm.focusInput()"]</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>eliz</t>
+  </si>
+  <si>
+    <t>//md-option[@class="ng-scope md-ink-ripple"][2]</t>
+  </si>
+  <si>
+    <t>//div[@class="md-dialog-container ng-scope"]//md-tab-item[3]</t>
+  </si>
+  <si>
+    <t>//div[@class="md-dialog-container ng-scope"]//md-tab-item[2]</t>
+  </si>
+  <si>
+    <t>//div[@class="md-dialog-container ng-scope"]//md-tabs-content-wrapper//md-tab-content[2]//md-checkbox</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.confirmClinician()"]</t>
+  </si>
+  <si>
+    <t>select checkbox</t>
+  </si>
+  <si>
+    <t>skip on error</t>
+  </si>
+  <si>
+    <t>office notes icon</t>
+  </si>
+  <si>
+    <t>office notes input</t>
+  </si>
+  <si>
+    <t>add to office notes</t>
+  </si>
+  <si>
+    <t>send to clinician</t>
+  </si>
+  <si>
+    <t>send to office</t>
   </si>
 </sst>
 </file>
@@ -503,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -516,7 +552,7 @@
     <col min="3" max="16384" width="23.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1">
+    <row r="1" spans="1:9" ht="36.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,18 +575,21 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="36.75" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -562,35 +601,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36.75" customHeight="1">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -602,308 +641,338 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36.75" customHeight="1">
+    <row r="5" spans="1:9" ht="36.75" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="36.75" customHeight="1">
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="36.75" customHeight="1">
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="36.75" customHeight="1">
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="36.75" customHeight="1">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="36.75" customHeight="1">
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="36.75" customHeight="1">
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="36.75" customHeight="1">
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="36.75" customHeight="1">
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="36.75" customHeight="1">
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="36.75" customHeight="1">
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -912,15 +981,18 @@
         <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="36.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -931,89 +1003,104 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="36.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="36.75" customHeight="1">
+      <c r="D23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B24" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="36.75" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="36.75" customHeight="1">
-      <c r="B26" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="36.75" customHeight="1">
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="36.75" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="B28" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1022,23 +1109,6 @@
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="36.75" customHeight="1">
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
         <v>1</v>
       </c>
     </row>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -162,12 +162,6 @@
     <t>search</t>
   </si>
   <si>
-    <t>eliz</t>
-  </si>
-  <si>
-    <t>//md-option[@class="ng-scope md-ink-ripple"][2]</t>
-  </si>
-  <si>
     <t>//div[@class="md-dialog-container ng-scope"]//md-tab-item[3]</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>//div[@class="md-dialog-container ng-scope"]//md-tabs-content-wrapper//md-tab-content[2]//md-checkbox</t>
   </si>
   <si>
-    <t>//button[@ng-click="vm.confirmClinician()"]</t>
-  </si>
-  <si>
     <t>select checkbox</t>
   </si>
   <si>
@@ -199,6 +190,15 @@
   </si>
   <si>
     <t>send to office</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.confirmClinician( $event )"]</t>
+  </si>
+  <si>
+    <t>//md-option[@class="ng-scope md-ink-ripple"][1]</t>
+  </si>
+  <si>
+    <t>jason</t>
   </si>
 </sst>
 </file>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -578,7 +578,7 @@
         <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="36.75" customHeight="1">
@@ -749,7 +749,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -789,7 +789,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -895,7 +895,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -941,15 +941,15 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
@@ -969,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="22" spans="1:7" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>29</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="23" spans="1:7" ht="36.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>30</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="24" spans="1:7" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>21</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="25" spans="1:7" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>31</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="26" spans="1:7" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>30</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="27" spans="1:7" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>21</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="28" spans="1:7" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>32</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -198,7 +198,7 @@
     <t>//md-option[@class="ng-scope md-ink-ripple"][1]</t>
   </si>
   <si>
-    <t>jason</t>
+    <t>marc</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>marc</t>
+  </si>
+  <si>
+    <t>clinician_lastname</t>
   </si>
 </sst>
 </file>
@@ -541,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -890,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="36.75" customHeight="1">
+    <row r="17" spans="1:8" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -910,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="36.75" customHeight="1">
+    <row r="18" spans="1:8" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -930,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="36.75" customHeight="1">
+    <row r="19" spans="1:8" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -943,8 +946,11 @@
       <c r="D19" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="36.75" customHeight="1">
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
@@ -964,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="36.75" customHeight="1">
+    <row r="21" spans="1:8" ht="36.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -984,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="36.75" customHeight="1">
+    <row r="22" spans="1:8" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="36.75" customHeight="1">
+    <row r="23" spans="1:8" ht="36.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="36.75" customHeight="1">
+    <row r="24" spans="1:8" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="36.75" customHeight="1">
+    <row r="25" spans="1:8" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="36.75" customHeight="1">
+    <row r="26" spans="1:8" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="36.75" customHeight="1">
+    <row r="27" spans="1:8" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="36.75" customHeight="1">
+    <row r="28" spans="1:8" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>//md-option[@class="ng-scope md-ink-ripple"][1]</t>
-  </si>
-  <si>
-    <t>marc</t>
   </si>
   <si>
     <t>clinician_lastname</t>
@@ -544,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -943,11 +940,8 @@
       <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="H19" t="s">
         <v>60</v>
-      </c>
-      <c r="H19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36.75" customHeight="1">

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -944,7 +944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="36.75" customHeight="1">
+    <row r="20" spans="1:8" ht="63" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -39,24 +39,12 @@
     <t>Delay After Action(Sec)</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[9]/button</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/div/div/div/div[1]/button</t>
-  </si>
-  <si>
-    <t>//*[@id="nameSeach"]</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
     <t>input</t>
   </si>
   <si>
-    <t>//a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"][1]</t>
-  </si>
-  <si>
     <t>/html/body/md-edit-dialog/div[2]/button[2]</t>
   </si>
   <si>
@@ -96,12 +84,6 @@
     <t>search input</t>
   </si>
   <si>
-    <t>select item</t>
-  </si>
-  <si>
-    <t>select first schedule on the calendar</t>
-  </si>
-  <si>
     <t>visit type</t>
   </si>
   <si>
@@ -120,21 +102,12 @@
     <t>Default Value</t>
   </si>
   <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>//td[@ng-click="vm.updateVisitType($event)"]</t>
   </si>
   <si>
     <t>//form[@name="editDialog"]/md-input-container/md-select</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list/md-list-item[1]/div/button</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/div/section/div[7]/button</t>
-  </si>
-  <si>
     <t>Click Visit</t>
   </si>
   <si>
@@ -198,7 +171,283 @@
     <t>//md-option[@class="ng-scope md-ink-ripple"][1]</t>
   </si>
   <si>
-    <t>clinician_lastname</t>
+    <t>/html/body/div/div/md-content/div/section/div[10]/button</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/div/section/div[8]/button</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/div/div/div/div[1]/button</t>
+  </si>
+  <si>
+    <t>//input[@id="nameSeach"]</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list/md-list-item[1]/div/button</t>
+  </si>
+  <si>
+    <t>(//md-card-header[@ng-click="vm.assignClinician(visitType.name, vm.episode.primaryClinicians[visitType.name])"])[1]</t>
+  </si>
+  <si>
+    <t>//md-dialog-content//button[@ng-click="vm.filterShow = !vm.filterShow"]</t>
+  </si>
+  <si>
+    <t>//md-dialog-content//input[@ng-model="vm.clinicianNameSearch"]</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/div/div[1]/div[1]/md-table-container/table/tbody/tr/td[1]/md-checkbox</t>
+  </si>
+  <si>
+    <t>select firt clinician result</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/div/div[1]/div[1]/md-input-container/div/button</t>
+  </si>
+  <si>
+    <t>click submit button</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>(//a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"])[1]</t>
+  </si>
+  <si>
+    <t>click first schedule</t>
+  </si>
+  <si>
+    <t>select first patient result</t>
+  </si>
+  <si>
+    <t>select assign clinician box</t>
+  </si>
+  <si>
+    <t>//div[@class="pg-loading-html pg-loaded"]</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>Update loading screen</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>click assign visit type</t>
+  </si>
+  <si>
+    <t>//form[@name="editDialog"]//md-select</t>
+  </si>
+  <si>
+    <t>update visit type</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
+  </si>
+  <si>
+    <t>Click first visit type</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Save"]</t>
+  </si>
+  <si>
+    <t>save button click</t>
+  </si>
+  <si>
+    <t>//md-dialog//md-tab-item[3]</t>
+  </si>
+  <si>
+    <t>click Edit Task</t>
+  </si>
+  <si>
+    <t>input task</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.addNewTask()"]</t>
+  </si>
+  <si>
+    <t>Add button Click</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>(//button[@ng-click="vm.openEdit(task)"])[1]</t>
+  </si>
+  <si>
+    <t>(//textarea[@ng-model="vm.descriptionChange"])[1]</t>
+  </si>
+  <si>
+    <t>first description</t>
+  </si>
+  <si>
+    <t>input description</t>
+  </si>
+  <si>
+    <t>//md-dialog-content//div/div/div[1]/md-list/md-list-item[1]/div[1]/div[2]/button[2]</t>
+  </si>
+  <si>
+    <t>click checked</t>
+  </si>
+  <si>
+    <t>//md-dialog-content//div/div/div[1]/md-list/md-list-item[2]/div[1]/div[2]/button[4]</t>
+  </si>
+  <si>
+    <t>delete task</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/md-dialog/md-dialog-actions/button</t>
+  </si>
+  <si>
+    <t>close modal popup</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[1]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[1]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[1]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[2]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[2]</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>visit frequency</t>
+  </si>
+  <si>
+    <t>Add RN</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[2]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[3]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[4]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[5]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[6]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[3]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[3]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[4]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[4]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[6]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[6]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[7]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[7]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[8]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[8]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[9]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[9]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[10]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[10]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[11]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[11]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[12]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[12]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[13]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[13]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[14]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[14]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[5]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[5]</t>
+  </si>
+  <si>
+    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[7]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-change="vm.orderTemplate(vm.value)"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[4]/md-dialog/md-dialog-actions/button[1]</t>
+  </si>
+  <si>
+    <t>gloria</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.frequency.subject"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="CSMAIL.COMPOSE_CSMAIL"]</t>
+  </si>
+  <si>
+    <t>button click</t>
   </si>
 </sst>
 </file>
@@ -539,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -575,21 +824,21 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -603,13 +852,13 @@
     </row>
     <row r="3" spans="1:9" ht="36.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -623,13 +872,13 @@
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -643,13 +892,16 @@
     </row>
     <row r="5" spans="1:9" ht="36.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -658,21 +910,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="36.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="50.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -684,15 +933,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36.75" customHeight="1">
+    <row r="7" spans="1:9" ht="50.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -706,13 +955,13 @@
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -726,33 +975,30 @@
     </row>
     <row r="9" spans="1:9" ht="36.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -766,13 +1012,13 @@
     </row>
     <row r="11" spans="1:9" ht="36.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -786,13 +1032,13 @@
     </row>
     <row r="12" spans="1:9" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -801,21 +1047,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -827,16 +1070,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="36.75" customHeight="1">
+    <row r="14" spans="1:9" customFormat="1" ht="51" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>1</v>
       </c>
@@ -849,16 +1093,13 @@
     </row>
     <row r="15" spans="1:9" ht="36.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -872,13 +1113,13 @@
     </row>
     <row r="16" spans="1:9" ht="36.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -892,13 +1133,13 @@
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -912,13 +1153,13 @@
     </row>
     <row r="18" spans="1:8" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -932,27 +1173,36 @@
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="63" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -966,13 +1216,16 @@
     </row>
     <row r="21" spans="1:8" ht="36.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -981,18 +1234,18 @@
         <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1006,47 +1259,47 @@
     </row>
     <row r="23" spans="1:8" ht="36.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1057,30 +1310,37 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="36.75" customHeight="1">
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" ht="63" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1089,18 +1349,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -1109,6 +1369,701 @@
         <v>1</v>
       </c>
       <c r="G28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="51" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B54" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B65" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1120,12 +2075,446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="48.85546875" defaultRowHeight="51" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="1:7" ht="51" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="51" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="51" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="51" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="51" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="51" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="51" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="51" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="51" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="51" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="51" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -174,9 +174,6 @@
     <t>/html/body/div/div/md-content/div/section/div[10]/button</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[8]/button</t>
-  </si>
-  <si>
     <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/div/div/div/div[1]/button</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>click submit button</t>
   </si>
   <si>
-    <t>che</t>
-  </si>
-  <si>
     <t>(//a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"])[1]</t>
   </si>
   <si>
@@ -309,9 +303,6 @@
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
   </si>
   <si>
-    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[1]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
     <t>(//div[@class="_md-thumb"])[1]</t>
   </si>
   <si>
@@ -339,21 +330,6 @@
     <t>Add RN</t>
   </si>
   <si>
-    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[2]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
-    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[3]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
-    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[4]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
-    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[5]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
-    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[6]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
     <t>(//div[@class="_md-thumb"])[3]</t>
   </si>
   <si>
@@ -426,9 +402,6 @@
     <t>(//div[@class="_md-slider-wrapper"])[5]</t>
   </si>
   <si>
-    <t>//md-dialog-content/form/md-card[1]/md-content/md-card[7]/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
     <t>//md-select[@ng-change="vm.orderTemplate(vm.value)"]</t>
   </si>
   <si>
@@ -438,16 +411,52 @@
     <t>/html/body/div[4]/md-dialog/md-dialog-actions/button[1]</t>
   </si>
   <si>
-    <t>gloria</t>
-  </si>
-  <si>
     <t>//input[@ng-model="vm.charts.frequency.subject"]</t>
   </si>
   <si>
+    <t>focus</t>
+  </si>
+  <si>
     <t>//button[@aria-label="CSMAIL.COMPOSE_CSMAIL"]</t>
   </si>
   <si>
     <t>button click</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][2]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][1]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][3]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][4]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][5]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][6]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//*[@id="fullCalendar"]/div/div/table/tbody/tr/td/div/div/div[1]/div[3]/table/tbody/tr/td[1]</t>
+  </si>
+  <si>
+    <t>First day of the calendar</t>
+  </si>
+  <si>
+    <t>//md-card[@class="input-block margin-bottom-10 ng-scope _md md-cs-content-theme-theme"][7]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[1]</t>
+  </si>
+  <si>
+    <t>Artamiel</t>
+  </si>
+  <si>
+    <t>alia</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/div/section/div[9]/button</t>
   </si>
 </sst>
 </file>
@@ -788,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -855,7 +864,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -875,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -895,13 +904,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -915,10 +924,10 @@
     </row>
     <row r="6" spans="1:9" ht="50.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -935,10 +944,10 @@
     </row>
     <row r="7" spans="1:9" ht="50.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -958,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -978,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -992,13 +1001,13 @@
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1012,10 +1021,10 @@
     </row>
     <row r="11" spans="1:9" ht="36.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -1032,13 +1041,13 @@
     </row>
     <row r="12" spans="1:9" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1052,10 +1061,10 @@
     </row>
     <row r="13" spans="1:9" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -1067,40 +1076,40 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" customFormat="1" ht="51" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="36.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" ht="51" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="36.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>1</v>
       </c>
@@ -1113,10 +1122,10 @@
     </row>
     <row r="16" spans="1:9" ht="36.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -1133,10 +1142,10 @@
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -1153,10 +1162,10 @@
     </row>
     <row r="18" spans="1:8" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -1173,16 +1182,13 @@
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -1196,13 +1202,16 @@
     </row>
     <row r="20" spans="1:8" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1216,16 +1225,13 @@
     </row>
     <row r="21" spans="1:8" ht="36.75" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -1239,13 +1245,16 @@
     </row>
     <row r="22" spans="1:8" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1259,10 +1268,10 @@
     </row>
     <row r="23" spans="1:8" ht="36.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -1279,66 +1288,66 @@
     </row>
     <row r="24" spans="1:8" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>88</v>
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" ht="63" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="63" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1349,15 +1358,15 @@
         <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1374,10 +1383,10 @@
     </row>
     <row r="29" spans="1:8" ht="36.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -1389,69 +1398,57 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="51" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="36.75" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="51" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="36.75" customHeight="1">
+      <c r="D32" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="46.5" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -1468,10 +1465,10 @@
     </row>
     <row r="34" spans="1:7" ht="36.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -1488,10 +1485,10 @@
     </row>
     <row r="35" spans="1:7" ht="36.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -1507,8 +1504,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="B36" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -1524,8 +1524,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="B37" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -1542,7 +1545,7 @@
     </row>
     <row r="38" spans="1:7" ht="36.75" customHeight="1">
       <c r="B38" s="3" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -1559,7 +1562,7 @@
     </row>
     <row r="39" spans="1:7" ht="36.75" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -1576,7 +1579,7 @@
     </row>
     <row r="40" spans="1:7" ht="36.75" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="41" spans="1:7" ht="36.75" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="42" spans="1:7" ht="36.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -1627,7 +1630,7 @@
     </row>
     <row r="43" spans="1:7" ht="36.75" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -1644,7 +1647,7 @@
     </row>
     <row r="44" spans="1:7" ht="36.75" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -1661,7 +1664,7 @@
     </row>
     <row r="45" spans="1:7" ht="36.75" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -1678,7 +1681,7 @@
     </row>
     <row r="46" spans="1:7" ht="36.75" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -1695,7 +1698,7 @@
     </row>
     <row r="47" spans="1:7" ht="36.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -1712,7 +1715,7 @@
     </row>
     <row r="48" spans="1:7" ht="36.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="49" spans="2:7" ht="36.75" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -1746,7 +1749,7 @@
     </row>
     <row r="50" spans="2:7" ht="36.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="51" spans="2:7" ht="36.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="52" spans="2:7" ht="36.75" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -1797,7 +1800,7 @@
     </row>
     <row r="53" spans="2:7" ht="36.75" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -1814,7 +1817,7 @@
     </row>
     <row r="54" spans="2:7" ht="36.75" customHeight="1">
       <c r="B54" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>7</v>
@@ -1831,7 +1834,7 @@
     </row>
     <row r="55" spans="2:7" ht="36.75" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
@@ -1848,7 +1851,7 @@
     </row>
     <row r="56" spans="2:7" ht="36.75" customHeight="1">
       <c r="B56" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="57" spans="2:7" ht="36.75" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>7</v>
@@ -1882,7 +1885,7 @@
     </row>
     <row r="58" spans="2:7" ht="36.75" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
@@ -1899,7 +1902,7 @@
     </row>
     <row r="59" spans="2:7" ht="36.75" customHeight="1">
       <c r="B59" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -1916,7 +1919,7 @@
     </row>
     <row r="60" spans="2:7" ht="36.75" customHeight="1">
       <c r="B60" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
@@ -1933,7 +1936,7 @@
     </row>
     <row r="61" spans="2:7" ht="36.75" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -1950,7 +1953,7 @@
     </row>
     <row r="62" spans="2:7" ht="36.75" customHeight="1">
       <c r="B62" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
@@ -1967,7 +1970,7 @@
     </row>
     <row r="63" spans="2:7" ht="36.75" customHeight="1">
       <c r="B63" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -1984,7 +1987,7 @@
     </row>
     <row r="64" spans="2:7" ht="36.75" customHeight="1">
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>7</v>
@@ -2001,7 +2004,7 @@
     </row>
     <row r="65" spans="2:7" ht="36.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>7</v>
@@ -2018,7 +2021,7 @@
     </row>
     <row r="66" spans="2:7" ht="36.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -2035,7 +2038,7 @@
     </row>
     <row r="67" spans="2:7" ht="36.75" customHeight="1">
       <c r="B67" s="3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>7</v>
@@ -2052,7 +2055,7 @@
     </row>
     <row r="68" spans="2:7" ht="36.75" customHeight="1">
       <c r="B68" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -2064,6 +2067,40 @@
         <v>1</v>
       </c>
       <c r="G68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B69" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B70" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2521,12 +2558,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -300,163 +300,25 @@
     <t>close modal popup</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[1]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[1]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[2]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[2]</t>
-  </si>
-  <si>
-    <t>Visit</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>visit frequency</t>
-  </si>
-  <si>
-    <t>Add RN</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[3]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[3]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[4]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[4]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[6]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[6]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[7]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[7]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[8]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[8]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[9]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[9]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[10]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[10]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[11]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[11]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[12]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[12]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[13]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[13]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[14]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[14]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-thumb"])[5]</t>
-  </si>
-  <si>
-    <t>(//div[@class="_md-slider-wrapper"])[5]</t>
-  </si>
-  <si>
-    <t>//md-select[@ng-change="vm.orderTemplate(vm.value)"]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
-  </si>
-  <si>
-    <t>/html/body/div[4]/md-dialog/md-dialog-actions/button[1]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.charts.frequency.subject"]</t>
-  </si>
-  <si>
     <t>focus</t>
   </si>
   <si>
     <t>//button[@aria-label="CSMAIL.COMPOSE_CSMAIL"]</t>
   </si>
   <si>
-    <t>button click</t>
-  </si>
-  <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][2]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][1]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][3]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][4]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][5]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][6]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
     <t>//*[@id="fullCalendar"]/div/div/table/tbody/tr/td/div/div/div[1]/div[3]/table/tbody/tr/td[1]</t>
   </si>
   <si>
     <t>First day of the calendar</t>
   </si>
   <si>
-    <t>//md-card[@class="input-block margin-bottom-10 ng-scope _md md-cs-content-theme-theme"][7]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[1]</t>
-  </si>
-  <si>
-    <t>Artamiel</t>
-  </si>
-  <si>
-    <t>alia</t>
-  </si>
-  <si>
     <t>/html/body/div/div/md-content/div/section/div[9]/button</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>clinician</t>
   </si>
 </sst>
 </file>
@@ -492,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -501,6 +363,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -797,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -864,7 +729,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -909,9 +774,7 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
@@ -920,6 +783,9 @@
       </c>
       <c r="G5" s="3">
         <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50.25" customHeight="1">
@@ -992,11 +858,11 @@
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="G9" s="3">
         <v>3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1">
@@ -1061,10 +927,10 @@
     </row>
     <row r="13" spans="1:9" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -1379,729 +1245,6 @@
       </c>
       <c r="G28" s="3">
         <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="36.75" customHeight="1">
-      <c r="B30" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="51" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B38" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B41" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B43" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B44" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B45" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B46" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B47" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B48" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B49" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B51" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B52" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B53" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B54" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B55" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B56" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B58" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B59" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B60" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B61" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B62" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B63" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B65" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B66" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B67" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B68" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B69" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="36.75" customHeight="1">
-      <c r="B70" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2568,13 +1711,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="36.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -318,7 +318,7 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>clinician</t>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD183"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -7,16 +7,19 @@
     <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
+    <sheet name="VisitFrequency" sheetId="2" r:id="rId2"/>
+    <sheet name="SortViisit" sheetId="3" r:id="rId3"/>
+    <sheet name="Notes" sheetId="4" r:id="rId4"/>
+    <sheet name="CheckPreAuth" sheetId="5" r:id="rId5"/>
+    <sheet name="backup" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="165">
   <si>
     <t>Name</t>
   </si>
@@ -45,30 +48,6 @@
     <t>input</t>
   </si>
   <si>
-    <t>/html/body/md-edit-dialog/div[2]/button[2]</t>
-  </si>
-  <si>
-    <t>assign clinician tab</t>
-  </si>
-  <si>
-    <t>confirm</t>
-  </si>
-  <si>
-    <t>Edit Task</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>//*[@id="clinicianSeach"]</t>
-  </si>
-  <si>
-    <t>non1</t>
-  </si>
-  <si>
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/div[1]/div[2]/div/md-menu/button</t>
   </si>
   <si>
@@ -84,93 +63,24 @@
     <t>search input</t>
   </si>
   <si>
-    <t>visit type</t>
-  </si>
-  <si>
-    <t>//md-icon[@class="ng-scope md-cs-content-theme-theme md-font fa fa-commenting-o material-icons"][1]</t>
-  </si>
-  <si>
-    <t>//div[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/div/div[2]/md-input-container/textarea</t>
-  </si>
-  <si>
-    <t>//div[@class="_md _md-open-menu-container md-whiteframe-z2 md-cs-content-theme-theme _md-active _md-clickable"]/md-menu-content/md-menu-item/button</t>
-  </si>
-  <si>
-    <t>//div[@class="_md _md-open-menu-container md-whiteframe-z2 md-cs-content-theme-theme _md-active _md-clickable"]/md-menu-content/md-menu-item[2]/button</t>
-  </si>
-  <si>
     <t>Default Value</t>
   </si>
   <si>
     <t>//td[@ng-click="vm.updateVisitType($event)"]</t>
   </si>
   <si>
-    <t>//form[@name="editDialog"]/md-input-container/md-select</t>
-  </si>
-  <si>
-    <t>Click Visit</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Select first visit</t>
-  </si>
-  <si>
     <t>//textarea[@ng-model="vm.newTaskContent"]</t>
   </si>
   <si>
-    <t>New Task Field</t>
-  </si>
-  <si>
-    <t>//button[@class="md-primary md-button ng-scope md-cs-content-theme-theme md-ink-ripple"]</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>//button[@ng-click="vm.filterShow = !vm.filterShow;  vm.focusInput()"]</t>
-  </si>
-  <si>
     <t>search</t>
   </si>
   <si>
-    <t>//div[@class="md-dialog-container ng-scope"]//md-tab-item[3]</t>
-  </si>
-  <si>
-    <t>//div[@class="md-dialog-container ng-scope"]//md-tab-item[2]</t>
-  </si>
-  <si>
-    <t>//div[@class="md-dialog-container ng-scope"]//md-tabs-content-wrapper//md-tab-content[2]//md-checkbox</t>
-  </si>
-  <si>
-    <t>select checkbox</t>
-  </si>
-  <si>
     <t>skip on error</t>
   </si>
   <si>
-    <t>office notes icon</t>
-  </si>
-  <si>
-    <t>office notes input</t>
-  </si>
-  <si>
-    <t>add to office notes</t>
-  </si>
-  <si>
     <t>send to clinician</t>
   </si>
   <si>
-    <t>send to office</t>
-  </si>
-  <si>
-    <t>//button[@ng-click="vm.confirmClinician( $event )"]</t>
-  </si>
-  <si>
-    <t>//md-option[@class="ng-scope md-ink-ripple"][1]</t>
-  </si>
-  <si>
     <t>/html/body/div/div/md-content/div/section/div[10]/button</t>
   </si>
   <si>
@@ -204,9 +114,6 @@
     <t>click submit button</t>
   </si>
   <si>
-    <t>(//a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"])[1]</t>
-  </si>
-  <si>
     <t>click first schedule</t>
   </si>
   <si>
@@ -315,10 +222,298 @@
     <t>/html/body/div/div/md-content/div/section/div[9]/button</t>
   </si>
   <si>
+    <t>//div[@id="fullCalendar"]//span[contains(text(),"CHHA")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
+  </si>
+  <si>
+    <t>//div[@id="fullCalendar"]//span[contains(text(),"MSW")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
+  </si>
+  <si>
+    <t>//div[@id="fullCalendar"]//span[contains(text(),"OT")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
+  </si>
+  <si>
+    <t>//div[@id="fullCalendar"]//span[contains(text(),"PT")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
+  </si>
+  <si>
+    <t>//div[@id="fullCalendar"]//span[contains(text(),"RD")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
+  </si>
+  <si>
+    <t>//div[@id="fullCalendar"]//span[contains(text(),"ST")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
+  </si>
+  <si>
+    <t>//div[@id="fullCalendar"]//span[contains(text(),"RN")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
+  </si>
+  <si>
+    <t>jones</t>
+  </si>
+  <si>
     <t>lastname</t>
   </si>
   <si>
-    <t>user</t>
+    <t>visit frequency</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
+  </si>
+  <si>
+    <t>button click</t>
+  </si>
+  <si>
+    <t>Add RN</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][1]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[1]</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[1]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[2]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[2]</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][2]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[3]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[3]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[4]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[4]</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][3]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[5]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[5]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[6]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[6]</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][4]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[7]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[7]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[8]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[8]</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][5]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[9]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[9]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[10]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[10]</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianType"][6]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[11]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[11]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[12]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[12]</t>
+  </si>
+  <si>
+    <t>//md-card[@class="input-block margin-bottom-10 ng-scope _md md-cs-content-theme-theme"][7]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[1]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[13]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[13]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-thumb"])[14]</t>
+  </si>
+  <si>
+    <t>(//div[@class="_md-slider-wrapper"])[14]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-change="vm.orderTemplate(vm.value)"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[4]/md-dialog/md-dialog-actions/button[1]</t>
+  </si>
+  <si>
+    <t>//div[@ng-repeat="obj in vm.lists| orderBy:'-sendDate'| filter: vm.typeFilter"]</t>
+  </si>
+  <si>
+    <t>//div[@ng-repeat="obj in vm.lists| orderBy:'-sendDate'| filter: vm.typeFilter"]/div</t>
+  </si>
+  <si>
+    <t>//*[contains(@class, 'highcharts-series-group')]//*[contains(@class, 'highcharts-point')][1]</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-content[2]/i</t>
+  </si>
+  <si>
+    <t>//*[contains(@class, 'highcharts-series-group')]//*[contains(@class, 'highcharts-point')][2]</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-content[2]</t>
+  </si>
+  <si>
+    <t>//*[contains(@class, 'highcharts-series-group')]//*[contains(@class, 'highcharts-point')][3]</t>
+  </si>
+  <si>
+    <t>//*[contains(@class, 'highcharts-series-group')]//*[contains(@class, 'highcharts-point')][4]</t>
+  </si>
+  <si>
+    <t>//*[contains(@class, 'highcharts-series-group')]//*[contains(@class, 'highcharts-point')][5]</t>
+  </si>
+  <si>
+    <t>//*[contains(@class, 'highcharts-series-group')]//*[contains(@class, 'highcharts-point')][6]</t>
+  </si>
+  <si>
+    <t>//*[contains(@class, 'highcharts-series-group')]//*[contains(@class, 'highcharts-point')][7]</t>
+  </si>
+  <si>
+    <t>//*[contains(@class, 'highcharts-series-group')]//*[contains(@class, 'highcharts-point')][8]</t>
+  </si>
+  <si>
+    <t>//*[contains(@class, 'highcharts-series-group')]//*[contains(@class, 'highcharts-point')][9]</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list/md-list-item/div/div[1]/div/div[2]/button[1]</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.newOfficeNote"]</t>
+  </si>
+  <si>
+    <t>add notes</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.addNewOfficeNote(false)"]</t>
+  </si>
+  <si>
+    <t>send toOffice only</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.addNewOfficeNote(true)"]</t>
+  </si>
+  <si>
+    <t>//md-card-header-text/span[@class="md-subhead ng-binding" and contains(text(),"ST")]</t>
+  </si>
+  <si>
+    <t>//md-card-header-text/span[@class="md-subhead ng-binding" and contains(text(),"RD")]</t>
+  </si>
+  <si>
+    <t>//md-card-header-text/span[@class="md-subhead ng-binding" and contains(text(),"MSW")]</t>
+  </si>
+  <si>
+    <t>//md-card-header-text/span[@class="md-subhead ng-binding" and contains(text(),"OT")]</t>
+  </si>
+  <si>
+    <t>//md-card-header-text/span[@class="md-subhead ng-binding" and contains(text(),"RN")]</t>
+  </si>
+  <si>
+    <t>//md-card-header-text/span[@class="md-subhead ng-binding" and contains(text(),"CHHA")]</t>
+  </si>
+  <si>
+    <t>//md-card-header-text/span[@class="md-subhead ng-binding" and contains(text(),"PT")]</t>
+  </si>
+  <si>
+    <t>//md-dialog//md-tab-item[2]</t>
+  </si>
+  <si>
+    <t>//md-dialog//button[@ng-click="vm.filterShow = !vm.filterShow;  vm.focusInput()"]</t>
+  </si>
+  <si>
+    <t>Seach icon</t>
+  </si>
+  <si>
+    <t>//md-dialog//input[@ng-model="vm.clinicianNameSearch"]</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>chha1</t>
+  </si>
+  <si>
+    <t>//md-dialog//div/div/div[1]/md-table-container/table/tbody/tr/td[1]/md-checkbox</t>
+  </si>
+  <si>
+    <t>Click First Clinician</t>
+  </si>
+  <si>
+    <t>//md-dialog//button[@ng-click="vm.confirmClinician( $event )"]</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>msw1</t>
+  </si>
+  <si>
+    <t>ot1</t>
+  </si>
+  <si>
+    <t>pt1</t>
+  </si>
+  <si>
+    <t>rd1</t>
+  </si>
+  <si>
+    <t>st1</t>
+  </si>
+  <si>
+    <t>rn1</t>
+  </si>
+  <si>
+    <t>Assign Clinician</t>
   </si>
 </sst>
 </file>
@@ -354,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -367,6 +562,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -698,18 +899,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -726,10 +927,10 @@
     </row>
     <row r="3" spans="1:9" ht="36.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -746,10 +947,10 @@
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -766,15 +967,17 @@
     </row>
     <row r="5" spans="1:9" ht="36.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
@@ -784,16 +987,13 @@
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="50.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -810,10 +1010,10 @@
     </row>
     <row r="7" spans="1:9" ht="50.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -833,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -845,35 +1045,35 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="36.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="G9" s="3">
         <v>3</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -887,10 +1087,10 @@
     </row>
     <row r="11" spans="1:9" ht="36.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -907,13 +1107,13 @@
     </row>
     <row r="12" spans="1:9" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -927,10 +1127,10 @@
     </row>
     <row r="13" spans="1:9" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -942,15 +1142,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="36.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -967,10 +1167,10 @@
     </row>
     <row r="15" spans="1:9" customFormat="1" ht="51" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -988,10 +1188,10 @@
     </row>
     <row r="16" spans="1:9" ht="36.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -1008,10 +1208,10 @@
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -1028,10 +1228,10 @@
     </row>
     <row r="18" spans="1:8" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -1048,10 +1248,10 @@
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -1068,16 +1268,16 @@
     </row>
     <row r="20" spans="1:8" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1091,10 +1291,10 @@
     </row>
     <row r="21" spans="1:8" ht="36.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -1111,16 +1311,16 @@
     </row>
     <row r="22" spans="1:8" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1134,10 +1334,10 @@
     </row>
     <row r="23" spans="1:8" ht="36.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -1154,10 +1354,10 @@
     </row>
     <row r="24" spans="1:8" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -1174,24 +1374,24 @@
     </row>
     <row r="25" spans="1:8" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -1209,10 +1409,10 @@
     </row>
     <row r="27" spans="1:8" ht="63" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -1229,10 +1429,10 @@
     </row>
     <row r="28" spans="1:8" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1244,7 +1444,2346 @@
         <v>1</v>
       </c>
       <c r="G28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G87" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A102" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A103" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A104" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A105" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A106" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G106" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A107" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A108" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="3">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A110" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A111" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A112" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A113" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A114" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A115" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A116" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A118" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A119" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A120" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A121" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A122" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A123" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A124" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A125" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G125" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A126" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A127" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A129" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A130" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A131" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A132" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A133" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A134" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A135" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A136" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A137" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A138" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A139" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A140" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A141" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A142" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A143" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A144" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G144" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A145" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A146" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="3">
+        <v>1</v>
+      </c>
+      <c r="F146" s="3">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +3794,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -1263,12 +3802,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.85546875" defaultRowHeight="51" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="1:7" ht="51" customHeight="1">
+    <row r="1" spans="1:9" ht="51" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1283,13 +3851,15 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="51" customHeight="1">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="51" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1302,15 +3872,17 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="51" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1320,23 +3892,25 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="51" customHeight="1">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="51" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
@@ -1344,15 +3918,19 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="51" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="51" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -1367,20 +3945,20 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="51" customHeight="1">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="51" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>1</v>
       </c>
@@ -1388,43 +3966,37 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="51" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="51" customHeight="1">
+      <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="51" customHeight="1">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="51" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -1434,13 +4006,15 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="51" customHeight="1">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="51" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -1455,13 +4029,15 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" customHeight="1">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="51" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -1476,13 +4052,15 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="51" customHeight="1">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="51" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -1497,28 +4075,38 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="51" customHeight="1">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="51" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="51" customHeight="1">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="51" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -1533,13 +4121,13 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="51" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="51" customHeight="1">
+      <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -1552,15 +4140,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="51" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="51" customHeight="1">
+      <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -1575,30 +4163,34 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="51" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="51" customHeight="1">
+      <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="51" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="51" customHeight="1">
+      <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -1613,13 +4205,13 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="51" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="51" customHeight="1">
+      <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -1634,30 +4226,34 @@
       <c r="G19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="51" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="51" customHeight="1">
+      <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="51" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="51" customHeight="1">
+      <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -1672,13 +4268,13 @@
       <c r="G21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="51" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="51" customHeight="1">
+      <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -1692,6 +4288,1018 @@
       </c>
       <c r="G22" s="3">
         <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="51" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="51" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="51" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="51" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="51" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="51" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="51" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="51" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="51" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="51" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="51" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="51" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="51" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="51" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="51" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="51" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="51" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="51" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="51" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="51" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="51" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="51" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="51" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="51" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="51" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="51" customHeight="1">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="51" customHeight="1">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="120">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="105">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="195">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="195">
+      <c r="B5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="135">
+      <c r="B6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="195">
+      <c r="B7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="195">
+      <c r="B8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="135">
+      <c r="B9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="195">
+      <c r="B10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="195">
+      <c r="B11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="135">
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="195">
+      <c r="B13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="195">
+      <c r="B14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="135">
+      <c r="B15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="195">
+      <c r="B16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="195">
+      <c r="B17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="135">
+      <c r="B18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="195">
+      <c r="B19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="195">
+      <c r="B20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="135">
+      <c r="B21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="195">
+      <c r="B22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="195">
+      <c r="B23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="135">
+      <c r="B24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="195">
+      <c r="B25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="195">
+      <c r="B26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="135">
+      <c r="B27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="195">
+      <c r="B28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="195">
+      <c r="B29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1699,25 +5307,2400 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="36.75" customHeight="1">
+    <row r="1" spans="1:9" ht="60">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="120">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="105">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="195">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="255">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="90">
+      <c r="A7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="225">
+      <c r="A8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="105">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="90">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="225">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="105">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="30.7109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="B7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60">
+      <c r="B8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60">
+      <c r="B9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60">
+      <c r="B10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60">
+      <c r="B11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60">
+      <c r="B12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60">
+      <c r="B13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G90"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="63" defaultRowHeight="29.25" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>94</v>
+        <v>7</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="163">
   <si>
     <t>Name</t>
   </si>
@@ -243,9 +243,6 @@
     <t>//div[@id="fullCalendar"]//span[contains(text(),"RN")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
   </si>
   <si>
-    <t>jones</t>
-  </si>
-  <si>
     <t>lastname</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>Add RN</t>
   </si>
   <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][1]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
     <t>Visit</t>
   </si>
   <si>
@@ -282,9 +276,6 @@
     <t>(//div[@class="_md-slider-wrapper"])[2]</t>
   </si>
   <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][2]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
     <t>(//div[@class="_md-thumb"])[3]</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
     <t>(//div[@class="_md-slider-wrapper"])[4]</t>
   </si>
   <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][3]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
     <t>(//div[@class="_md-thumb"])[5]</t>
   </si>
   <si>
@@ -312,9 +300,6 @@
     <t>(//div[@class="_md-slider-wrapper"])[6]</t>
   </si>
   <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][4]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
     <t>(//div[@class="_md-thumb"])[7]</t>
   </si>
   <si>
@@ -327,9 +312,6 @@
     <t>(//div[@class="_md-slider-wrapper"])[8]</t>
   </si>
   <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][5]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
     <t>(//div[@class="_md-thumb"])[9]</t>
   </si>
   <si>
@@ -342,9 +324,6 @@
     <t>(//div[@class="_md-slider-wrapper"])[10]</t>
   </si>
   <si>
-    <t>//md-card[@ng-repeat="type in vm.clinicianType"][6]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
-  </si>
-  <si>
     <t>(//div[@class="_md-thumb"])[11]</t>
   </si>
   <si>
@@ -378,15 +357,6 @@
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
   </si>
   <si>
-    <t>/html/body/div[4]/md-dialog/md-dialog-actions/button[1]</t>
-  </si>
-  <si>
-    <t>//div[@ng-repeat="obj in vm.lists| orderBy:'-sendDate'| filter: vm.typeFilter"]</t>
-  </si>
-  <si>
-    <t>//div[@ng-repeat="obj in vm.lists| orderBy:'-sendDate'| filter: vm.typeFilter"]/div</t>
-  </si>
-  <si>
     <t>//*[contains(@class, 'highcharts-series-group')]//*[contains(@class, 'highcharts-point')][1]</t>
   </si>
   <si>
@@ -514,19 +484,49 @@
   </si>
   <si>
     <t>Assign Clinician</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianTypes"][1]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianTypes"][2]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianTypes"][3]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianTypes"][4]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianTypes"][5]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>//md-card[@ng-repeat="type in vm.clinicianTypes"][6]//*[@id="all-frequency"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item</t>
+  </si>
+  <si>
+    <t>/html/body/div[10]/md-dialog/md-dialog-actions/button[2]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.send()"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -549,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -569,6 +569,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -975,9 +976,7 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
@@ -986,6 +985,9 @@
       </c>
       <c r="G5" s="3">
         <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50.25" customHeight="1">
@@ -1059,7 +1061,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -1429,10 +1431,10 @@
     </row>
     <row r="28" spans="1:8" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1449,10 +1451,10 @@
     </row>
     <row r="29" spans="1:8" ht="36.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -1469,16 +1471,16 @@
     </row>
     <row r="30" spans="1:8" ht="36.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G30" s="3">
         <v>3</v>
@@ -1486,10 +1488,10 @@
     </row>
     <row r="31" spans="1:8" ht="36.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>37</v>
@@ -1506,10 +1508,10 @@
     </row>
     <row r="32" spans="1:8" ht="36.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -1806,10 +1808,10 @@
     </row>
     <row r="47" spans="1:7" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -1826,10 +1828,10 @@
     </row>
     <row r="48" spans="1:7" ht="36.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -1846,16 +1848,16 @@
     </row>
     <row r="49" spans="1:7" ht="36.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G49" s="3">
         <v>3</v>
@@ -1863,10 +1865,10 @@
     </row>
     <row r="50" spans="1:7" ht="36.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>37</v>
@@ -1883,10 +1885,10 @@
     </row>
     <row r="51" spans="1:7" ht="36.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -2183,10 +2185,10 @@
     </row>
     <row r="66" spans="1:7" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -2203,10 +2205,10 @@
     </row>
     <row r="67" spans="1:7" ht="36.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>7</v>
@@ -2223,16 +2225,16 @@
     </row>
     <row r="68" spans="1:7" ht="36.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G68" s="3">
         <v>3</v>
@@ -2240,10 +2242,10 @@
     </row>
     <row r="69" spans="1:7" ht="36.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>37</v>
@@ -2260,10 +2262,10 @@
     </row>
     <row r="70" spans="1:7" ht="36.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -2560,10 +2562,10 @@
     </row>
     <row r="85" spans="1:7" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -2580,10 +2582,10 @@
     </row>
     <row r="86" spans="1:7" ht="36.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -2600,16 +2602,16 @@
     </row>
     <row r="87" spans="1:7" ht="36.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G87" s="3">
         <v>3</v>
@@ -2617,10 +2619,10 @@
     </row>
     <row r="88" spans="1:7" ht="36.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>37</v>
@@ -2637,10 +2639,10 @@
     </row>
     <row r="89" spans="1:7" ht="36.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -2937,10 +2939,10 @@
     </row>
     <row r="104" spans="1:7" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -2957,10 +2959,10 @@
     </row>
     <row r="105" spans="1:7" ht="36.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -2977,16 +2979,16 @@
     </row>
     <row r="106" spans="1:7" ht="36.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G106" s="3">
         <v>3</v>
@@ -2994,10 +2996,10 @@
     </row>
     <row r="107" spans="1:7" ht="36.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>37</v>
@@ -3014,10 +3016,10 @@
     </row>
     <row r="108" spans="1:7" ht="36.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>7</v>
@@ -3314,10 +3316,10 @@
     </row>
     <row r="123" spans="1:7" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -3334,10 +3336,10 @@
     </row>
     <row r="124" spans="1:7" ht="36.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>7</v>
@@ -3354,16 +3356,16 @@
     </row>
     <row r="125" spans="1:7" ht="36.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G125" s="3">
         <v>3</v>
@@ -3371,10 +3373,10 @@
     </row>
     <row r="126" spans="1:7" ht="36.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>37</v>
@@ -3391,10 +3393,10 @@
     </row>
     <row r="127" spans="1:7" ht="36.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -3691,10 +3693,10 @@
     </row>
     <row r="142" spans="1:7" ht="36.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>7</v>
@@ -3711,10 +3713,10 @@
     </row>
     <row r="143" spans="1:7" ht="36.75" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>7</v>
@@ -3731,16 +3733,16 @@
     </row>
     <row r="144" spans="1:7" ht="36.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G144" s="3">
         <v>3</v>
@@ -3748,10 +3750,10 @@
     </row>
     <row r="145" spans="1:7" ht="36.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>37</v>
@@ -3768,10 +3770,10 @@
     </row>
     <row r="146" spans="1:7" ht="36.75" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>7</v>
@@ -3796,8 +3798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.85546875" defaultRowHeight="51" customHeight="1"/>
@@ -3921,7 +3923,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -3950,10 +3952,10 @@
     </row>
     <row r="7" spans="1:9" ht="51" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -3988,7 +3990,7 @@
     </row>
     <row r="9" spans="1:9" ht="51" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>63</v>
@@ -4011,10 +4013,10 @@
     </row>
     <row r="10" spans="1:9" ht="51" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -4034,10 +4036,10 @@
     </row>
     <row r="11" spans="1:9" ht="51" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -4057,10 +4059,10 @@
     </row>
     <row r="12" spans="1:9" ht="51" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -4080,10 +4082,10 @@
     </row>
     <row r="13" spans="1:9" ht="51" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -4103,10 +4105,10 @@
     </row>
     <row r="14" spans="1:9" ht="51" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -4127,7 +4129,7 @@
     <row r="15" spans="1:9" ht="51" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -4148,7 +4150,7 @@
     <row r="16" spans="1:9" ht="51" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -4169,7 +4171,7 @@
     <row r="17" spans="1:9" ht="51" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -4190,7 +4192,7 @@
     <row r="18" spans="1:9" ht="51" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -4211,7 +4213,7 @@
     <row r="19" spans="1:9" ht="51" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -4232,7 +4234,7 @@
     <row r="20" spans="1:9" ht="51" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4253,7 +4255,7 @@
     <row r="21" spans="1:9" ht="51" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -4274,7 +4276,7 @@
     <row r="22" spans="1:9" ht="51" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -4295,7 +4297,7 @@
     <row r="23" spans="1:9" ht="51" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -4316,7 +4318,7 @@
     <row r="24" spans="1:9" ht="51" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -4337,7 +4339,7 @@
     <row r="25" spans="1:9" ht="51" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -4358,7 +4360,7 @@
     <row r="26" spans="1:9" ht="51" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -4379,7 +4381,7 @@
     <row r="27" spans="1:9" ht="51" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -4400,7 +4402,7 @@
     <row r="28" spans="1:9" ht="51" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -4421,7 +4423,7 @@
     <row r="29" spans="1:9" ht="51" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -4442,7 +4444,7 @@
     <row r="30" spans="1:9" ht="51" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -4463,7 +4465,7 @@
     <row r="31" spans="1:9" ht="51" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -4484,7 +4486,7 @@
     <row r="32" spans="1:9" ht="51" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -4505,7 +4507,7 @@
     <row r="33" spans="1:9" ht="51" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -4526,7 +4528,7 @@
     <row r="34" spans="1:9" ht="51" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -4547,7 +4549,7 @@
     <row r="35" spans="1:9" ht="51" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -4568,7 +4570,7 @@
     <row r="36" spans="1:9" ht="51" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -4589,7 +4591,7 @@
     <row r="37" spans="1:9" ht="51" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -4610,7 +4612,7 @@
     <row r="38" spans="1:9" ht="51" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -4631,7 +4633,7 @@
     <row r="39" spans="1:9" ht="51" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -4652,7 +4654,7 @@
     <row r="40" spans="1:9" ht="51" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -4673,7 +4675,7 @@
     <row r="41" spans="1:9" ht="51" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -4694,7 +4696,7 @@
     <row r="42" spans="1:9" ht="51" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -4715,7 +4717,7 @@
     <row r="43" spans="1:9" ht="51" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -4736,7 +4738,7 @@
     <row r="44" spans="1:9" ht="51" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -4757,7 +4759,7 @@
     <row r="45" spans="1:9" ht="51" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -4778,7 +4780,7 @@
     <row r="46" spans="1:9" ht="51" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -4799,7 +4801,7 @@
     <row r="47" spans="1:9" ht="51" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -4820,26 +4822,28 @@
     <row r="48" spans="1:9" ht="51" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" ht="51" customHeight="1">
       <c r="A49" s="5"/>
-      <c r="B49" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -4941,17 +4945,17 @@
     <row r="4" spans="1:9" ht="195">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="195">
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -4968,7 +4972,7 @@
     </row>
     <row r="6" spans="1:9" ht="135">
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -4985,15 +4989,15 @@
     </row>
     <row r="7" spans="1:9" ht="195">
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="195">
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -5010,7 +5014,7 @@
     </row>
     <row r="9" spans="1:9" ht="135">
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -5027,15 +5031,15 @@
     </row>
     <row r="10" spans="1:9" ht="195">
       <c r="B10" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="195">
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -5052,7 +5056,7 @@
     </row>
     <row r="12" spans="1:9" ht="135">
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -5069,15 +5073,15 @@
     </row>
     <row r="13" spans="1:9" ht="195">
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="195">
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -5094,7 +5098,7 @@
     </row>
     <row r="15" spans="1:9" ht="135">
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -5111,15 +5115,15 @@
     </row>
     <row r="16" spans="1:9" ht="195">
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="195">
       <c r="B17" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -5136,7 +5140,7 @@
     </row>
     <row r="18" spans="2:7" ht="135">
       <c r="B18" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -5153,15 +5157,15 @@
     </row>
     <row r="19" spans="2:7" ht="195">
       <c r="B19" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="195">
       <c r="B20" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -5178,7 +5182,7 @@
     </row>
     <row r="21" spans="2:7" ht="135">
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -5195,15 +5199,15 @@
     </row>
     <row r="22" spans="2:7" ht="195">
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="195">
       <c r="B23" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -5220,7 +5224,7 @@
     </row>
     <row r="24" spans="2:7" ht="135">
       <c r="B24" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -5237,15 +5241,15 @@
     </row>
     <row r="25" spans="2:7" ht="195">
       <c r="B25" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="195">
       <c r="B26" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -5262,7 +5266,7 @@
     </row>
     <row r="27" spans="2:7" ht="135">
       <c r="B27" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -5279,15 +5283,15 @@
     </row>
     <row r="28" spans="2:7" ht="195">
       <c r="B28" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="195">
       <c r="B29" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -5436,14 +5440,14 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="255">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -5463,10 +5467,10 @@
     </row>
     <row r="7" spans="1:9" ht="90">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -5486,7 +5490,7 @@
     </row>
     <row r="8" spans="1:9" ht="225">
       <c r="A8" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -5510,7 +5514,7 @@
     <row r="9" spans="1:9" ht="105">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -5531,13 +5535,13 @@
     <row r="10" spans="1:9" ht="90">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
@@ -5573,7 +5577,7 @@
     <row r="12" spans="1:9" ht="105">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -5719,7 +5723,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
@@ -5744,7 +5748,7 @@
     </row>
     <row r="7" spans="1:9" ht="60">
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -5752,7 +5756,7 @@
     </row>
     <row r="8" spans="1:9" ht="60">
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -5760,7 +5764,7 @@
     </row>
     <row r="9" spans="1:9" ht="60">
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -5768,7 +5772,7 @@
     </row>
     <row r="10" spans="1:9" ht="60">
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -5776,7 +5780,7 @@
     </row>
     <row r="11" spans="1:9" ht="60">
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -5784,7 +5788,7 @@
     </row>
     <row r="12" spans="1:9" ht="60">
       <c r="B12" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
@@ -5792,7 +5796,7 @@
     </row>
     <row r="13" spans="1:9" ht="60">
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -5807,7 +5811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.send()"]</t>
+  </si>
+  <si>
+    <t>//div[@ng-click="vm.composeClick($event, obj, 'edit')"]</t>
   </si>
 </sst>
 </file>
@@ -867,7 +870,7 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -3798,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.85546875" defaultRowHeight="51" customHeight="1"/>
@@ -4842,8 +4845,12 @@
     </row>
     <row r="49" spans="1:9" ht="51" customHeight="1">
       <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -4861,13 +4868,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="24.42578125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="36.75" customHeight="1">
+    <row r="1" spans="1:9" ht="36.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4896,7 +4906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="120">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4906,7 +4916,6 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>1</v>
       </c>
@@ -4916,10 +4925,8 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="105">
+    </row>
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4929,7 +4936,6 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -4939,55 +4945,50 @@
       <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="195">
-      <c r="A4" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="60">
       <c r="B4" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="195">
+    </row>
+    <row r="5" spans="1:9" ht="60">
       <c r="B5" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="135">
+    <row r="6" spans="1:9" ht="45">
       <c r="B6" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="195">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60">
       <c r="B7" s="3" t="s">
         <v>115</v>
       </c>
@@ -4995,41 +4996,41 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="195">
+    <row r="8" spans="1:9" ht="60">
       <c r="B8" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="135">
+    <row r="9" spans="1:9" ht="45">
       <c r="B9" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="195">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60">
       <c r="B10" s="3" t="s">
         <v>117</v>
       </c>
@@ -5037,41 +5038,41 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="195">
+    <row r="11" spans="1:9" ht="60">
       <c r="B11" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="135">
+    <row r="12" spans="1:9" ht="45">
       <c r="B12" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="195">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60">
       <c r="B13" s="3" t="s">
         <v>117</v>
       </c>
@@ -5079,41 +5080,41 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="195">
+    <row r="14" spans="1:9" ht="60">
       <c r="B14" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="135">
+    <row r="15" spans="1:9" ht="45">
       <c r="B15" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="195">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60">
       <c r="B16" s="3" t="s">
         <v>119</v>
       </c>
@@ -5121,41 +5122,41 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="195">
+    <row r="17" spans="2:7" ht="60">
       <c r="B17" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="135">
+    <row r="18" spans="2:7" ht="45">
       <c r="B18" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="195">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="60">
       <c r="B19" s="3" t="s">
         <v>120</v>
       </c>
@@ -5163,41 +5164,41 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="195">
+    <row r="20" spans="2:7" ht="60">
       <c r="B20" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="135">
+    <row r="21" spans="2:7" ht="45">
       <c r="B21" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="195">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="60">
       <c r="B22" s="3" t="s">
         <v>121</v>
       </c>
@@ -5205,41 +5206,41 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="195">
+    <row r="23" spans="2:7" ht="60">
       <c r="B23" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="135">
+    <row r="24" spans="2:7" ht="45">
       <c r="B24" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="195">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="60">
       <c r="B25" s="3" t="s">
         <v>122</v>
       </c>
@@ -5247,41 +5248,41 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="195">
+    <row r="26" spans="2:7" ht="60">
       <c r="B26" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="135">
+    <row r="27" spans="2:7" ht="45">
       <c r="B27" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="195">
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="60">
       <c r="B28" s="3" t="s">
         <v>123</v>
       </c>
@@ -5289,20 +5290,20 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="195">
+    <row r="29" spans="2:7" ht="60">
       <c r="B29" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
         <v>5</v>
       </c>
     </row>
@@ -5316,12 +5317,15 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="40.42578125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5350,7 +5354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="120">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -5360,7 +5364,6 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>1</v>
       </c>
@@ -5370,10 +5373,8 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="105">
+    </row>
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -5383,7 +5384,6 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -5393,10 +5393,8 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="195">
+    </row>
+    <row r="4" spans="1:9" ht="45">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -5406,7 +5404,6 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
@@ -5416,10 +5413,8 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="60">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -5442,17 +5437,14 @@
       <c r="H5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="255">
-      <c r="A6" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="60">
       <c r="B6" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>1</v>
       </c>
@@ -5462,10 +5454,8 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="90">
+    </row>
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="3" t="s">
         <v>125</v>
       </c>
@@ -5478,17 +5468,14 @@
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="225">
+    </row>
+    <row r="8" spans="1:9" ht="60">
       <c r="A8" s="3" t="s">
         <v>127</v>
       </c>
@@ -5498,7 +5485,6 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -5508,18 +5494,14 @@
       <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="105">
-      <c r="A9" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="30">
       <c r="B9" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -5529,11 +5511,8 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="90">
-      <c r="A10" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="30">
       <c r="B10" s="3" t="s">
         <v>126</v>
       </c>
@@ -5543,25 +5522,20 @@
       <c r="D10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="3"/>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="225">
-      <c r="A11" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="60">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -5571,18 +5545,14 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="105">
-      <c r="A12" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="30">
       <c r="B12" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>1</v>
       </c>
@@ -5592,8 +5562,6 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5811,8 +5779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63" defaultRowHeight="29.25" customHeight="1"/>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list/md-list-item[1]/div/button</t>
   </si>
   <si>
-    <t>(//md-card-header[@ng-click="vm.assignClinician(visitType.name, vm.episode.primaryClinicians[visitType.name])"])[1]</t>
-  </si>
-  <si>
     <t>//md-dialog-content//button[@ng-click="vm.filterShow = !vm.filterShow"]</t>
   </si>
   <si>
@@ -511,6 +508,9 @@
   </si>
   <si>
     <t>//div[@ng-click="vm.composeClick($event, obj, 'edit')"]</t>
+  </si>
+  <si>
+    <t>//span[@class="md-subhead ng-binding" and contains(text(),"PT")]/../../../../md-card/md-card-header</t>
   </si>
 </sst>
 </file>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -934,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -990,12 +990,12 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="7" spans="1:9" ht="50.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -1038,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="11" spans="1:9" ht="36.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="12" spans="1:9" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="13" spans="1:9" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="14" spans="1:9" ht="36.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="15" spans="1:9" customFormat="1" ht="51" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="16" spans="1:9" ht="36.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="18" spans="1:8" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="20" spans="1:8" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
@@ -1282,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="21" spans="1:8" ht="36.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="22" spans="1:8" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1339,10 +1339,10 @@
     </row>
     <row r="23" spans="1:8" ht="36.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="24" spans="1:8" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="25" spans="1:8" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>16</v>
@@ -1388,15 +1388,15 @@
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="27" spans="1:8" ht="63" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="28" spans="1:8" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="29" spans="1:8" ht="36.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -1474,16 +1474,16 @@
     </row>
     <row r="30" spans="1:8" ht="36.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="3">
         <v>3</v>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="31" spans="1:8" ht="36.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="32" spans="1:8" ht="36.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="33" spans="1:7" ht="36.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="34" spans="1:7" ht="36.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>15</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="35" spans="1:7" ht="36.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="36" spans="1:7" ht="36.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="37" spans="1:7" ht="36.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="38" spans="1:7" ht="36.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="39" spans="1:7" ht="36.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>16</v>
@@ -1660,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="40" spans="1:7" ht="36.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="41" spans="1:7" ht="36.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>16</v>
@@ -1703,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="42" spans="1:7" ht="36.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="43" spans="1:7" ht="36.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="44" spans="1:7" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>16</v>
@@ -1766,15 +1766,15 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="46" spans="1:7" ht="36.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="47" spans="1:7" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="48" spans="1:7" ht="36.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="49" spans="1:7" ht="36.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" s="3">
         <v>3</v>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="50" spans="1:7" ht="36.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="51" spans="1:7" ht="36.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="52" spans="1:7" ht="36.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="53" spans="1:7" ht="36.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>15</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="54" spans="1:7" ht="36.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>7</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="55" spans="1:7" ht="36.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="56" spans="1:7" ht="36.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="57" spans="1:7" ht="36.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>7</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="58" spans="1:7" ht="36.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>16</v>
@@ -2037,7 +2037,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="59" spans="1:7" ht="36.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="60" spans="1:7" ht="36.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>16</v>
@@ -2080,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -2094,10 +2094,10 @@
     </row>
     <row r="61" spans="1:7" ht="36.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="62" spans="1:7" ht="36.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="63" spans="1:7" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>16</v>
@@ -2143,15 +2143,15 @@
         <v>8</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>7</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="65" spans="1:7" ht="36.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>7</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="66" spans="1:7" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="67" spans="1:7" ht="36.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>7</v>
@@ -2228,16 +2228,16 @@
     </row>
     <row r="68" spans="1:7" ht="36.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G68" s="3">
         <v>3</v>
@@ -2245,13 +2245,13 @@
     </row>
     <row r="69" spans="1:7" ht="36.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="70" spans="1:7" ht="36.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="71" spans="1:7" ht="36.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="72" spans="1:7" ht="36.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>15</v>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="73" spans="1:7" ht="36.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>7</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="74" spans="1:7" ht="36.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="75" spans="1:7" ht="36.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>7</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="76" spans="1:7" ht="36.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="77" spans="1:7" ht="36.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>16</v>
@@ -2414,7 +2414,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="78" spans="1:7" ht="36.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="79" spans="1:7" ht="36.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>16</v>
@@ -2457,7 +2457,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="80" spans="1:7" ht="36.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -2491,10 +2491,10 @@
     </row>
     <row r="81" spans="1:7" ht="36.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="82" spans="1:7" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>16</v>
@@ -2520,15 +2520,15 @@
         <v>8</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>7</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="84" spans="1:7" ht="36.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>7</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="85" spans="1:7" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="86" spans="1:7" ht="36.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -2605,16 +2605,16 @@
     </row>
     <row r="87" spans="1:7" ht="36.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G87" s="3">
         <v>3</v>
@@ -2622,13 +2622,13 @@
     </row>
     <row r="88" spans="1:7" ht="36.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="89" spans="1:7" ht="36.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="90" spans="1:7" ht="36.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>7</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="91" spans="1:7" ht="36.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>15</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="92" spans="1:7" ht="36.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>7</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="93" spans="1:7" ht="36.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>7</v>
@@ -2742,10 +2742,10 @@
     </row>
     <row r="94" spans="1:7" ht="36.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>7</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="95" spans="1:7" ht="36.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>7</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="96" spans="1:7" ht="36.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>16</v>
@@ -2791,7 +2791,7 @@
         <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E96" s="3">
         <v>1</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="97" spans="1:7" ht="36.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>7</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="98" spans="1:7" ht="36.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>16</v>
@@ -2834,7 +2834,7 @@
         <v>8</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="99" spans="1:7" ht="36.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="100" spans="1:7" ht="36.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="101" spans="1:7" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>16</v>
@@ -2897,15 +2897,15 @@
         <v>8</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>7</v>
@@ -2922,10 +2922,10 @@
     </row>
     <row r="103" spans="1:7" ht="36.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>7</v>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="104" spans="1:7" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -2962,10 +2962,10 @@
     </row>
     <row r="105" spans="1:7" ht="36.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -2982,16 +2982,16 @@
     </row>
     <row r="106" spans="1:7" ht="36.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G106" s="3">
         <v>3</v>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="107" spans="1:7" ht="36.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E107" s="3">
         <v>1</v>
@@ -3019,10 +3019,10 @@
     </row>
     <row r="108" spans="1:7" ht="36.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>7</v>
@@ -3039,10 +3039,10 @@
     </row>
     <row r="109" spans="1:7" ht="36.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>7</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="110" spans="1:7" ht="36.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>15</v>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="111" spans="1:7" ht="36.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>7</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="112" spans="1:7" ht="36.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>7</v>
@@ -3119,10 +3119,10 @@
     </row>
     <row r="113" spans="1:7" ht="36.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>7</v>
@@ -3139,10 +3139,10 @@
     </row>
     <row r="114" spans="1:7" ht="36.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>7</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="115" spans="1:7" ht="36.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>16</v>
@@ -3168,7 +3168,7 @@
         <v>8</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E115" s="3">
         <v>1</v>
@@ -3182,10 +3182,10 @@
     </row>
     <row r="116" spans="1:7" ht="36.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>7</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="117" spans="1:7" ht="36.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>16</v>
@@ -3211,7 +3211,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E117" s="3">
         <v>1</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="118" spans="1:7" ht="36.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>7</v>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="119" spans="1:7" ht="36.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>7</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="120" spans="1:7" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>16</v>
@@ -3274,15 +3274,15 @@
         <v>8</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>7</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="122" spans="1:7" ht="36.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>7</v>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="123" spans="1:7" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -3339,10 +3339,10 @@
     </row>
     <row r="124" spans="1:7" ht="36.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>7</v>
@@ -3359,16 +3359,16 @@
     </row>
     <row r="125" spans="1:7" ht="36.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G125" s="3">
         <v>3</v>
@@ -3376,13 +3376,13 @@
     </row>
     <row r="126" spans="1:7" ht="36.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E126" s="3">
         <v>1</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="127" spans="1:7" ht="36.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -3416,10 +3416,10 @@
     </row>
     <row r="128" spans="1:7" ht="36.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>7</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="129" spans="1:7" ht="36.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>15</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="130" spans="1:7" ht="36.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>7</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="131" spans="1:7" ht="36.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>7</v>
@@ -3496,10 +3496,10 @@
     </row>
     <row r="132" spans="1:7" ht="36.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>7</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="133" spans="1:7" ht="36.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>7</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="134" spans="1:7" ht="36.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>16</v>
@@ -3545,7 +3545,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
@@ -3559,10 +3559,10 @@
     </row>
     <row r="135" spans="1:7" ht="36.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>7</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="136" spans="1:7" ht="36.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>16</v>
@@ -3588,7 +3588,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="137" spans="1:7" ht="36.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>7</v>
@@ -3622,10 +3622,10 @@
     </row>
     <row r="138" spans="1:7" ht="36.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>7</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="139" spans="1:7" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>16</v>
@@ -3651,15 +3651,15 @@
         <v>8</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>7</v>
@@ -3676,10 +3676,10 @@
     </row>
     <row r="141" spans="1:7" ht="36.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>7</v>
@@ -3696,10 +3696,10 @@
     </row>
     <row r="142" spans="1:7" ht="36.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>7</v>
@@ -3716,10 +3716,10 @@
     </row>
     <row r="143" spans="1:7" ht="36.75" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>7</v>
@@ -3736,16 +3736,16 @@
     </row>
     <row r="144" spans="1:7" ht="36.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G144" s="3">
         <v>3</v>
@@ -3753,13 +3753,13 @@
     </row>
     <row r="145" spans="1:7" ht="36.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E145" s="3">
         <v>1</v>
@@ -3773,10 +3773,10 @@
     </row>
     <row r="146" spans="1:7" ht="36.75" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>7</v>
@@ -3801,13 +3801,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.85546875" defaultRowHeight="51" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="3"/>
+    <col min="2" max="2" width="59.140625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="14.28515625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" customHeight="1">
+    <row r="1" spans="1:9" ht="17.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3836,7 +3841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51" customHeight="1">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -3846,7 +3851,6 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>1</v>
       </c>
@@ -3856,20 +3860,17 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="51" customHeight="1">
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -3879,10 +3880,8 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="51" customHeight="1">
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3892,7 +3891,6 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
@@ -3902,10 +3900,8 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="51" customHeight="1">
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -3926,13 +3922,12 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="51" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -3940,7 +3935,6 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>1</v>
       </c>
@@ -3950,20 +3944,17 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="51" customHeight="1">
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>1</v>
       </c>
@@ -3973,822 +3964,669 @@
       <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="51" customHeight="1">
-      <c r="A8" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="51" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="51" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B15" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="51" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="51" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="51" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="51" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="51" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B20" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="51" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="51" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="51" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="51" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="51" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="51" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="51" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="51" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="51" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="51" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B30" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="51" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="51" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="51" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="51" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" ht="51" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B35" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" ht="51" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" ht="51" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="51" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="51" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="51" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="51" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="51" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B38" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" ht="51" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" ht="51" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" ht="51" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" ht="51" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="51" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B43" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="51" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B44" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="51" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="51" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B46" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="51" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="3"/>
       <c r="E46" s="3">
         <v>1</v>
       </c>
@@ -4798,18 +4636,14 @@
       <c r="G46" s="3">
         <v>1</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" ht="51" customHeight="1">
-      <c r="A47" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="3"/>
       <c r="E47" s="3">
         <v>1</v>
       </c>
@@ -4819,18 +4653,15 @@
       <c r="G47" s="3">
         <v>1</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" ht="51" customHeight="1">
+    </row>
+    <row r="48" spans="1:9" ht="17.25" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="3"/>
       <c r="E48" s="3">
         <v>1</v>
       </c>
@@ -4843,18 +4674,14 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" ht="51" customHeight="1">
+    <row r="49" spans="1:9" ht="17.25" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+        <v>61</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
@@ -4931,7 +4758,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4948,15 +4775,15 @@
     </row>
     <row r="4" spans="1:9" ht="60">
       <c r="B4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60">
       <c r="B5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -4973,7 +4800,7 @@
     </row>
     <row r="6" spans="1:9" ht="45">
       <c r="B6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -4990,15 +4817,15 @@
     </row>
     <row r="7" spans="1:9" ht="60">
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60">
       <c r="B8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -5015,7 +4842,7 @@
     </row>
     <row r="9" spans="1:9" ht="45">
       <c r="B9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -5032,15 +4859,15 @@
     </row>
     <row r="10" spans="1:9" ht="60">
       <c r="B10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60">
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -5057,7 +4884,7 @@
     </row>
     <row r="12" spans="1:9" ht="45">
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -5074,15 +4901,15 @@
     </row>
     <row r="13" spans="1:9" ht="60">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="60">
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -5099,7 +4926,7 @@
     </row>
     <row r="15" spans="1:9" ht="45">
       <c r="B15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -5116,15 +4943,15 @@
     </row>
     <row r="16" spans="1:9" ht="60">
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="60">
       <c r="B17" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -5141,7 +4968,7 @@
     </row>
     <row r="18" spans="2:7" ht="45">
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -5158,15 +4985,15 @@
     </row>
     <row r="19" spans="2:7" ht="60">
       <c r="B19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="60">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -5183,7 +5010,7 @@
     </row>
     <row r="21" spans="2:7" ht="45">
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -5200,15 +5027,15 @@
     </row>
     <row r="22" spans="2:7" ht="60">
       <c r="B22" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="60">
       <c r="B23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -5225,7 +5052,7 @@
     </row>
     <row r="24" spans="2:7" ht="45">
       <c r="B24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -5242,15 +5069,15 @@
     </row>
     <row r="25" spans="2:7" ht="60">
       <c r="B25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="60">
       <c r="B26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -5267,7 +5094,7 @@
     </row>
     <row r="27" spans="2:7" ht="45">
       <c r="B27" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -5284,15 +5111,15 @@
     </row>
     <row r="28" spans="2:7" ht="60">
       <c r="B28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="60">
       <c r="B29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -5379,7 +5206,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5435,12 +5262,12 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -5457,10 +5284,10 @@
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -5477,7 +5304,7 @@
     </row>
     <row r="8" spans="1:9" ht="60">
       <c r="A8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -5497,7 +5324,7 @@
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -5514,13 +5341,13 @@
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -5548,7 +5375,7 @@
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -5635,7 +5462,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5691,12 +5518,12 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
@@ -5716,58 +5543,58 @@
     </row>
     <row r="7" spans="1:9" ht="60">
       <c r="B7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60">
       <c r="B8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60">
       <c r="B9" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60">
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60">
       <c r="B11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60">
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60">
       <c r="B13" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5779,18 +5606,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63" defaultRowHeight="29.25" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
@@ -5808,7 +5635,7 @@
     </row>
     <row r="2" spans="1:7" ht="29.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -5829,10 +5656,10 @@
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5850,10 +5677,10 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -5871,10 +5698,10 @@
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -5892,10 +5719,10 @@
     </row>
     <row r="6" spans="1:7" ht="29.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -5913,7 +5740,7 @@
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5922,7 +5749,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -5936,10 +5763,10 @@
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -5957,7 +5784,7 @@
     </row>
     <row r="9" spans="1:7" ht="29.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -5966,7 +5793,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -5980,10 +5807,10 @@
     </row>
     <row r="10" spans="1:7" ht="29.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -6001,10 +5828,10 @@
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -6022,16 +5849,16 @@
     </row>
     <row r="12" spans="1:7" ht="29.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6039,10 +5866,10 @@
     </row>
     <row r="13" spans="1:7" ht="29.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -6060,10 +5887,10 @@
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -6081,10 +5908,10 @@
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -6102,10 +5929,10 @@
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -6123,7 +5950,7 @@
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -6144,10 +5971,10 @@
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -6165,10 +5992,10 @@
     </row>
     <row r="19" spans="1:7" ht="29.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -6186,10 +6013,10 @@
     </row>
     <row r="20" spans="1:7" ht="29.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -6207,10 +6034,10 @@
     </row>
     <row r="21" spans="1:7" ht="29.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -6228,7 +6055,7 @@
     </row>
     <row r="22" spans="1:7" ht="29.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
@@ -6237,7 +6064,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -6251,10 +6078,10 @@
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -6272,7 +6099,7 @@
     </row>
     <row r="24" spans="1:7" ht="29.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
@@ -6281,7 +6108,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -6295,10 +6122,10 @@
     </row>
     <row r="25" spans="1:7" ht="29.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -6316,10 +6143,10 @@
     </row>
     <row r="26" spans="1:7" ht="29.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -6337,16 +6164,16 @@
     </row>
     <row r="27" spans="1:7" ht="29.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -6354,10 +6181,10 @@
     </row>
     <row r="28" spans="1:7" ht="29.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -6375,10 +6202,10 @@
     </row>
     <row r="29" spans="1:7" ht="29.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -6396,10 +6223,10 @@
     </row>
     <row r="30" spans="1:7" ht="29.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -6417,10 +6244,10 @@
     </row>
     <row r="31" spans="1:7" ht="29.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -6438,7 +6265,7 @@
     </row>
     <row r="32" spans="1:7" ht="29.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>15</v>
@@ -6459,10 +6286,10 @@
     </row>
     <row r="33" spans="1:7" ht="29.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -6480,10 +6307,10 @@
     </row>
     <row r="34" spans="1:7" ht="29.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -6501,10 +6328,10 @@
     </row>
     <row r="35" spans="1:7" ht="29.25" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -6522,10 +6349,10 @@
     </row>
     <row r="36" spans="1:7" ht="29.25" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -6543,7 +6370,7 @@
     </row>
     <row r="37" spans="1:7" ht="29.25" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>16</v>
@@ -6552,7 +6379,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -6566,10 +6393,10 @@
     </row>
     <row r="38" spans="1:7" ht="29.25" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -6587,7 +6414,7 @@
     </row>
     <row r="39" spans="1:7" ht="29.25" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>16</v>
@@ -6596,7 +6423,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -6610,10 +6437,10 @@
     </row>
     <row r="40" spans="1:7" ht="29.25" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -6631,10 +6458,10 @@
     </row>
     <row r="41" spans="1:7" ht="29.25" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -6652,16 +6479,16 @@
     </row>
     <row r="42" spans="1:7" ht="29.25" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -6669,10 +6496,10 @@
     </row>
     <row r="43" spans="1:7" ht="29.25" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -6690,10 +6517,10 @@
     </row>
     <row r="44" spans="1:7" ht="29.25" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -6711,10 +6538,10 @@
     </row>
     <row r="45" spans="1:7" ht="29.25" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -6732,10 +6559,10 @@
     </row>
     <row r="46" spans="1:7" ht="29.25" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -6753,7 +6580,7 @@
     </row>
     <row r="47" spans="1:7" ht="29.25" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
@@ -6774,10 +6601,10 @@
     </row>
     <row r="48" spans="1:7" ht="29.25" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -6795,10 +6622,10 @@
     </row>
     <row r="49" spans="1:7" ht="29.25" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -6816,10 +6643,10 @@
     </row>
     <row r="50" spans="1:7" ht="29.25" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -6837,10 +6664,10 @@
     </row>
     <row r="51" spans="1:7" ht="29.25" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -6858,7 +6685,7 @@
     </row>
     <row r="52" spans="1:7" ht="29.25" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>16</v>
@@ -6867,7 +6694,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -6881,10 +6708,10 @@
     </row>
     <row r="53" spans="1:7" ht="29.25" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -6902,7 +6729,7 @@
     </row>
     <row r="54" spans="1:7" ht="29.25" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>16</v>
@@ -6911,7 +6738,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -6925,10 +6752,10 @@
     </row>
     <row r="55" spans="1:7" ht="29.25" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
@@ -6946,10 +6773,10 @@
     </row>
     <row r="56" spans="1:7" ht="29.25" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -6967,16 +6794,16 @@
     </row>
     <row r="57" spans="1:7" ht="29.25" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -6984,10 +6811,10 @@
     </row>
     <row r="58" spans="1:7" ht="29.25" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
@@ -7005,10 +6832,10 @@
     </row>
     <row r="59" spans="1:7" ht="29.25" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -7026,10 +6853,10 @@
     </row>
     <row r="60" spans="1:7" ht="29.25" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
@@ -7047,10 +6874,10 @@
     </row>
     <row r="61" spans="1:7" ht="29.25" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -7068,7 +6895,7 @@
     </row>
     <row r="62" spans="1:7" ht="29.25" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>15</v>
@@ -7089,10 +6916,10 @@
     </row>
     <row r="63" spans="1:7" ht="29.25" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -7110,10 +6937,10 @@
     </row>
     <row r="64" spans="1:7" ht="29.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>7</v>
@@ -7131,10 +6958,10 @@
     </row>
     <row r="65" spans="1:7" ht="29.25" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>7</v>
@@ -7152,10 +6979,10 @@
     </row>
     <row r="66" spans="1:7" ht="29.25" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -7173,7 +7000,7 @@
     </row>
     <row r="67" spans="1:7" ht="29.25" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>16</v>
@@ -7182,7 +7009,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -7196,10 +7023,10 @@
     </row>
     <row r="68" spans="1:7" ht="29.25" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -7217,7 +7044,7 @@
     </row>
     <row r="69" spans="1:7" ht="29.25" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>16</v>
@@ -7226,7 +7053,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -7240,10 +7067,10 @@
     </row>
     <row r="70" spans="1:7" ht="29.25" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -7261,10 +7088,10 @@
     </row>
     <row r="71" spans="1:7" ht="29.25" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
@@ -7282,16 +7109,16 @@
     </row>
     <row r="72" spans="1:7" ht="29.25" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -7299,10 +7126,10 @@
     </row>
     <row r="73" spans="1:7" ht="29.25" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>7</v>
@@ -7320,10 +7147,10 @@
     </row>
     <row r="74" spans="1:7" ht="29.25" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
@@ -7341,10 +7168,10 @@
     </row>
     <row r="75" spans="1:7" ht="29.25" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>7</v>
@@ -7362,10 +7189,10 @@
     </row>
     <row r="76" spans="1:7" ht="29.25" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -7383,7 +7210,7 @@
     </row>
     <row r="77" spans="1:7" ht="29.25" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>15</v>
@@ -7404,10 +7231,10 @@
     </row>
     <row r="78" spans="1:7" ht="29.25" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -7425,10 +7252,10 @@
     </row>
     <row r="79" spans="1:7" ht="29.25" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -7446,10 +7273,10 @@
     </row>
     <row r="80" spans="1:7" ht="29.25" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -7467,10 +7294,10 @@
     </row>
     <row r="81" spans="1:7" ht="29.25" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -7488,7 +7315,7 @@
     </row>
     <row r="82" spans="1:7" ht="29.25" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>16</v>
@@ -7497,7 +7324,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -7511,10 +7338,10 @@
     </row>
     <row r="83" spans="1:7" ht="29.25" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>7</v>
@@ -7532,7 +7359,7 @@
     </row>
     <row r="84" spans="1:7" ht="29.25" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>16</v>
@@ -7541,7 +7368,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
@@ -7555,10 +7382,10 @@
     </row>
     <row r="85" spans="1:7" ht="29.25" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -7576,10 +7403,10 @@
     </row>
     <row r="86" spans="1:7" ht="29.25" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -7597,16 +7424,16 @@
     </row>
     <row r="87" spans="1:7" ht="29.25" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -7614,10 +7441,10 @@
     </row>
     <row r="88" spans="1:7" ht="29.25" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -7635,10 +7462,10 @@
     </row>
     <row r="89" spans="1:7" ht="29.25" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -7656,10 +7483,10 @@
     </row>
     <row r="90" spans="1:7" ht="29.25" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>7</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1382,7 +1382,7 @@
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1760,7 +1760,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>8</v>
@@ -2137,7 +2137,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>8</v>
@@ -2514,7 +2514,7 @@
         <v>54</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>8</v>
@@ -2891,7 +2891,7 @@
         <v>54</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>8</v>
@@ -3268,7 +3268,7 @@
         <v>54</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         <v>54</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>8</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="172">
   <si>
     <t>Name</t>
   </si>
@@ -511,6 +511,30 @@
   </si>
   <si>
     <t>//span[@class="md-subhead ng-binding" and contains(text(),"PT")]/../../../../md-card/md-card-header</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician chha1')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician MSW1')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Ot1')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Pt1')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rd1')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rn1')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician ST1')]</t>
+  </si>
+  <si>
+    <t>//span[@ng-show="vm.episode.primaryClinicians[visitType.name].aggregateId" and contains(text(),"clinician Pt1")]</t>
   </si>
 </sst>
 </file>
@@ -867,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -3789,6 +3813,70 @@
       </c>
       <c r="G146" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B147" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B148" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B149" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B150" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B151" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B152" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B153" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="36.75" customHeight="1">
+      <c r="B154" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -468,9 +468,6 @@
     <t>ot1</t>
   </si>
   <si>
-    <t>pt1</t>
-  </si>
-  <si>
     <t>rd1</t>
   </si>
   <si>
@@ -535,6 +532,9 @@
   </si>
   <si>
     <t>//span[@ng-show="vm.episode.primaryClinicians[visitType.name].aggregateId" and contains(text(),"clinician Pt1")]</t>
+  </si>
+  <si>
+    <t>pt2</t>
   </si>
 </sst>
 </file>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1042,7 +1042,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -1088,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="28" spans="1:8" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>137</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="47" spans="1:7" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>137</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="66" spans="1:7" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>137</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="85" spans="1:7" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>137</v>
@@ -2638,7 +2638,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="G87" s="3">
         <v>3</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="104" spans="1:7" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>137</v>
@@ -3015,7 +3015,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G106" s="3">
         <v>3</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="123" spans="1:7" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>137</v>
@@ -3392,7 +3392,7 @@
         <v>8</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G125" s="3">
         <v>3</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="142" spans="1:7" ht="36.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>137</v>
@@ -3769,7 +3769,7 @@
         <v>8</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G144" s="3">
         <v>3</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="147" spans="1:7" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>34</v>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="148" spans="1:7" ht="36.75" customHeight="1">
       <c r="B148" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>34</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="149" spans="1:7" ht="36.75" customHeight="1">
       <c r="B149" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>34</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="150" spans="1:7" ht="36.75" customHeight="1">
       <c r="B150" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>34</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="151" spans="1:7" ht="36.75" customHeight="1">
       <c r="B151" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>34</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="152" spans="1:7" ht="36.75" customHeight="1">
       <c r="B152" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>34</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="153" spans="1:7" ht="36.75" customHeight="1">
       <c r="B153" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>34</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="154" spans="1:7" ht="36.75" customHeight="1">
       <c r="B154" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>34</v>
@@ -4086,7 +4086,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="20" spans="2:7" ht="17.25" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="25" spans="2:7" ht="17.25" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="30" spans="2:7" ht="17.25" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="47" spans="1:9" ht="17.25" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -4745,7 +4745,7 @@
     <row r="48" spans="1:9" ht="17.25" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -4765,7 +4765,7 @@
     <row r="49" spans="1:9" ht="17.25" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>61</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -519,9 +519,6 @@
     <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Ot1')]</t>
   </si>
   <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Pt1')]</t>
-  </si>
-  <si>
     <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rd1')]</t>
   </si>
   <si>
@@ -535,6 +532,9 @@
   </si>
   <si>
     <t>pt2</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Pt2')]</t>
   </si>
 </sst>
 </file>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1088,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -2638,7 +2638,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G87" s="3">
         <v>3</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="150" spans="1:7" ht="36.75" customHeight="1">
       <c r="B150" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>34</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="151" spans="1:7" ht="36.75" customHeight="1">
       <c r="B151" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>34</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="152" spans="1:7" ht="36.75" customHeight="1">
       <c r="B152" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>34</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="153" spans="1:7" ht="36.75" customHeight="1">
       <c r="B153" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>34</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="154" spans="1:7" ht="36.75" customHeight="1">
       <c r="B154" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>34</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -534,7 +534,7 @@
     <t>pt2</t>
   </si>
   <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Pt2')]</t>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'Clinician Pt2')]</t>
   </si>
 </sst>
 </file>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -528,13 +528,13 @@
     <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician ST1')]</t>
   </si>
   <si>
-    <t>//span[@ng-show="vm.episode.primaryClinicians[visitType.name].aggregateId" and contains(text(),"clinician Pt1")]</t>
-  </si>
-  <si>
     <t>pt2</t>
   </si>
   <si>
     <t>//td[@class="fc-event-container"]//span[contains(text(),'Clinician Pt2')]</t>
+  </si>
+  <si>
+    <t>//span[@ng-show="vm.episode.primaryClinicians[visitType.name].aggregateId" and contains(text(),"Clinician Pt2")]</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1088,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G9" s="3">
         <v>3</v>
@@ -2638,7 +2638,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G87" s="3">
         <v>3</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="150" spans="1:7" ht="36.75" customHeight="1">
       <c r="B150" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>34</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="154" spans="1:7" ht="36.75" customHeight="1">
       <c r="B154" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>34</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="36.75" customHeight="1">
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="36.75" customHeight="1">
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="36.75" customHeight="1">
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="36.75" customHeight="1">
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="36.75" customHeight="1">

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
     <sheet name="CheckPreAuth" sheetId="5" r:id="rId5"/>
     <sheet name="backup" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -534,7 +535,10 @@
     <t>//td[@class="fc-event-container"]//span[contains(text(),'Clinician Pt2')]</t>
   </si>
   <si>
-    <t>//span[@ng-show="vm.episode.primaryClinicians[visitType.name].aggregateId" and contains(text(),"Clinician Pt2")]</t>
+    <t>//span[@ng-show="vm.episode.primaryClinicians[visitType.name].aggregateId" and contains(text(),"clinician pt3")]</t>
+  </si>
+  <si>
+    <t>pt3</t>
   </si>
 </sst>
 </file>
@@ -891,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1037,12 +1041,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="50.25" customHeight="1">
+    <row r="7" spans="1:9" ht="36.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -1054,15 +1058,15 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1074,35 +1078,39 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="36.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" customFormat="1" ht="51" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>169</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1116,10 +1124,10 @@
     </row>
     <row r="11" spans="1:9" ht="36.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -1136,13 +1144,13 @@
     </row>
     <row r="12" spans="1:9" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1151,15 +1159,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -1171,18 +1179,21 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="36.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1194,17 +1205,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" ht="51" customHeight="1">
+    <row r="15" spans="1:9" ht="36.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>1</v>
       </c>
@@ -1217,13 +1227,16 @@
     </row>
     <row r="16" spans="1:9" ht="36.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1237,10 +1250,10 @@
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -1257,10 +1270,10 @@
     </row>
     <row r="18" spans="1:8" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -1277,36 +1290,27 @@
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1317,13 +1321,14 @@
       <c r="G20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="36.75" customHeight="1">
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" ht="63" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -1340,16 +1345,13 @@
     </row>
     <row r="22" spans="1:8" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1363,10 +1365,10 @@
     </row>
     <row r="23" spans="1:8" ht="36.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -1383,44 +1385,47 @@
     </row>
     <row r="24" spans="1:8" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -1432,16 +1437,15 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" ht="63" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -1458,10 +1462,10 @@
     </row>
     <row r="28" spans="1:8" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1478,10 +1482,10 @@
     </row>
     <row r="29" spans="1:8" ht="36.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -1498,30 +1502,33 @@
     </row>
     <row r="30" spans="1:8" ht="36.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>142</v>
+        <v>7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="36.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -1535,10 +1542,10 @@
     </row>
     <row r="32" spans="1:8" ht="36.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -1550,18 +1557,21 @@
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="36.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -1575,10 +1585,10 @@
     </row>
     <row r="34" spans="1:7" ht="36.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -1595,13 +1605,16 @@
     </row>
     <row r="35" spans="1:7" ht="36.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -1615,10 +1628,10 @@
     </row>
     <row r="36" spans="1:7" ht="36.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -1635,10 +1648,10 @@
     </row>
     <row r="37" spans="1:7" ht="36.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -1655,36 +1668,27 @@
     </row>
     <row r="38" spans="1:7" ht="36.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="36.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -1698,10 +1702,10 @@
     </row>
     <row r="40" spans="1:7" ht="36.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -1718,16 +1722,13 @@
     </row>
     <row r="41" spans="1:7" ht="36.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
@@ -1741,10 +1742,10 @@
     </row>
     <row r="42" spans="1:7" ht="36.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -1761,44 +1762,47 @@
     </row>
     <row r="43" spans="1:7" ht="36.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -1810,15 +1814,15 @@
         <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="36.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -1835,10 +1839,10 @@
     </row>
     <row r="47" spans="1:7" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -1855,10 +1859,10 @@
     </row>
     <row r="48" spans="1:7" ht="36.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -1875,30 +1879,33 @@
     </row>
     <row r="49" spans="1:7" ht="36.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>147</v>
+        <v>7</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
       </c>
       <c r="G49" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="36.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -1912,10 +1919,10 @@
     </row>
     <row r="51" spans="1:7" ht="36.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -1927,18 +1934,21 @@
         <v>1</v>
       </c>
       <c r="G51" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="36.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -1952,10 +1962,10 @@
     </row>
     <row r="53" spans="1:7" ht="36.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -1972,13 +1982,16 @@
     </row>
     <row r="54" spans="1:7" ht="36.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -1992,10 +2005,10 @@
     </row>
     <row r="55" spans="1:7" ht="36.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
@@ -2012,10 +2025,10 @@
     </row>
     <row r="56" spans="1:7" ht="36.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -2032,36 +2045,27 @@
     </row>
     <row r="57" spans="1:7" ht="36.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="36.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -2075,10 +2079,10 @@
     </row>
     <row r="59" spans="1:7" ht="36.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -2095,16 +2099,13 @@
     </row>
     <row r="60" spans="1:7" ht="36.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -2118,10 +2119,10 @@
     </row>
     <row r="61" spans="1:7" ht="36.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -2138,44 +2139,47 @@
     </row>
     <row r="62" spans="1:7" ht="36.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="G62" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>7</v>
@@ -2187,15 +2191,15 @@
         <v>1</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="36.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>7</v>
@@ -2212,10 +2216,10 @@
     </row>
     <row r="66" spans="1:7" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -2232,10 +2236,10 @@
     </row>
     <row r="67" spans="1:7" ht="36.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>7</v>
@@ -2252,30 +2256,33 @@
     </row>
     <row r="68" spans="1:7" ht="36.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>148</v>
+        <v>7</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
       </c>
       <c r="G68" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="36.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -2289,10 +2296,10 @@
     </row>
     <row r="70" spans="1:7" ht="36.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -2304,18 +2311,21 @@
         <v>1</v>
       </c>
       <c r="G70" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="36.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -2329,10 +2339,10 @@
     </row>
     <row r="72" spans="1:7" ht="36.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>7</v>
@@ -2349,13 +2359,16 @@
     </row>
     <row r="73" spans="1:7" ht="36.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -2369,10 +2382,10 @@
     </row>
     <row r="74" spans="1:7" ht="36.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
@@ -2389,10 +2402,10 @@
     </row>
     <row r="75" spans="1:7" ht="36.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>7</v>
@@ -2409,36 +2422,27 @@
     </row>
     <row r="76" spans="1:7" ht="36.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="36.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
@@ -2452,10 +2456,10 @@
     </row>
     <row r="78" spans="1:7" ht="36.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -2472,16 +2476,13 @@
     </row>
     <row r="79" spans="1:7" ht="36.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
@@ -2495,10 +2496,10 @@
     </row>
     <row r="80" spans="1:7" ht="36.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -2515,44 +2516,47 @@
     </row>
     <row r="81" spans="1:7" ht="36.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="G81" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>7</v>
@@ -2564,15 +2568,15 @@
         <v>1</v>
       </c>
       <c r="G83" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="36.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>7</v>
@@ -2589,10 +2593,10 @@
     </row>
     <row r="85" spans="1:7" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -2609,10 +2613,10 @@
     </row>
     <row r="86" spans="1:7" ht="36.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -2629,30 +2633,33 @@
     </row>
     <row r="87" spans="1:7" ht="36.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>169</v>
+        <v>7</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
       </c>
       <c r="G87" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="36.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
@@ -2666,10 +2673,10 @@
     </row>
     <row r="89" spans="1:7" ht="36.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -2681,18 +2688,21 @@
         <v>1</v>
       </c>
       <c r="G89" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="36.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E90" s="3">
         <v>1</v>
@@ -2706,10 +2716,10 @@
     </row>
     <row r="91" spans="1:7" ht="36.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>7</v>
@@ -2726,13 +2736,16 @@
     </row>
     <row r="92" spans="1:7" ht="36.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E92" s="3">
         <v>1</v>
@@ -2746,10 +2759,10 @@
     </row>
     <row r="93" spans="1:7" ht="36.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>7</v>
@@ -2766,10 +2779,10 @@
     </row>
     <row r="94" spans="1:7" ht="36.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>7</v>
@@ -2786,36 +2799,27 @@
     </row>
     <row r="95" spans="1:7" ht="36.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="3">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="36.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E96" s="3">
         <v>1</v>
@@ -2829,10 +2833,10 @@
     </row>
     <row r="97" spans="1:7" ht="36.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>7</v>
@@ -2849,16 +2853,13 @@
     </row>
     <row r="98" spans="1:7" ht="36.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
@@ -2872,10 +2873,10 @@
     </row>
     <row r="99" spans="1:7" ht="36.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
@@ -2892,44 +2893,47 @@
     </row>
     <row r="100" spans="1:7" ht="36.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="3">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="G100" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>7</v>
@@ -2941,15 +2945,15 @@
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="36.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>7</v>
@@ -2966,10 +2970,10 @@
     </row>
     <row r="104" spans="1:7" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -2986,10 +2990,10 @@
     </row>
     <row r="105" spans="1:7" ht="36.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -3006,30 +3010,33 @@
     </row>
     <row r="106" spans="1:7" ht="36.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>149</v>
+        <v>7</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="36.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E107" s="3">
         <v>1</v>
@@ -3043,10 +3050,10 @@
     </row>
     <row r="108" spans="1:7" ht="36.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>7</v>
@@ -3058,18 +3065,21 @@
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="36.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E109" s="3">
         <v>1</v>
@@ -3083,10 +3093,10 @@
     </row>
     <row r="110" spans="1:7" ht="36.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>7</v>
@@ -3103,13 +3113,16 @@
     </row>
     <row r="111" spans="1:7" ht="36.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E111" s="3">
         <v>1</v>
@@ -3123,10 +3136,10 @@
     </row>
     <row r="112" spans="1:7" ht="36.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>7</v>
@@ -3143,10 +3156,10 @@
     </row>
     <row r="113" spans="1:7" ht="36.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>7</v>
@@ -3163,36 +3176,27 @@
     </row>
     <row r="114" spans="1:7" ht="36.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="3">
-        <v>1</v>
-      </c>
-      <c r="F114" s="3">
-        <v>1</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="36.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E115" s="3">
         <v>1</v>
@@ -3206,10 +3210,10 @@
     </row>
     <row r="116" spans="1:7" ht="36.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>7</v>
@@ -3226,16 +3230,13 @@
     </row>
     <row r="117" spans="1:7" ht="36.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E117" s="3">
         <v>1</v>
@@ -3249,10 +3250,10 @@
     </row>
     <row r="118" spans="1:7" ht="36.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>7</v>
@@ -3269,44 +3270,47 @@
     </row>
     <row r="119" spans="1:7" ht="36.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="G119" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>7</v>
@@ -3318,15 +3322,15 @@
         <v>1</v>
       </c>
       <c r="G121" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="36.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>7</v>
@@ -3343,10 +3347,10 @@
     </row>
     <row r="123" spans="1:7" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -3363,10 +3367,10 @@
     </row>
     <row r="124" spans="1:7" ht="36.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>7</v>
@@ -3383,30 +3387,33 @@
     </row>
     <row r="125" spans="1:7" ht="36.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>150</v>
+        <v>7</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3">
+        <v>1</v>
       </c>
       <c r="G125" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="36.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E126" s="3">
         <v>1</v>
@@ -3420,10 +3427,10 @@
     </row>
     <row r="127" spans="1:7" ht="36.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -3435,18 +3442,21 @@
         <v>1</v>
       </c>
       <c r="G127" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="36.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E128" s="3">
         <v>1</v>
@@ -3460,10 +3470,10 @@
     </row>
     <row r="129" spans="1:7" ht="36.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>7</v>
@@ -3480,13 +3490,16 @@
     </row>
     <row r="130" spans="1:7" ht="36.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
@@ -3500,10 +3513,10 @@
     </row>
     <row r="131" spans="1:7" ht="36.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>7</v>
@@ -3520,10 +3533,10 @@
     </row>
     <row r="132" spans="1:7" ht="36.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>7</v>
@@ -3540,36 +3553,27 @@
     </row>
     <row r="133" spans="1:7" ht="36.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="3">
-        <v>1</v>
-      </c>
-      <c r="F133" s="3">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="36.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
@@ -3583,10 +3587,10 @@
     </row>
     <row r="135" spans="1:7" ht="36.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>7</v>
@@ -3603,16 +3607,13 @@
     </row>
     <row r="136" spans="1:7" ht="36.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
@@ -3626,10 +3627,10 @@
     </row>
     <row r="137" spans="1:7" ht="36.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>7</v>
@@ -3646,44 +3647,47 @@
     </row>
     <row r="138" spans="1:7" ht="36.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E138" s="3">
-        <v>1</v>
-      </c>
-      <c r="F138" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="G138" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>7</v>
@@ -3695,187 +3699,70 @@
         <v>1</v>
       </c>
       <c r="G140" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A141" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="B141" s="3" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="3">
-        <v>1</v>
-      </c>
-      <c r="F141" s="3">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A142" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="B142" s="3" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="3">
-        <v>1</v>
-      </c>
-      <c r="F142" s="3">
-        <v>1</v>
-      </c>
-      <c r="G142" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A143" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="B143" s="3" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="3">
-        <v>1</v>
-      </c>
-      <c r="F143" s="3">
-        <v>1</v>
-      </c>
-      <c r="G143" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A144" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="B144" s="3" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G144" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A145" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E145" s="3">
-        <v>1</v>
-      </c>
-      <c r="F145" s="3">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A146" s="3" t="s">
-        <v>146</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="3">
-        <v>1</v>
-      </c>
-      <c r="F146" s="3">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="36.75" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="36.75" customHeight="1">
+    <row r="148" spans="2:3" ht="36.75" customHeight="1">
       <c r="B148" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B149" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B150" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B151" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B152" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B153" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="36.75" customHeight="1">
-      <c r="B154" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C154" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7593,4 +7480,149 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="210">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="150">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="135">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="180">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="150">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="75">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -532,13 +532,13 @@
     <t>pt2</t>
   </si>
   <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'Clinician Pt2')]</t>
-  </si>
-  <si>
     <t>//span[@ng-show="vm.episode.primaryClinicians[visitType.name].aggregateId" and contains(text(),"clinician pt3")]</t>
   </si>
   <si>
     <t>pt3</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician pt2')]</t>
   </si>
 </sst>
 </file>
@@ -895,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -2525,7 +2525,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G81" s="3">
         <v>3</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="144" spans="1:7" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>34</v>
@@ -3755,14 +3755,6 @@
         <v>168</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" ht="36.75" customHeight="1">
-      <c r="B148" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C148" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7484,10 +7476,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H7"/>
+  <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7622,6 +7614,14 @@
       </c>
       <c r="H7" s="3"/>
     </row>
+    <row r="8" spans="1:8" ht="225">
+      <c r="B8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -538,7 +538,7 @@
     <t>pt3</t>
   </si>
   <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician pt2')]</t>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician pt3')]</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician pt3')]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Operations"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Scheduling"]</t>
   </si>
 </sst>
 </file>
@@ -897,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -942,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -962,7 +968,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -994,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="36.75" customHeight="1">

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -82,9 +82,6 @@
     <t>send to clinician</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[10]/button</t>
-  </si>
-  <si>
     <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/div/div/div/div[1]/button</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
   </si>
   <si>
     <t>First day of the calendar</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/div/section/div[9]/button</t>
   </si>
   <si>
     <t>//div[@id="fullCalendar"]//span[contains(text(),"CHHA")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
@@ -903,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -948,7 +942,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -968,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -988,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1008,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1024,15 +1018,15 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -1049,10 +1043,10 @@
     </row>
     <row r="7" spans="1:9" ht="36.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -1069,10 +1063,10 @@
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1089,7 +1083,7 @@
     </row>
     <row r="9" spans="1:9" customFormat="1" ht="51" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -1110,10 +1104,10 @@
     </row>
     <row r="10" spans="1:9" ht="36.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -1130,10 +1124,10 @@
     </row>
     <row r="11" spans="1:9" ht="36.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -1150,10 +1144,10 @@
     </row>
     <row r="12" spans="1:9" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -1170,10 +1164,10 @@
     </row>
     <row r="13" spans="1:9" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -1190,7 +1184,7 @@
     </row>
     <row r="14" spans="1:9" ht="36.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -1199,7 +1193,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1213,10 +1207,10 @@
     </row>
     <row r="15" spans="1:9" ht="36.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -1233,7 +1227,7 @@
     </row>
     <row r="16" spans="1:9" ht="36.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
@@ -1242,7 +1236,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1256,10 +1250,10 @@
     </row>
     <row r="17" spans="1:8" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -1276,10 +1270,10 @@
     </row>
     <row r="18" spans="1:8" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -1296,24 +1290,24 @@
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -1331,10 +1325,10 @@
     </row>
     <row r="21" spans="1:8" ht="63" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -1351,10 +1345,10 @@
     </row>
     <row r="22" spans="1:8" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -1371,10 +1365,10 @@
     </row>
     <row r="23" spans="1:8" ht="36.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -1391,16 +1385,16 @@
     </row>
     <row r="24" spans="1:8" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
@@ -1408,13 +1402,13 @@
     </row>
     <row r="25" spans="1:8" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1428,10 +1422,10 @@
     </row>
     <row r="26" spans="1:8" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -1448,10 +1442,10 @@
     </row>
     <row r="27" spans="1:8" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -1468,7 +1462,7 @@
     </row>
     <row r="28" spans="1:8" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>15</v>
@@ -1488,10 +1482,10 @@
     </row>
     <row r="29" spans="1:8" ht="36.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -1508,10 +1502,10 @@
     </row>
     <row r="30" spans="1:8" ht="36.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -1528,10 +1522,10 @@
     </row>
     <row r="31" spans="1:8" ht="36.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -1548,10 +1542,10 @@
     </row>
     <row r="32" spans="1:8" ht="36.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -1568,7 +1562,7 @@
     </row>
     <row r="33" spans="1:7" ht="36.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>16</v>
@@ -1577,7 +1571,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -1591,10 +1585,10 @@
     </row>
     <row r="34" spans="1:7" ht="36.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -1611,7 +1605,7 @@
     </row>
     <row r="35" spans="1:7" ht="36.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>16</v>
@@ -1620,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -1634,10 +1628,10 @@
     </row>
     <row r="36" spans="1:7" ht="36.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -1654,10 +1648,10 @@
     </row>
     <row r="37" spans="1:7" ht="36.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -1674,24 +1668,24 @@
     </row>
     <row r="38" spans="1:7" ht="36.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="36.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -1708,10 +1702,10 @@
     </row>
     <row r="40" spans="1:7" ht="36.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -1728,10 +1722,10 @@
     </row>
     <row r="41" spans="1:7" ht="36.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -1748,10 +1742,10 @@
     </row>
     <row r="42" spans="1:7" ht="36.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -1768,16 +1762,16 @@
     </row>
     <row r="43" spans="1:7" ht="36.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
@@ -1785,13 +1779,13 @@
     </row>
     <row r="44" spans="1:7" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
@@ -1805,10 +1799,10 @@
     </row>
     <row r="45" spans="1:7" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -1825,10 +1819,10 @@
     </row>
     <row r="46" spans="1:7" ht="36.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -1845,7 +1839,7 @@
     </row>
     <row r="47" spans="1:7" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
@@ -1865,10 +1859,10 @@
     </row>
     <row r="48" spans="1:7" ht="36.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -1885,10 +1879,10 @@
     </row>
     <row r="49" spans="1:7" ht="36.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -1905,10 +1899,10 @@
     </row>
     <row r="50" spans="1:7" ht="36.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -1925,10 +1919,10 @@
     </row>
     <row r="51" spans="1:7" ht="36.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -1945,7 +1939,7 @@
     </row>
     <row r="52" spans="1:7" ht="36.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>16</v>
@@ -1954,7 +1948,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -1968,10 +1962,10 @@
     </row>
     <row r="53" spans="1:7" ht="36.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -1988,7 +1982,7 @@
     </row>
     <row r="54" spans="1:7" ht="36.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>16</v>
@@ -1997,7 +1991,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -2011,10 +2005,10 @@
     </row>
     <row r="55" spans="1:7" ht="36.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
@@ -2031,10 +2025,10 @@
     </row>
     <row r="56" spans="1:7" ht="36.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -2051,24 +2045,24 @@
     </row>
     <row r="57" spans="1:7" ht="36.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="36.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
@@ -2085,10 +2079,10 @@
     </row>
     <row r="59" spans="1:7" ht="36.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -2105,10 +2099,10 @@
     </row>
     <row r="60" spans="1:7" ht="36.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
@@ -2125,10 +2119,10 @@
     </row>
     <row r="61" spans="1:7" ht="36.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -2145,16 +2139,16 @@
     </row>
     <row r="62" spans="1:7" ht="36.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G62" s="3">
         <v>3</v>
@@ -2162,13 +2156,13 @@
     </row>
     <row r="63" spans="1:7" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -2182,10 +2176,10 @@
     </row>
     <row r="64" spans="1:7" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>7</v>
@@ -2202,10 +2196,10 @@
     </row>
     <row r="65" spans="1:7" ht="36.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>7</v>
@@ -2222,7 +2216,7 @@
     </row>
     <row r="66" spans="1:7" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>15</v>
@@ -2242,10 +2236,10 @@
     </row>
     <row r="67" spans="1:7" ht="36.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>7</v>
@@ -2262,10 +2256,10 @@
     </row>
     <row r="68" spans="1:7" ht="36.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -2282,10 +2276,10 @@
     </row>
     <row r="69" spans="1:7" ht="36.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>7</v>
@@ -2302,10 +2296,10 @@
     </row>
     <row r="70" spans="1:7" ht="36.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -2322,7 +2316,7 @@
     </row>
     <row r="71" spans="1:7" ht="36.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>16</v>
@@ -2331,7 +2325,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -2345,10 +2339,10 @@
     </row>
     <row r="72" spans="1:7" ht="36.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>7</v>
@@ -2365,7 +2359,7 @@
     </row>
     <row r="73" spans="1:7" ht="36.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>16</v>
@@ -2374,7 +2368,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -2388,10 +2382,10 @@
     </row>
     <row r="74" spans="1:7" ht="36.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
@@ -2408,10 +2402,10 @@
     </row>
     <row r="75" spans="1:7" ht="36.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>7</v>
@@ -2428,24 +2422,24 @@
     </row>
     <row r="76" spans="1:7" ht="36.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="36.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>7</v>
@@ -2462,10 +2456,10 @@
     </row>
     <row r="78" spans="1:7" ht="36.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -2482,10 +2476,10 @@
     </row>
     <row r="79" spans="1:7" ht="36.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -2502,10 +2496,10 @@
     </row>
     <row r="80" spans="1:7" ht="36.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -2522,16 +2516,16 @@
     </row>
     <row r="81" spans="1:7" ht="36.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G81" s="3">
         <v>3</v>
@@ -2539,13 +2533,13 @@
     </row>
     <row r="82" spans="1:7" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -2559,10 +2553,10 @@
     </row>
     <row r="83" spans="1:7" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>7</v>
@@ -2579,10 +2573,10 @@
     </row>
     <row r="84" spans="1:7" ht="36.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>7</v>
@@ -2599,7 +2593,7 @@
     </row>
     <row r="85" spans="1:7" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>15</v>
@@ -2619,10 +2613,10 @@
     </row>
     <row r="86" spans="1:7" ht="36.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -2639,10 +2633,10 @@
     </row>
     <row r="87" spans="1:7" ht="36.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>7</v>
@@ -2659,10 +2653,10 @@
     </row>
     <row r="88" spans="1:7" ht="36.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -2679,10 +2673,10 @@
     </row>
     <row r="89" spans="1:7" ht="36.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -2699,7 +2693,7 @@
     </row>
     <row r="90" spans="1:7" ht="36.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>16</v>
@@ -2708,7 +2702,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E90" s="3">
         <v>1</v>
@@ -2722,10 +2716,10 @@
     </row>
     <row r="91" spans="1:7" ht="36.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>7</v>
@@ -2742,7 +2736,7 @@
     </row>
     <row r="92" spans="1:7" ht="36.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>16</v>
@@ -2751,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E92" s="3">
         <v>1</v>
@@ -2765,10 +2759,10 @@
     </row>
     <row r="93" spans="1:7" ht="36.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>7</v>
@@ -2785,10 +2779,10 @@
     </row>
     <row r="94" spans="1:7" ht="36.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>7</v>
@@ -2805,24 +2799,24 @@
     </row>
     <row r="95" spans="1:7" ht="36.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="36.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>7</v>
@@ -2839,10 +2833,10 @@
     </row>
     <row r="97" spans="1:7" ht="36.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>7</v>
@@ -2859,10 +2853,10 @@
     </row>
     <row r="98" spans="1:7" ht="36.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>7</v>
@@ -2879,10 +2873,10 @@
     </row>
     <row r="99" spans="1:7" ht="36.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
@@ -2899,16 +2893,16 @@
     </row>
     <row r="100" spans="1:7" ht="36.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G100" s="3">
         <v>3</v>
@@ -2916,13 +2910,13 @@
     </row>
     <row r="101" spans="1:7" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E101" s="3">
         <v>1</v>
@@ -2936,10 +2930,10 @@
     </row>
     <row r="102" spans="1:7" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>7</v>
@@ -2956,10 +2950,10 @@
     </row>
     <row r="103" spans="1:7" ht="36.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>7</v>
@@ -2976,7 +2970,7 @@
     </row>
     <row r="104" spans="1:7" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>15</v>
@@ -2996,10 +2990,10 @@
     </row>
     <row r="105" spans="1:7" ht="36.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -3016,10 +3010,10 @@
     </row>
     <row r="106" spans="1:7" ht="36.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>7</v>
@@ -3036,10 +3030,10 @@
     </row>
     <row r="107" spans="1:7" ht="36.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
@@ -3056,10 +3050,10 @@
     </row>
     <row r="108" spans="1:7" ht="36.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>7</v>
@@ -3076,7 +3070,7 @@
     </row>
     <row r="109" spans="1:7" ht="36.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>16</v>
@@ -3085,7 +3079,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E109" s="3">
         <v>1</v>
@@ -3099,10 +3093,10 @@
     </row>
     <row r="110" spans="1:7" ht="36.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>7</v>
@@ -3119,7 +3113,7 @@
     </row>
     <row r="111" spans="1:7" ht="36.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>16</v>
@@ -3128,7 +3122,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E111" s="3">
         <v>1</v>
@@ -3142,10 +3136,10 @@
     </row>
     <row r="112" spans="1:7" ht="36.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>7</v>
@@ -3162,10 +3156,10 @@
     </row>
     <row r="113" spans="1:7" ht="36.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>7</v>
@@ -3182,24 +3176,24 @@
     </row>
     <row r="114" spans="1:7" ht="36.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="36.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>7</v>
@@ -3216,10 +3210,10 @@
     </row>
     <row r="116" spans="1:7" ht="36.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>7</v>
@@ -3236,10 +3230,10 @@
     </row>
     <row r="117" spans="1:7" ht="36.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>7</v>
@@ -3256,10 +3250,10 @@
     </row>
     <row r="118" spans="1:7" ht="36.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>7</v>
@@ -3276,16 +3270,16 @@
     </row>
     <row r="119" spans="1:7" ht="36.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G119" s="3">
         <v>3</v>
@@ -3293,13 +3287,13 @@
     </row>
     <row r="120" spans="1:7" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E120" s="3">
         <v>1</v>
@@ -3313,10 +3307,10 @@
     </row>
     <row r="121" spans="1:7" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>7</v>
@@ -3333,10 +3327,10 @@
     </row>
     <row r="122" spans="1:7" ht="36.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>7</v>
@@ -3353,7 +3347,7 @@
     </row>
     <row r="123" spans="1:7" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>15</v>
@@ -3373,10 +3367,10 @@
     </row>
     <row r="124" spans="1:7" ht="36.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>7</v>
@@ -3393,10 +3387,10 @@
     </row>
     <row r="125" spans="1:7" ht="36.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>7</v>
@@ -3413,10 +3407,10 @@
     </row>
     <row r="126" spans="1:7" ht="36.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>7</v>
@@ -3433,10 +3427,10 @@
     </row>
     <row r="127" spans="1:7" ht="36.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -3453,7 +3447,7 @@
     </row>
     <row r="128" spans="1:7" ht="36.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>16</v>
@@ -3462,7 +3456,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E128" s="3">
         <v>1</v>
@@ -3476,10 +3470,10 @@
     </row>
     <row r="129" spans="1:7" ht="36.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>7</v>
@@ -3496,7 +3490,7 @@
     </row>
     <row r="130" spans="1:7" ht="36.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>16</v>
@@ -3505,7 +3499,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
@@ -3519,10 +3513,10 @@
     </row>
     <row r="131" spans="1:7" ht="36.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>7</v>
@@ -3539,10 +3533,10 @@
     </row>
     <row r="132" spans="1:7" ht="36.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>7</v>
@@ -3559,24 +3553,24 @@
     </row>
     <row r="133" spans="1:7" ht="36.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="36.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>7</v>
@@ -3593,10 +3587,10 @@
     </row>
     <row r="135" spans="1:7" ht="36.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>7</v>
@@ -3613,10 +3607,10 @@
     </row>
     <row r="136" spans="1:7" ht="36.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>7</v>
@@ -3633,10 +3627,10 @@
     </row>
     <row r="137" spans="1:7" ht="36.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>7</v>
@@ -3653,16 +3647,16 @@
     </row>
     <row r="138" spans="1:7" ht="36.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G138" s="3">
         <v>3</v>
@@ -3670,13 +3664,13 @@
     </row>
     <row r="139" spans="1:7" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E139" s="3">
         <v>1</v>
@@ -3690,10 +3684,10 @@
     </row>
     <row r="140" spans="1:7" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>7</v>
@@ -3710,58 +3704,58 @@
     </row>
     <row r="141" spans="1:7" ht="36.75" customHeight="1">
       <c r="B141" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="36.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="2:3" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3774,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -3819,7 +3813,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -3839,7 +3833,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -3859,7 +3853,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -3879,7 +3873,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -3895,15 +3889,15 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -3920,10 +3914,10 @@
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -3940,18 +3934,18 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -3968,10 +3962,10 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -3988,10 +3982,10 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -4008,10 +4002,10 @@
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -4028,10 +4022,10 @@
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -4048,10 +4042,10 @@
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -4068,7 +4062,7 @@
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -4085,7 +4079,7 @@
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -4102,7 +4096,7 @@
     </row>
     <row r="17" spans="2:7" ht="17.25" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -4119,7 +4113,7 @@
     </row>
     <row r="18" spans="2:7" ht="17.25" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -4136,7 +4130,7 @@
     </row>
     <row r="19" spans="2:7" ht="17.25" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -4153,7 +4147,7 @@
     </row>
     <row r="20" spans="2:7" ht="17.25" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4170,7 +4164,7 @@
     </row>
     <row r="21" spans="2:7" ht="17.25" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -4187,7 +4181,7 @@
     </row>
     <row r="22" spans="2:7" ht="17.25" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -4204,7 +4198,7 @@
     </row>
     <row r="23" spans="2:7" ht="17.25" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -4221,7 +4215,7 @@
     </row>
     <row r="24" spans="2:7" ht="17.25" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -4238,7 +4232,7 @@
     </row>
     <row r="25" spans="2:7" ht="17.25" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -4255,7 +4249,7 @@
     </row>
     <row r="26" spans="2:7" ht="17.25" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -4272,7 +4266,7 @@
     </row>
     <row r="27" spans="2:7" ht="17.25" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -4289,7 +4283,7 @@
     </row>
     <row r="28" spans="2:7" ht="17.25" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -4306,7 +4300,7 @@
     </row>
     <row r="29" spans="2:7" ht="17.25" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -4323,7 +4317,7 @@
     </row>
     <row r="30" spans="2:7" ht="17.25" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -4340,7 +4334,7 @@
     </row>
     <row r="31" spans="2:7" ht="17.25" customHeight="1">
       <c r="B31" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -4357,7 +4351,7 @@
     </row>
     <row r="32" spans="2:7" ht="17.25" customHeight="1">
       <c r="B32" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -4374,7 +4368,7 @@
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -4391,7 +4385,7 @@
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1">
       <c r="B34" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -4408,7 +4402,7 @@
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -4425,7 +4419,7 @@
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1">
       <c r="B36" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -4442,7 +4436,7 @@
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -4459,7 +4453,7 @@
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1">
       <c r="B38" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -4476,7 +4470,7 @@
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -4493,7 +4487,7 @@
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -4510,7 +4504,7 @@
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -4527,7 +4521,7 @@
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -4544,7 +4538,7 @@
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -4561,7 +4555,7 @@
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -4578,7 +4572,7 @@
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -4595,7 +4589,7 @@
     </row>
     <row r="46" spans="1:9" ht="17.25" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -4612,7 +4606,7 @@
     </row>
     <row r="47" spans="1:9" ht="17.25" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -4630,7 +4624,7 @@
     <row r="48" spans="1:9" ht="17.25" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -4650,10 +4644,10 @@
     <row r="49" spans="1:9" ht="17.25" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -4668,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15"/>
@@ -4706,12 +4700,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -4726,12 +4720,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4748,15 +4742,15 @@
     </row>
     <row r="4" spans="1:9" ht="60">
       <c r="B4" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60">
       <c r="B5" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -4773,7 +4767,7 @@
     </row>
     <row r="6" spans="1:9" ht="45">
       <c r="B6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -4790,15 +4784,15 @@
     </row>
     <row r="7" spans="1:9" ht="60">
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60">
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -4815,7 +4809,7 @@
     </row>
     <row r="9" spans="1:9" ht="45">
       <c r="B9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -4832,15 +4826,15 @@
     </row>
     <row r="10" spans="1:9" ht="60">
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60">
       <c r="B11" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -4857,7 +4851,7 @@
     </row>
     <row r="12" spans="1:9" ht="45">
       <c r="B12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -4874,15 +4868,15 @@
     </row>
     <row r="13" spans="1:9" ht="60">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="60">
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -4899,7 +4893,7 @@
     </row>
     <row r="15" spans="1:9" ht="45">
       <c r="B15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -4916,15 +4910,15 @@
     </row>
     <row r="16" spans="1:9" ht="60">
       <c r="B16" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="60">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -4941,7 +4935,7 @@
     </row>
     <row r="18" spans="2:7" ht="45">
       <c r="B18" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -4958,15 +4952,15 @@
     </row>
     <row r="19" spans="2:7" ht="60">
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="60">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4983,7 +4977,7 @@
     </row>
     <row r="21" spans="2:7" ht="45">
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -5000,15 +4994,15 @@
     </row>
     <row r="22" spans="2:7" ht="60">
       <c r="B22" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="60">
       <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -5025,7 +5019,7 @@
     </row>
     <row r="24" spans="2:7" ht="45">
       <c r="B24" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -5042,15 +5036,15 @@
     </row>
     <row r="25" spans="2:7" ht="60">
       <c r="B25" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="60">
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -5067,7 +5061,7 @@
     </row>
     <row r="27" spans="2:7" ht="45">
       <c r="B27" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -5084,15 +5078,15 @@
     </row>
     <row r="28" spans="2:7" ht="60">
       <c r="B28" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="60">
       <c r="B29" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -5117,7 +5111,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
@@ -5154,12 +5148,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5174,12 +5168,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5199,7 +5193,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -5219,7 +5213,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -5235,12 +5229,12 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -5257,10 +5251,10 @@
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -5277,7 +5271,7 @@
     </row>
     <row r="8" spans="1:9" ht="60">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -5297,7 +5291,7 @@
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -5314,13 +5308,13 @@
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="B10" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -5348,7 +5342,7 @@
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -5372,8 +5366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -5410,12 +5404,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5430,12 +5424,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5455,7 +5449,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -5475,7 +5469,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -5491,15 +5485,15 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -5516,58 +5510,58 @@
     </row>
     <row r="7" spans="1:9" ht="60">
       <c r="B7" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60">
       <c r="B8" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60">
       <c r="B9" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60">
       <c r="B10" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60">
       <c r="B11" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60">
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60">
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5587,10 +5581,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
@@ -5608,7 +5602,7 @@
     </row>
     <row r="2" spans="1:7" ht="29.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -5629,10 +5623,10 @@
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5650,10 +5644,10 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -5671,10 +5665,10 @@
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -5692,10 +5686,10 @@
     </row>
     <row r="6" spans="1:7" ht="29.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -5713,7 +5707,7 @@
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5722,7 +5716,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -5736,10 +5730,10 @@
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -5757,7 +5751,7 @@
     </row>
     <row r="9" spans="1:7" ht="29.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -5766,7 +5760,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -5780,10 +5774,10 @@
     </row>
     <row r="10" spans="1:7" ht="29.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -5801,10 +5795,10 @@
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -5822,16 +5816,16 @@
     </row>
     <row r="12" spans="1:7" ht="29.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5839,10 +5833,10 @@
     </row>
     <row r="13" spans="1:7" ht="29.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -5860,10 +5854,10 @@
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -5881,10 +5875,10 @@
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -5902,10 +5896,10 @@
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -5923,7 +5917,7 @@
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -5944,10 +5938,10 @@
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -5965,10 +5959,10 @@
     </row>
     <row r="19" spans="1:7" ht="29.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -5986,10 +5980,10 @@
     </row>
     <row r="20" spans="1:7" ht="29.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -6007,10 +6001,10 @@
     </row>
     <row r="21" spans="1:7" ht="29.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -6028,7 +6022,7 @@
     </row>
     <row r="22" spans="1:7" ht="29.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
@@ -6037,7 +6031,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -6051,10 +6045,10 @@
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -6072,7 +6066,7 @@
     </row>
     <row r="24" spans="1:7" ht="29.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
@@ -6081,7 +6075,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -6095,10 +6089,10 @@
     </row>
     <row r="25" spans="1:7" ht="29.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -6116,10 +6110,10 @@
     </row>
     <row r="26" spans="1:7" ht="29.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -6137,16 +6131,16 @@
     </row>
     <row r="27" spans="1:7" ht="29.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -6154,10 +6148,10 @@
     </row>
     <row r="28" spans="1:7" ht="29.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -6175,10 +6169,10 @@
     </row>
     <row r="29" spans="1:7" ht="29.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -6196,10 +6190,10 @@
     </row>
     <row r="30" spans="1:7" ht="29.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -6217,10 +6211,10 @@
     </row>
     <row r="31" spans="1:7" ht="29.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -6238,7 +6232,7 @@
     </row>
     <row r="32" spans="1:7" ht="29.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>15</v>
@@ -6259,10 +6253,10 @@
     </row>
     <row r="33" spans="1:7" ht="29.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -6280,10 +6274,10 @@
     </row>
     <row r="34" spans="1:7" ht="29.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -6301,10 +6295,10 @@
     </row>
     <row r="35" spans="1:7" ht="29.25" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -6322,10 +6316,10 @@
     </row>
     <row r="36" spans="1:7" ht="29.25" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -6343,7 +6337,7 @@
     </row>
     <row r="37" spans="1:7" ht="29.25" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>16</v>
@@ -6352,7 +6346,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -6366,10 +6360,10 @@
     </row>
     <row r="38" spans="1:7" ht="29.25" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -6387,7 +6381,7 @@
     </row>
     <row r="39" spans="1:7" ht="29.25" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>16</v>
@@ -6396,7 +6390,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -6410,10 +6404,10 @@
     </row>
     <row r="40" spans="1:7" ht="29.25" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -6431,10 +6425,10 @@
     </row>
     <row r="41" spans="1:7" ht="29.25" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -6452,16 +6446,16 @@
     </row>
     <row r="42" spans="1:7" ht="29.25" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -6469,10 +6463,10 @@
     </row>
     <row r="43" spans="1:7" ht="29.25" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -6490,10 +6484,10 @@
     </row>
     <row r="44" spans="1:7" ht="29.25" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -6511,10 +6505,10 @@
     </row>
     <row r="45" spans="1:7" ht="29.25" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -6532,10 +6526,10 @@
     </row>
     <row r="46" spans="1:7" ht="29.25" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -6553,7 +6547,7 @@
     </row>
     <row r="47" spans="1:7" ht="29.25" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
@@ -6574,10 +6568,10 @@
     </row>
     <row r="48" spans="1:7" ht="29.25" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -6595,10 +6589,10 @@
     </row>
     <row r="49" spans="1:7" ht="29.25" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -6616,10 +6610,10 @@
     </row>
     <row r="50" spans="1:7" ht="29.25" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -6637,10 +6631,10 @@
     </row>
     <row r="51" spans="1:7" ht="29.25" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -6658,7 +6652,7 @@
     </row>
     <row r="52" spans="1:7" ht="29.25" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>16</v>
@@ -6667,7 +6661,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -6681,10 +6675,10 @@
     </row>
     <row r="53" spans="1:7" ht="29.25" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -6702,7 +6696,7 @@
     </row>
     <row r="54" spans="1:7" ht="29.25" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>16</v>
@@ -6711,7 +6705,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -6725,10 +6719,10 @@
     </row>
     <row r="55" spans="1:7" ht="29.25" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
@@ -6746,10 +6740,10 @@
     </row>
     <row r="56" spans="1:7" ht="29.25" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -6767,16 +6761,16 @@
     </row>
     <row r="57" spans="1:7" ht="29.25" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -6784,10 +6778,10 @@
     </row>
     <row r="58" spans="1:7" ht="29.25" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
@@ -6805,10 +6799,10 @@
     </row>
     <row r="59" spans="1:7" ht="29.25" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -6826,10 +6820,10 @@
     </row>
     <row r="60" spans="1:7" ht="29.25" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
@@ -6847,10 +6841,10 @@
     </row>
     <row r="61" spans="1:7" ht="29.25" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -6868,7 +6862,7 @@
     </row>
     <row r="62" spans="1:7" ht="29.25" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>15</v>
@@ -6889,10 +6883,10 @@
     </row>
     <row r="63" spans="1:7" ht="29.25" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -6910,10 +6904,10 @@
     </row>
     <row r="64" spans="1:7" ht="29.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>7</v>
@@ -6931,10 +6925,10 @@
     </row>
     <row r="65" spans="1:7" ht="29.25" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>7</v>
@@ -6952,10 +6946,10 @@
     </row>
     <row r="66" spans="1:7" ht="29.25" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -6973,7 +6967,7 @@
     </row>
     <row r="67" spans="1:7" ht="29.25" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>16</v>
@@ -6982,7 +6976,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -6996,10 +6990,10 @@
     </row>
     <row r="68" spans="1:7" ht="29.25" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -7017,7 +7011,7 @@
     </row>
     <row r="69" spans="1:7" ht="29.25" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>16</v>
@@ -7026,7 +7020,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -7040,10 +7034,10 @@
     </row>
     <row r="70" spans="1:7" ht="29.25" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -7061,10 +7055,10 @@
     </row>
     <row r="71" spans="1:7" ht="29.25" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
@@ -7082,16 +7076,16 @@
     </row>
     <row r="72" spans="1:7" ht="29.25" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -7099,10 +7093,10 @@
     </row>
     <row r="73" spans="1:7" ht="29.25" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>7</v>
@@ -7120,10 +7114,10 @@
     </row>
     <row r="74" spans="1:7" ht="29.25" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
@@ -7141,10 +7135,10 @@
     </row>
     <row r="75" spans="1:7" ht="29.25" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>7</v>
@@ -7162,10 +7156,10 @@
     </row>
     <row r="76" spans="1:7" ht="29.25" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -7183,7 +7177,7 @@
     </row>
     <row r="77" spans="1:7" ht="29.25" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>15</v>
@@ -7204,10 +7198,10 @@
     </row>
     <row r="78" spans="1:7" ht="29.25" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -7225,10 +7219,10 @@
     </row>
     <row r="79" spans="1:7" ht="29.25" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -7246,10 +7240,10 @@
     </row>
     <row r="80" spans="1:7" ht="29.25" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -7267,10 +7261,10 @@
     </row>
     <row r="81" spans="1:7" ht="29.25" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -7288,7 +7282,7 @@
     </row>
     <row r="82" spans="1:7" ht="29.25" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>16</v>
@@ -7297,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -7311,10 +7305,10 @@
     </row>
     <row r="83" spans="1:7" ht="29.25" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>7</v>
@@ -7332,7 +7326,7 @@
     </row>
     <row r="84" spans="1:7" ht="29.25" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>16</v>
@@ -7341,7 +7335,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
@@ -7355,10 +7349,10 @@
     </row>
     <row r="85" spans="1:7" ht="29.25" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -7376,10 +7370,10 @@
     </row>
     <row r="86" spans="1:7" ht="29.25" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -7397,16 +7391,16 @@
     </row>
     <row r="87" spans="1:7" ht="29.25" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -7414,10 +7408,10 @@
     </row>
     <row r="88" spans="1:7" ht="29.25" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -7435,10 +7429,10 @@
     </row>
     <row r="89" spans="1:7" ht="29.25" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -7456,10 +7450,10 @@
     </row>
     <row r="90" spans="1:7" ht="29.25" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>7</v>
@@ -7492,10 +7486,10 @@
   <sheetData>
     <row r="2" spans="1:8" ht="210">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -7517,7 +7511,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -7539,13 +7533,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -7556,13 +7550,13 @@
     </row>
     <row r="5" spans="1:8" ht="180">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -7578,10 +7572,10 @@
     </row>
     <row r="6" spans="1:8" ht="150">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -7600,13 +7594,13 @@
     </row>
     <row r="7" spans="1:8" ht="75">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -7622,10 +7616,10 @@
     </row>
     <row r="8" spans="1:8" ht="225">
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -897,14 +897,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="3"/>
-    <col min="2" max="2" width="44" style="3" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="23.28515625" style="3"/>
   </cols>
   <sheetData>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" customFormat="1" ht="51" customHeight="1">
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="36.75" customHeight="1">
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="36.75" customHeight="1">
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="36.75" customHeight="1">
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="36.75" customHeight="1">
@@ -1457,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="36.75" customHeight="1">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="36.75" customHeight="1">
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="36.75" customHeight="1">
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="36.75" customHeight="1">
@@ -1557,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="36.75" customHeight="1">
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="36.75" customHeight="1">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="36.75" customHeight="1">
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="36.75" customHeight="1">
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="36.75" customHeight="1">
@@ -1914,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="36.75" customHeight="1">
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="36.75" customHeight="1">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="36.75" customHeight="1">
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="36.75" customHeight="1">
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="36.75" customHeight="1">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="36.75" customHeight="1">
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="36.75" customHeight="1">
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="36.75" customHeight="1">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="36.75" customHeight="1">
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="36.75" customHeight="1">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="36.75" customHeight="1">
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="36.75" customHeight="1">
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="36.75" customHeight="1">
@@ -5366,7 +5366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="194">
   <si>
     <t>Name</t>
   </si>
@@ -539,6 +539,69 @@
   </si>
   <si>
     <t>//button[@aria-label="Scheduling"]</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Fail to search patient</t>
+  </si>
+  <si>
+    <t>Fail to View Scheduling</t>
+  </si>
+  <si>
+    <t>Fail to view operation</t>
+  </si>
+  <si>
+    <t>Fail to locate visit</t>
+  </si>
+  <si>
+    <t>Fail to assign visit type</t>
+  </si>
+  <si>
+    <t>Fail to edit task</t>
+  </si>
+  <si>
+    <t>Failt to add task</t>
+  </si>
+  <si>
+    <t>Fail to add task description</t>
+  </si>
+  <si>
+    <t>Failt o delete Task</t>
+  </si>
+  <si>
+    <t>Fail to assign clinician</t>
+  </si>
+  <si>
+    <t>Fail to assign to clinician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail to open Visit frequency </t>
+  </si>
+  <si>
+    <t>Fail to open frequency visit modal</t>
+  </si>
+  <si>
+    <t>Fail to add frequency visit data</t>
+  </si>
+  <si>
+    <t>Fail to add frequency</t>
+  </si>
+  <si>
+    <t>D:\SE\Documents\Desktop\test.png</t>
+  </si>
+  <si>
+    <t>Fail to Sort Visit</t>
+  </si>
+  <si>
+    <t>Fail to send notes to clinician</t>
+  </si>
+  <si>
+    <t>Fail to send notes to Office only</t>
+  </si>
+  <si>
+    <t>Preauth visit does not exist</t>
   </si>
 </sst>
 </file>
@@ -895,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -908,7 +971,7 @@
     <col min="3" max="16384" width="23.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,8 +999,11 @@
       <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J1" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -956,8 +1022,11 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J2" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -976,8 +1045,11 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J3" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -996,8 +1068,11 @@
       <c r="G4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J4" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1020,8 +1095,11 @@
       <c r="H5" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="50.25" customHeight="1">
+      <c r="J5" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="50.25" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1040,8 +1118,11 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J6" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -1060,8 +1141,11 @@
       <c r="G7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J7" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1080,8 +1164,11 @@
       <c r="G8" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" customFormat="1" ht="51" customHeight="1">
+      <c r="J8" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" customFormat="1" ht="51" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1101,8 +1188,11 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J9" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -1121,8 +1211,11 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J10" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="36.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1141,8 +1234,11 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J11" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1161,8 +1257,11 @@
       <c r="G12" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J12" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -1181,8 +1280,11 @@
       <c r="G13" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J13" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="36.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1204,8 +1306,11 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J14" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
@@ -1224,8 +1329,11 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="36.75" customHeight="1">
+      <c r="J15" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -1247,8 +1355,11 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J16" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -1267,8 +1378,11 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J17" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -1287,8 +1401,11 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J18" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -1301,8 +1418,11 @@
       <c r="D19" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J19" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -1322,8 +1442,11 @@
         <v>1</v>
       </c>
       <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" ht="63" customHeight="1">
+      <c r="J20" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="63" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -1342,8 +1465,11 @@
       <c r="G21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J21" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>150</v>
       </c>
@@ -1362,8 +1488,11 @@
       <c r="G22" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J22" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="36.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>137</v>
       </c>
@@ -1382,8 +1511,11 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J23" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>139</v>
       </c>
@@ -1399,8 +1531,11 @@
       <c r="G24" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J24" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>142</v>
       </c>
@@ -1419,8 +1554,11 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J25" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>144</v>
       </c>
@@ -1439,8 +1577,11 @@
       <c r="G26" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J26" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1459,8 +1600,11 @@
       <c r="G27" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J27" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -1479,8 +1623,11 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J28" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="36.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -1499,8 +1646,11 @@
       <c r="G29" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J29" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="36.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -1519,8 +1669,11 @@
       <c r="G30" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J30" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="36.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -1539,8 +1692,11 @@
       <c r="G31" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="36.75" customHeight="1">
+      <c r="J31" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="36.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -1559,8 +1715,11 @@
       <c r="G32" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J32" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="36.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
@@ -1582,8 +1741,11 @@
       <c r="G33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J33" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="36.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
@@ -1602,8 +1764,11 @@
       <c r="G34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J34" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="36.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
@@ -1625,8 +1790,11 @@
       <c r="G35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J35" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="36.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
@@ -1645,8 +1813,11 @@
       <c r="G36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J36" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="36.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1665,8 +1836,11 @@
       <c r="G37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J37" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="36.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
@@ -1679,8 +1853,11 @@
       <c r="D38" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J38" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="36.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
@@ -1699,8 +1876,11 @@
       <c r="G39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J39" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="36.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
@@ -1719,8 +1899,11 @@
       <c r="G40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J40" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="36.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>150</v>
       </c>
@@ -1739,8 +1922,11 @@
       <c r="G41" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J41" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="36.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>137</v>
       </c>
@@ -1759,8 +1945,11 @@
       <c r="G42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J42" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="36.75" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>139</v>
       </c>
@@ -1776,8 +1965,11 @@
       <c r="G43" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J43" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>142</v>
       </c>
@@ -1796,8 +1988,11 @@
       <c r="G44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J44" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>144</v>
       </c>
@@ -1816,8 +2011,11 @@
       <c r="G45" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J45" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="36.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
@@ -1836,8 +2034,11 @@
       <c r="G46" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J46" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
@@ -1856,8 +2057,11 @@
       <c r="G47" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J47" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="36.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>38</v>
       </c>
@@ -1876,8 +2080,11 @@
       <c r="G48" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J48" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="36.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
@@ -1896,8 +2103,11 @@
       <c r="G49" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J49" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="36.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>42</v>
       </c>
@@ -1916,8 +2126,11 @@
       <c r="G50" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J50" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="36.75" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>44</v>
       </c>
@@ -1936,8 +2149,11 @@
       <c r="G51" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J51" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="36.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
@@ -1959,8 +2175,11 @@
       <c r="G52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J52" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="36.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>48</v>
       </c>
@@ -1979,8 +2198,11 @@
       <c r="G53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J53" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="36.75" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>45</v>
       </c>
@@ -2002,8 +2224,11 @@
       <c r="G54" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J54" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="36.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>48</v>
       </c>
@@ -2022,8 +2247,11 @@
       <c r="G55" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J55" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="36.75" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>44</v>
       </c>
@@ -2042,8 +2270,11 @@
       <c r="G56" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J56" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="36.75" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>53</v>
       </c>
@@ -2056,8 +2287,11 @@
       <c r="D57" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J57" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="36.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
@@ -2076,8 +2310,11 @@
       <c r="G58" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J58" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="36.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -2096,8 +2333,11 @@
       <c r="G59" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J59" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="36.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>150</v>
       </c>
@@ -2116,8 +2356,11 @@
       <c r="G60" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J60" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="36.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>137</v>
       </c>
@@ -2136,8 +2379,11 @@
       <c r="G61" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J61" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="36.75" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>139</v>
       </c>
@@ -2153,8 +2399,11 @@
       <c r="G62" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J62" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>142</v>
       </c>
@@ -2173,8 +2422,11 @@
       <c r="G63" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J63" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>144</v>
       </c>
@@ -2193,8 +2445,11 @@
       <c r="G64" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J64" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="36.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
@@ -2213,8 +2468,11 @@
       <c r="G65" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J65" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>36</v>
       </c>
@@ -2233,8 +2491,11 @@
       <c r="G66" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J66" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="36.75" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>38</v>
       </c>
@@ -2253,8 +2514,11 @@
       <c r="G67" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J67" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="36.75" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>40</v>
       </c>
@@ -2273,8 +2537,11 @@
       <c r="G68" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J68" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="36.75" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>42</v>
       </c>
@@ -2293,8 +2560,11 @@
       <c r="G69" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J69" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="36.75" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>44</v>
       </c>
@@ -2313,8 +2583,11 @@
       <c r="G70" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J70" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="36.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>45</v>
       </c>
@@ -2336,8 +2609,11 @@
       <c r="G71" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J71" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="36.75" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>48</v>
       </c>
@@ -2356,8 +2632,11 @@
       <c r="G72" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J72" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="36.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>45</v>
       </c>
@@ -2379,8 +2658,11 @@
       <c r="G73" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J73" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="36.75" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>48</v>
       </c>
@@ -2399,8 +2681,11 @@
       <c r="G74" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J74" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="36.75" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>44</v>
       </c>
@@ -2419,8 +2704,11 @@
       <c r="G75" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J75" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="36.75" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>53</v>
       </c>
@@ -2433,8 +2721,11 @@
       <c r="D76" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J76" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="36.75" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>55</v>
       </c>
@@ -2453,8 +2744,11 @@
       <c r="G77" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J77" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="36.75" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>57</v>
       </c>
@@ -2473,8 +2767,11 @@
       <c r="G78" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J78" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="36.75" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>150</v>
       </c>
@@ -2493,8 +2790,11 @@
       <c r="G79" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J79" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="36.75" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>137</v>
       </c>
@@ -2513,8 +2813,11 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J80" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="36.75" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>139</v>
       </c>
@@ -2530,8 +2833,11 @@
       <c r="G81" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J81" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>142</v>
       </c>
@@ -2550,8 +2856,11 @@
       <c r="G82" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J82" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>144</v>
       </c>
@@ -2570,8 +2879,11 @@
       <c r="G83" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J83" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="36.75" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>29</v>
       </c>
@@ -2590,8 +2902,11 @@
       <c r="G84" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J84" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>36</v>
       </c>
@@ -2610,8 +2925,11 @@
       <c r="G85" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J85" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="36.75" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>38</v>
       </c>
@@ -2630,8 +2948,11 @@
       <c r="G86" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J86" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="36.75" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>40</v>
       </c>
@@ -2650,8 +2971,11 @@
       <c r="G87" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J87" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="36.75" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>42</v>
       </c>
@@ -2670,8 +2994,11 @@
       <c r="G88" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J88" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="36.75" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +3017,11 @@
       <c r="G89" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J89" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="36.75" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>45</v>
       </c>
@@ -2713,8 +3043,11 @@
       <c r="G90" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J90" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="36.75" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +3066,11 @@
       <c r="G91" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J91" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="36.75" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>45</v>
       </c>
@@ -2756,8 +3092,11 @@
       <c r="G92" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J92" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="36.75" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>48</v>
       </c>
@@ -2776,8 +3115,11 @@
       <c r="G93" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J93" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="36.75" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>44</v>
       </c>
@@ -2796,8 +3138,11 @@
       <c r="G94" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J94" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="36.75" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>53</v>
       </c>
@@ -2810,8 +3155,11 @@
       <c r="D95" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J95" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="36.75" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>55</v>
       </c>
@@ -2830,8 +3178,11 @@
       <c r="G96" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J96" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="36.75" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>57</v>
       </c>
@@ -2850,8 +3201,11 @@
       <c r="G97" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J97" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="36.75" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>150</v>
       </c>
@@ -2870,8 +3224,11 @@
       <c r="G98" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J98" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="36.75" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>137</v>
       </c>
@@ -2890,8 +3247,11 @@
       <c r="G99" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J99" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="36.75" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>139</v>
       </c>
@@ -2907,8 +3267,11 @@
       <c r="G100" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J100" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>142</v>
       </c>
@@ -2927,8 +3290,11 @@
       <c r="G101" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J101" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>144</v>
       </c>
@@ -2947,8 +3313,11 @@
       <c r="G102" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J102" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="36.75" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>29</v>
       </c>
@@ -2967,8 +3336,11 @@
       <c r="G103" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J103" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>36</v>
       </c>
@@ -2987,8 +3359,11 @@
       <c r="G104" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J104" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="36.75" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>38</v>
       </c>
@@ -3007,8 +3382,11 @@
       <c r="G105" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J105" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="36.75" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>40</v>
       </c>
@@ -3027,8 +3405,11 @@
       <c r="G106" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J106" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="36.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>42</v>
       </c>
@@ -3047,8 +3428,11 @@
       <c r="G107" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J107" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="36.75" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>44</v>
       </c>
@@ -3067,8 +3451,11 @@
       <c r="G108" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J108" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="36.75" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>45</v>
       </c>
@@ -3090,8 +3477,11 @@
       <c r="G109" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J109" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="36.75" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>48</v>
       </c>
@@ -3110,8 +3500,11 @@
       <c r="G110" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J110" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="36.75" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>45</v>
       </c>
@@ -3133,8 +3526,11 @@
       <c r="G111" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J111" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="36.75" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>48</v>
       </c>
@@ -3153,8 +3549,11 @@
       <c r="G112" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J112" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="36.75" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>44</v>
       </c>
@@ -3173,8 +3572,11 @@
       <c r="G113" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J113" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="36.75" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>53</v>
       </c>
@@ -3187,8 +3589,11 @@
       <c r="D114" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J114" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="36.75" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>55</v>
       </c>
@@ -3207,8 +3612,11 @@
       <c r="G115" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J115" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="36.75" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>57</v>
       </c>
@@ -3227,8 +3635,11 @@
       <c r="G116" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J116" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="36.75" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>150</v>
       </c>
@@ -3247,8 +3658,11 @@
       <c r="G117" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J117" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="36.75" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>137</v>
       </c>
@@ -3267,8 +3681,11 @@
       <c r="G118" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J118" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="36.75" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>139</v>
       </c>
@@ -3284,8 +3701,11 @@
       <c r="G119" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J119" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>142</v>
       </c>
@@ -3304,8 +3724,11 @@
       <c r="G120" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J120" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>144</v>
       </c>
@@ -3324,8 +3747,11 @@
       <c r="G121" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J121" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="36.75" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>29</v>
       </c>
@@ -3344,8 +3770,11 @@
       <c r="G122" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J122" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>36</v>
       </c>
@@ -3364,8 +3793,11 @@
       <c r="G123" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J123" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="36.75" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>38</v>
       </c>
@@ -3384,8 +3816,11 @@
       <c r="G124" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J124" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="36.75" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>40</v>
       </c>
@@ -3404,8 +3839,11 @@
       <c r="G125" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J125" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="36.75" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>42</v>
       </c>
@@ -3424,8 +3862,11 @@
       <c r="G126" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J126" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="36.75" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>44</v>
       </c>
@@ -3444,8 +3885,11 @@
       <c r="G127" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J127" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="36.75" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>45</v>
       </c>
@@ -3467,8 +3911,11 @@
       <c r="G128" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J128" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="36.75" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>48</v>
       </c>
@@ -3487,8 +3934,11 @@
       <c r="G129" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J129" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="36.75" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>45</v>
       </c>
@@ -3510,8 +3960,11 @@
       <c r="G130" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J130" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="36.75" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>48</v>
       </c>
@@ -3530,8 +3983,11 @@
       <c r="G131" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J131" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="36.75" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>44</v>
       </c>
@@ -3550,8 +4006,11 @@
       <c r="G132" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J132" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="36.75" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -3564,8 +4023,11 @@
       <c r="D133" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J133" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="36.75" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>55</v>
       </c>
@@ -3584,8 +4046,11 @@
       <c r="G134" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J134" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="36.75" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>57</v>
       </c>
@@ -3604,8 +4069,11 @@
       <c r="G135" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J135" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="36.75" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>150</v>
       </c>
@@ -3624,8 +4092,11 @@
       <c r="G136" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J136" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="36.75" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>137</v>
       </c>
@@ -3644,8 +4115,11 @@
       <c r="G137" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J137" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="36.75" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>139</v>
       </c>
@@ -3661,8 +4135,11 @@
       <c r="G138" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J138" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>142</v>
       </c>
@@ -3681,8 +4158,11 @@
       <c r="G139" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J139" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>144</v>
       </c>
@@ -3701,61 +4181,85 @@
       <c r="G140" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J140" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="B141" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J141" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="B142" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J142" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="36.75" customHeight="1">
+      <c r="J143" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" ht="36.75" customHeight="1">
+      <c r="J144" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" ht="36.75" customHeight="1">
+      <c r="J145" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" ht="36.75" customHeight="1">
+      <c r="J146" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3766,20 +4270,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="J4" sqref="J4:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="3"/>
     <col min="2" max="2" width="59.140625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="14.28515625" style="3"/>
+    <col min="3" max="9" width="14.28515625" style="3"/>
+    <col min="10" max="10" width="32.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="14.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3807,8 +4313,11 @@
       <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J1" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -3827,8 +4336,11 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J2" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -3847,8 +4359,11 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J3" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3867,8 +4382,11 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J4" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -3891,8 +4409,11 @@
       <c r="H5" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J5" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -3911,8 +4432,11 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J6" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -3931,16 +4455,22 @@
       <c r="G7" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J7" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J8" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
@@ -3959,8 +4489,11 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J9" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -3979,8 +4512,11 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J10" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
@@ -3999,8 +4535,11 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J11" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>78</v>
       </c>
@@ -4019,8 +4558,11 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J12" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>76</v>
       </c>
@@ -4039,8 +4581,11 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J13" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
@@ -4059,8 +4604,11 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J14" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>152</v>
       </c>
@@ -4076,8 +4624,11 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J15" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.25" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>82</v>
       </c>
@@ -4093,8 +4644,11 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J16" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="17.25" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>83</v>
       </c>
@@ -4110,8 +4664,11 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J17" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="17.25" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>84</v>
       </c>
@@ -4127,8 +4684,11 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J18" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="17.25" customHeight="1">
       <c r="B19" s="3" t="s">
         <v>85</v>
       </c>
@@ -4144,8 +4704,11 @@
       <c r="G19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J19" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="17.25" customHeight="1">
       <c r="B20" s="3" t="s">
         <v>153</v>
       </c>
@@ -4161,8 +4724,11 @@
       <c r="G20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J20" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="17.25" customHeight="1">
       <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
@@ -4178,8 +4744,11 @@
       <c r="G21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J21" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="17.25" customHeight="1">
       <c r="B22" s="3" t="s">
         <v>87</v>
       </c>
@@ -4195,8 +4764,11 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J22" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="17.25" customHeight="1">
       <c r="B23" s="3" t="s">
         <v>88</v>
       </c>
@@ -4212,8 +4784,11 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J23" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="17.25" customHeight="1">
       <c r="B24" s="3" t="s">
         <v>89</v>
       </c>
@@ -4229,8 +4804,11 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J24" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="17.25" customHeight="1">
       <c r="B25" s="3" t="s">
         <v>154</v>
       </c>
@@ -4246,8 +4824,11 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J25" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="17.25" customHeight="1">
       <c r="B26" s="3" t="s">
         <v>90</v>
       </c>
@@ -4263,8 +4844,11 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J26" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="17.25" customHeight="1">
       <c r="B27" s="3" t="s">
         <v>91</v>
       </c>
@@ -4280,8 +4864,11 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J27" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="17.25" customHeight="1">
       <c r="B28" s="3" t="s">
         <v>92</v>
       </c>
@@ -4297,8 +4884,11 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J28" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="17.25" customHeight="1">
       <c r="B29" s="3" t="s">
         <v>93</v>
       </c>
@@ -4314,8 +4904,11 @@
       <c r="G29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J29" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="17.25" customHeight="1">
       <c r="B30" s="3" t="s">
         <v>155</v>
       </c>
@@ -4331,8 +4924,11 @@
       <c r="G30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J30" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="17.25" customHeight="1">
       <c r="B31" s="3" t="s">
         <v>94</v>
       </c>
@@ -4348,8 +4944,11 @@
       <c r="G31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="17.25" customHeight="1">
+      <c r="J31" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="17.25" customHeight="1">
       <c r="B32" s="3" t="s">
         <v>95</v>
       </c>
@@ -4365,8 +4964,11 @@
       <c r="G32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J32" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17.25" customHeight="1">
       <c r="B33" s="3" t="s">
         <v>96</v>
       </c>
@@ -4382,8 +4984,11 @@
       <c r="G33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J33" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="17.25" customHeight="1">
       <c r="B34" s="3" t="s">
         <v>97</v>
       </c>
@@ -4399,8 +5004,11 @@
       <c r="G34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J34" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="17.25" customHeight="1">
       <c r="B35" s="3" t="s">
         <v>156</v>
       </c>
@@ -4416,8 +5024,11 @@
       <c r="G35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J35" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" customHeight="1">
       <c r="B36" s="3" t="s">
         <v>98</v>
       </c>
@@ -4433,8 +5044,11 @@
       <c r="G36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J36" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" customHeight="1">
       <c r="B37" s="3" t="s">
         <v>99</v>
       </c>
@@ -4450,8 +5064,11 @@
       <c r="G37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J37" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" customHeight="1">
       <c r="B38" s="3" t="s">
         <v>100</v>
       </c>
@@ -4467,8 +5084,11 @@
       <c r="G38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J38" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" customHeight="1">
       <c r="B39" s="3" t="s">
         <v>101</v>
       </c>
@@ -4484,8 +5104,11 @@
       <c r="G39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J39" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="17.25" customHeight="1">
       <c r="B40" s="3" t="s">
         <v>102</v>
       </c>
@@ -4501,8 +5124,11 @@
       <c r="G40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J40" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" customHeight="1">
       <c r="B41" s="3" t="s">
         <v>103</v>
       </c>
@@ -4518,8 +5144,11 @@
       <c r="G41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J41" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17.25" customHeight="1">
       <c r="B42" s="3" t="s">
         <v>104</v>
       </c>
@@ -4535,8 +5164,11 @@
       <c r="G42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J42" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="17.25" customHeight="1">
       <c r="B43" s="3" t="s">
         <v>105</v>
       </c>
@@ -4552,8 +5184,11 @@
       <c r="G43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J43" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="17.25" customHeight="1">
       <c r="B44" s="3" t="s">
         <v>106</v>
       </c>
@@ -4569,8 +5204,11 @@
       <c r="G44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J44" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="17.25" customHeight="1">
       <c r="B45" s="3" t="s">
         <v>107</v>
       </c>
@@ -4586,8 +5224,11 @@
       <c r="G45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J45" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="17.25" customHeight="1">
       <c r="B46" s="3" t="s">
         <v>108</v>
       </c>
@@ -4603,8 +5244,11 @@
       <c r="G46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J46" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="17.25" customHeight="1">
       <c r="B47" s="3" t="s">
         <v>158</v>
       </c>
@@ -4620,8 +5264,11 @@
       <c r="G47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J47" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="17.25" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
         <v>157</v>
@@ -4640,8 +5287,11 @@
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" ht="17.25" customHeight="1">
+      <c r="J48" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="17.25" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
         <v>159</v>
@@ -4651,6 +5301,9 @@
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
+      <c r="J49" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4660,10 +5313,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15"/>
@@ -4671,7 +5324,7 @@
     <col min="1" max="16384" width="24.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4699,8 +5352,11 @@
       <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30">
+      <c r="J1" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4719,8 +5375,11 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30">
+      <c r="J2" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4739,16 +5398,22 @@
       <c r="G3" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="60">
+      <c r="J3" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60">
       <c r="B4" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="60">
+      <c r="J4" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60">
       <c r="B5" s="3" t="s">
         <v>109</v>
       </c>
@@ -4764,8 +5429,11 @@
       <c r="G5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="45">
+      <c r="J5" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45">
       <c r="B6" s="3" t="s">
         <v>111</v>
       </c>
@@ -4781,16 +5449,22 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="60">
+      <c r="J6" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60">
       <c r="B7" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="60">
+      <c r="J7" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60">
       <c r="B8" s="3" t="s">
         <v>112</v>
       </c>
@@ -4806,8 +5480,11 @@
       <c r="G8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="45">
+      <c r="J8" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45">
       <c r="B9" s="3" t="s">
         <v>113</v>
       </c>
@@ -4823,16 +5500,22 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="60">
+      <c r="J9" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60">
       <c r="B10" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="60">
+      <c r="J10" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60">
       <c r="B11" s="3" t="s">
         <v>114</v>
       </c>
@@ -4848,8 +5531,11 @@
       <c r="G11" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="45">
+      <c r="J11" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45">
       <c r="B12" s="3" t="s">
         <v>113</v>
       </c>
@@ -4865,16 +5551,22 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="60">
+      <c r="J12" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60">
       <c r="B13" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="60">
+      <c r="J13" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60">
       <c r="B14" s="3" t="s">
         <v>115</v>
       </c>
@@ -4890,8 +5582,11 @@
       <c r="G14" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="45">
+      <c r="J14" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45">
       <c r="B15" s="3" t="s">
         <v>113</v>
       </c>
@@ -4907,16 +5602,22 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="60">
+      <c r="J15" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60">
       <c r="B16" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="60">
+      <c r="J16" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="60">
       <c r="B17" s="3" t="s">
         <v>116</v>
       </c>
@@ -4932,8 +5633,11 @@
       <c r="G17" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="45">
+      <c r="J17" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="45">
       <c r="B18" s="3" t="s">
         <v>113</v>
       </c>
@@ -4949,16 +5653,22 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="60">
+      <c r="J18" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="60">
       <c r="B19" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="60">
+      <c r="J19" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="60">
       <c r="B20" s="3" t="s">
         <v>117</v>
       </c>
@@ -4974,8 +5684,11 @@
       <c r="G20" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="45">
+      <c r="J20" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="45">
       <c r="B21" s="3" t="s">
         <v>113</v>
       </c>
@@ -4991,16 +5704,22 @@
       <c r="G21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="60">
+      <c r="J21" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="60">
       <c r="B22" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="60">
+      <c r="J22" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="60">
       <c r="B23" s="3" t="s">
         <v>118</v>
       </c>
@@ -5016,8 +5735,11 @@
       <c r="G23" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="45">
+      <c r="J23" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="45">
       <c r="B24" s="3" t="s">
         <v>113</v>
       </c>
@@ -5033,16 +5755,22 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="60">
+      <c r="J24" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="60">
       <c r="B25" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="60">
+      <c r="J25" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="60">
       <c r="B26" s="3" t="s">
         <v>119</v>
       </c>
@@ -5058,8 +5786,11 @@
       <c r="G26" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="45">
+      <c r="J26" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="45">
       <c r="B27" s="3" t="s">
         <v>113</v>
       </c>
@@ -5075,16 +5806,22 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="60">
+      <c r="J27" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="60">
       <c r="B28" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="60">
+      <c r="J28" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="60">
       <c r="B29" s="3" t="s">
         <v>120</v>
       </c>
@@ -5099,6 +5836,9 @@
       </c>
       <c r="G29" s="3">
         <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5108,18 +5848,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="40.42578125" style="3"/>
+    <col min="1" max="2" width="40.42578125" style="3"/>
+    <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="3"/>
+    <col min="5" max="5" width="8.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="40.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5147,8 +5895,11 @@
       <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -5167,8 +5918,11 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -5187,8 +5941,11 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="45">
+      <c r="J3" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -5207,8 +5964,11 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -5231,8 +5991,11 @@
       <c r="H5" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="60">
+      <c r="J5" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60">
       <c r="B6" s="3" t="s">
         <v>121</v>
       </c>
@@ -5248,8 +6011,11 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30">
+      <c r="J6" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="3" t="s">
         <v>122</v>
       </c>
@@ -5268,8 +6034,11 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="60">
+      <c r="J7" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60">
       <c r="A8" s="3" t="s">
         <v>124</v>
       </c>
@@ -5288,8 +6057,11 @@
       <c r="G8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30">
+      <c r="J8" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
       <c r="B9" s="3" t="s">
         <v>125</v>
       </c>
@@ -5305,8 +6077,11 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
+      <c r="J9" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
       <c r="B10" s="3" t="s">
         <v>123</v>
       </c>
@@ -5322,8 +6097,11 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="60">
+      <c r="J10" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -5339,8 +6117,11 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30">
+      <c r="J11" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
         <v>127</v>
       </c>
@@ -5355,6 +6136,9 @@
       </c>
       <c r="G12" s="3">
         <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5364,18 +6148,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="30.7109375" style="3"/>
+    <col min="1" max="4" width="30.7109375" style="3"/>
+    <col min="5" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="30.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5403,8 +6190,11 @@
       <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30">
+      <c r="J1" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -5423,8 +6213,11 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30">
+      <c r="J2" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -5443,8 +6236,11 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="60">
+      <c r="J3" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -5463,8 +6259,11 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -5487,8 +6286,11 @@
       <c r="H5" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="60">
+      <c r="J5" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -5507,61 +6309,85 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="60">
+      <c r="J6" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60">
       <c r="B7" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="60">
+      <c r="J7" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60">
       <c r="B8" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="60">
+      <c r="J8" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60">
       <c r="B9" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="60">
+      <c r="J9" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60">
       <c r="B10" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="60">
+      <c r="J10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60">
       <c r="B11" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="60">
+      <c r="J11" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60">
       <c r="B12" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="60">
+      <c r="J12" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60">
       <c r="B13" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -442,9 +442,6 @@
     <t>Search</t>
   </si>
   <si>
-    <t>chha1</t>
-  </si>
-  <si>
     <t>//md-dialog//div/div/div[1]/md-table-container/table/tbody/tr/td[1]/md-checkbox</t>
   </si>
   <si>
@@ -457,21 +454,6 @@
     <t>Confirm</t>
   </si>
   <si>
-    <t>msw1</t>
-  </si>
-  <si>
-    <t>ot1</t>
-  </si>
-  <si>
-    <t>rd1</t>
-  </si>
-  <si>
-    <t>st1</t>
-  </si>
-  <si>
-    <t>rn1</t>
-  </si>
-  <si>
     <t>Assign Clinician</t>
   </si>
   <si>
@@ -505,9 +487,6 @@
     <t>//span[@class="md-subhead ng-binding" and contains(text(),"PT")]/../../../../md-card/md-card-header</t>
   </si>
   <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician chha1')]</t>
-  </si>
-  <si>
     <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician MSW1')]</t>
   </si>
   <si>
@@ -602,6 +581,27 @@
   </si>
   <si>
     <t>Preauth visit does not exist</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician chha2')]</t>
+  </si>
+  <si>
+    <t>msw3</t>
+  </si>
+  <si>
+    <t>ot3</t>
+  </si>
+  <si>
+    <t>rd3</t>
+  </si>
+  <si>
+    <t>st3</t>
+  </si>
+  <si>
+    <t>rn3</t>
+  </si>
+  <si>
+    <t>chha3</t>
   </si>
 </sst>
 </file>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1000,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
@@ -1008,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -1069,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
@@ -1096,7 +1096,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="50.25" customHeight="1">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.75" customHeight="1">
@@ -1165,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" customFormat="1" ht="51" customHeight="1">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36.75" customHeight="1">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.75" customHeight="1">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1">
@@ -1281,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36.75" customHeight="1">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
@@ -1419,7 +1419,7 @@
         <v>52</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36.75" customHeight="1">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H20"/>
       <c r="J20" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="63" customHeight="1">
@@ -1466,12 +1466,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>135</v>
@@ -1489,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36.75" customHeight="1">
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36.75" customHeight="1">
@@ -1526,21 +1526,21 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
@@ -1555,15 +1555,15 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -1578,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
@@ -1601,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1">
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36.75" customHeight="1">
@@ -1647,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36.75" customHeight="1">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36.75" customHeight="1">
@@ -1716,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36.75" customHeight="1">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36.75" customHeight="1">
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36.75" customHeight="1">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.75" customHeight="1">
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.75" customHeight="1">
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36.75" customHeight="1">
@@ -1854,7 +1854,7 @@
         <v>52</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.75" customHeight="1">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.75" customHeight="1">
@@ -1900,12 +1900,12 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>135</v>
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.75" customHeight="1">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.75" customHeight="1">
@@ -1960,21 +1960,21 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>35</v>
@@ -1989,15 +1989,15 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -2012,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.75" customHeight="1">
@@ -2035,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.75" customHeight="1">
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.75" customHeight="1">
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.75" customHeight="1">
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36.75" customHeight="1">
@@ -2150,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36.75" customHeight="1">
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36.75" customHeight="1">
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.75" customHeight="1">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36.75" customHeight="1">
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36.75" customHeight="1">
@@ -2288,7 +2288,7 @@
         <v>52</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36.75" customHeight="1">
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36.75" customHeight="1">
@@ -2334,12 +2334,12 @@
         <v>1</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="36.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>135</v>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="36.75" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
@@ -2394,21 +2394,21 @@
         <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="G62" s="3">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>35</v>
@@ -2423,15 +2423,15 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>7</v>
@@ -2446,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="36.75" customHeight="1">
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="36.75" customHeight="1">
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="36.75" customHeight="1">
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="36.75" customHeight="1">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1">
@@ -2561,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1">
@@ -2584,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="36.75" customHeight="1">
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="36.75" customHeight="1">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="36.75" customHeight="1">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="36.75" customHeight="1">
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="36.75" customHeight="1">
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="36.75" customHeight="1">
@@ -2722,7 +2722,7 @@
         <v>52</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="36.75" customHeight="1">
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="36.75" customHeight="1">
@@ -2768,12 +2768,12 @@
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="36.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>135</v>
@@ -2791,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="36.75" customHeight="1">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="36.75" customHeight="1">
@@ -2828,21 +2828,21 @@
         <v>8</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G81" s="3">
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>35</v>
@@ -2857,15 +2857,15 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>7</v>
@@ -2880,7 +2880,7 @@
         <v>10</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="36.75" customHeight="1">
@@ -2903,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="36.75" customHeight="1">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1">
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1">
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.75" customHeight="1">
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.75" customHeight="1">
@@ -3018,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.75" customHeight="1">
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.75" customHeight="1">
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="36.75" customHeight="1">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.75" customHeight="1">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.75" customHeight="1">
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.75" customHeight="1">
@@ -3156,7 +3156,7 @@
         <v>52</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="36.75" customHeight="1">
@@ -3179,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="36.75" customHeight="1">
@@ -3202,12 +3202,12 @@
         <v>1</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="36.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>135</v>
@@ -3225,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.75" customHeight="1">
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.75" customHeight="1">
@@ -3262,21 +3262,21 @@
         <v>8</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="G100" s="3">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>35</v>
@@ -3291,15 +3291,15 @@
         <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>7</v>
@@ -3314,7 +3314,7 @@
         <v>10</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="36.75" customHeight="1">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="36.75" customHeight="1">
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="36.75" customHeight="1">
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="36.75" customHeight="1">
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="36.75" customHeight="1">
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="36.75" customHeight="1">
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="36.75" customHeight="1">
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="36.75" customHeight="1">
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="36.75" customHeight="1">
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="36.75" customHeight="1">
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="36.75" customHeight="1">
@@ -3573,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="36.75" customHeight="1">
@@ -3590,7 +3590,7 @@
         <v>52</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="36.75" customHeight="1">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="36.75" customHeight="1">
@@ -3636,12 +3636,12 @@
         <v>1</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="36.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>135</v>
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="36.75" customHeight="1">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="36.75" customHeight="1">
@@ -3696,21 +3696,21 @@
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="G119" s="3">
         <v>3</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>35</v>
@@ -3725,15 +3725,15 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>7</v>
@@ -3748,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="36.75" customHeight="1">
@@ -3771,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="36.75" customHeight="1">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="36.75" customHeight="1">
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="36.75" customHeight="1">
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="36.75" customHeight="1">
@@ -3863,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="36.75" customHeight="1">
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="36.75" customHeight="1">
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="36.75" customHeight="1">
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="36.75" customHeight="1">
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="36.75" customHeight="1">
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="36.75" customHeight="1">
@@ -4007,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="36.75" customHeight="1">
@@ -4024,7 +4024,7 @@
         <v>52</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="36.75" customHeight="1">
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="36.75" customHeight="1">
@@ -4070,12 +4070,12 @@
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="36.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>135</v>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="36.75" customHeight="1">
@@ -4116,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="36.75" customHeight="1">
@@ -4130,21 +4130,21 @@
         <v>8</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="G138" s="3">
         <v>3</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>35</v>
@@ -4159,15 +4159,15 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>7</v>
@@ -4182,84 +4182,84 @@
         <v>10</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="B141" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4314,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
@@ -4322,7 +4322,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -4337,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
@@ -4345,7 +4345,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
@@ -4410,7 +4410,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
@@ -4456,7 +4456,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
@@ -4467,7 +4467,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
@@ -4490,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
@@ -4498,7 +4498,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
@@ -4582,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
@@ -4605,12 +4605,12 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
@@ -4665,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
@@ -4705,12 +4705,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
@@ -4805,12 +4805,12 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
@@ -4905,12 +4905,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1">
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1">
@@ -5005,12 +5005,12 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1">
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1">
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1">
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1">
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1">
@@ -5165,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1">
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1">
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.25" customHeight="1">
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1">
@@ -5245,12 +5245,12 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -5265,13 +5265,13 @@
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -5288,13 +5288,13 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>60</v>
@@ -5302,7 +5302,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5353,7 +5353,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
@@ -5361,7 +5361,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -5384,7 +5384,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5399,7 +5399,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60">
@@ -5410,7 +5410,7 @@
         <v>110</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60">
@@ -5430,7 +5430,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60">
@@ -5461,7 +5461,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -5481,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45">
@@ -5501,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
@@ -5512,7 +5512,7 @@
         <v>110</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -5532,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -5563,7 +5563,7 @@
         <v>110</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
@@ -5583,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60">
@@ -5614,7 +5614,7 @@
         <v>110</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="60">
@@ -5634,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="45">
@@ -5654,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="60">
@@ -5665,7 +5665,7 @@
         <v>110</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="60">
@@ -5685,7 +5685,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="45">
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="60">
@@ -5716,7 +5716,7 @@
         <v>110</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="60">
@@ -5736,7 +5736,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="45">
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="60">
@@ -5767,7 +5767,7 @@
         <v>110</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="60">
@@ -5787,7 +5787,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="45">
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="60">
@@ -5818,7 +5818,7 @@
         <v>110</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="60">
@@ -5838,7 +5838,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5896,7 +5896,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5904,7 +5904,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5927,7 +5927,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5942,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5992,7 +5992,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -6078,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
@@ -6098,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6150,7 +6150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J8" sqref="J8:J13"/>
     </sheetView>
   </sheetViews>
@@ -6191,7 +6191,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
@@ -6199,7 +6199,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -6222,7 +6222,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60">
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6287,7 +6287,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60">
@@ -6321,7 +6321,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -6332,7 +6332,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60">
@@ -6343,7 +6343,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
@@ -6354,7 +6354,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -6365,7 +6365,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
@@ -6376,7 +6376,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -6387,7 +6387,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -8315,7 +8315,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -8365,7 +8365,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="8" spans="1:8" ht="225">
       <c r="B8" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>33</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -487,21 +487,6 @@
     <t>//span[@class="md-subhead ng-binding" and contains(text(),"PT")]/../../../../md-card/md-card-header</t>
   </si>
   <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician MSW1')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Ot1')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rd1')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rn1')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician ST1')]</t>
-  </si>
-  <si>
     <t>pt2</t>
   </si>
   <si>
@@ -583,9 +568,6 @@
     <t>Preauth visit does not exist</t>
   </si>
   <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician chha2')]</t>
-  </si>
-  <si>
     <t>msw3</t>
   </si>
   <si>
@@ -602,6 +584,24 @@
   </si>
   <si>
     <t>chha3</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician MSW3')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Ot3')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rd3')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rn3')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician ST3')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician chha3')]</t>
   </si>
 </sst>
 </file>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1000,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
@@ -1008,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -1069,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
@@ -1096,7 +1096,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="50.25" customHeight="1">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.75" customHeight="1">
@@ -1165,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:10" customFormat="1" ht="51" customHeight="1">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36.75" customHeight="1">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.75" customHeight="1">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1">
@@ -1281,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36.75" customHeight="1">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
@@ -1419,7 +1419,7 @@
         <v>52</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36.75" customHeight="1">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H20"/>
       <c r="J20" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="63" customHeight="1">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36.75" customHeight="1">
@@ -1489,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36.75" customHeight="1">
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36.75" customHeight="1">
@@ -1526,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.75" customHeight="1">
@@ -1555,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1">
@@ -1578,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
@@ -1601,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1">
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36.75" customHeight="1">
@@ -1647,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36.75" customHeight="1">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36.75" customHeight="1">
@@ -1716,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36.75" customHeight="1">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36.75" customHeight="1">
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36.75" customHeight="1">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.75" customHeight="1">
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.75" customHeight="1">
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36.75" customHeight="1">
@@ -1854,7 +1854,7 @@
         <v>52</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.75" customHeight="1">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.75" customHeight="1">
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.75" customHeight="1">
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.75" customHeight="1">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.75" customHeight="1">
@@ -1960,13 +1960,13 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.75" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.75" customHeight="1">
@@ -2012,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.75" customHeight="1">
@@ -2035,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.75" customHeight="1">
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.75" customHeight="1">
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.75" customHeight="1">
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36.75" customHeight="1">
@@ -2150,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36.75" customHeight="1">
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36.75" customHeight="1">
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.75" customHeight="1">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36.75" customHeight="1">
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36.75" customHeight="1">
@@ -2288,7 +2288,7 @@
         <v>52</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36.75" customHeight="1">
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36.75" customHeight="1">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="36.75" customHeight="1">
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="36.75" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
@@ -2394,13 +2394,13 @@
         <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G62" s="3">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36.75" customHeight="1">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36.75" customHeight="1">
@@ -2446,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="36.75" customHeight="1">
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="36.75" customHeight="1">
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="36.75" customHeight="1">
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="36.75" customHeight="1">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1">
@@ -2561,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1">
@@ -2584,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="36.75" customHeight="1">
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="36.75" customHeight="1">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="36.75" customHeight="1">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="36.75" customHeight="1">
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="36.75" customHeight="1">
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="36.75" customHeight="1">
@@ -2722,7 +2722,7 @@
         <v>52</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="36.75" customHeight="1">
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="36.75" customHeight="1">
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="36.75" customHeight="1">
@@ -2791,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="36.75" customHeight="1">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="36.75" customHeight="1">
@@ -2828,13 +2828,13 @@
         <v>8</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G81" s="3">
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="36.75" customHeight="1">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="36.75" customHeight="1">
@@ -2880,7 +2880,7 @@
         <v>10</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="36.75" customHeight="1">
@@ -2903,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="36.75" customHeight="1">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1">
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1">
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.75" customHeight="1">
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.75" customHeight="1">
@@ -3018,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.75" customHeight="1">
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.75" customHeight="1">
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="36.75" customHeight="1">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.75" customHeight="1">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.75" customHeight="1">
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.75" customHeight="1">
@@ -3156,7 +3156,7 @@
         <v>52</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="36.75" customHeight="1">
@@ -3179,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="36.75" customHeight="1">
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="36.75" customHeight="1">
@@ -3225,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.75" customHeight="1">
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.75" customHeight="1">
@@ -3262,13 +3262,13 @@
         <v>8</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G100" s="3">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="36.75" customHeight="1">
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="36.75" customHeight="1">
@@ -3314,7 +3314,7 @@
         <v>10</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="36.75" customHeight="1">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="36.75" customHeight="1">
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="36.75" customHeight="1">
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="36.75" customHeight="1">
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="36.75" customHeight="1">
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="36.75" customHeight="1">
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="36.75" customHeight="1">
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="36.75" customHeight="1">
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="36.75" customHeight="1">
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="36.75" customHeight="1">
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="36.75" customHeight="1">
@@ -3573,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="36.75" customHeight="1">
@@ -3590,7 +3590,7 @@
         <v>52</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="36.75" customHeight="1">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="36.75" customHeight="1">
@@ -3636,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="36.75" customHeight="1">
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="36.75" customHeight="1">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="36.75" customHeight="1">
@@ -3696,13 +3696,13 @@
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G119" s="3">
         <v>3</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="36.75" customHeight="1">
@@ -3725,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="36.75" customHeight="1">
@@ -3748,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="36.75" customHeight="1">
@@ -3771,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="36.75" customHeight="1">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="36.75" customHeight="1">
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="36.75" customHeight="1">
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="36.75" customHeight="1">
@@ -3863,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="36.75" customHeight="1">
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="36.75" customHeight="1">
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="36.75" customHeight="1">
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="36.75" customHeight="1">
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="36.75" customHeight="1">
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="36.75" customHeight="1">
@@ -4007,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="36.75" customHeight="1">
@@ -4024,7 +4024,7 @@
         <v>52</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="36.75" customHeight="1">
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="36.75" customHeight="1">
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="36.75" customHeight="1">
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="36.75" customHeight="1">
@@ -4116,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="36.75" customHeight="1">
@@ -4130,13 +4130,13 @@
         <v>8</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G138" s="3">
         <v>3</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="36.75" customHeight="1">
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="36.75" customHeight="1">
@@ -4182,84 +4182,84 @@
         <v>10</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="B141" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4314,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
@@ -4322,22 +4322,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
@@ -4345,7 +4345,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
@@ -4410,7 +4410,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
@@ -4456,7 +4456,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
@@ -4467,7 +4467,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
@@ -4490,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
@@ -4582,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
@@ -4665,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
@@ -4905,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1">
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1">
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1">
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1">
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1">
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1">
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1">
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1">
@@ -5165,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1">
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1">
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.25" customHeight="1">
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1">
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1">
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1">
@@ -5288,7 +5288,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
@@ -5302,7 +5302,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5353,7 +5353,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
@@ -5361,22 +5361,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -5384,7 +5384,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5399,7 +5399,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60">
@@ -5410,7 +5410,7 @@
         <v>110</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60">
@@ -5430,7 +5430,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60">
@@ -5461,7 +5461,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -5481,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45">
@@ -5501,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
@@ -5512,7 +5512,7 @@
         <v>110</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -5532,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -5563,7 +5563,7 @@
         <v>110</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
@@ -5583,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60">
@@ -5614,7 +5614,7 @@
         <v>110</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="60">
@@ -5634,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="45">
@@ -5654,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="60">
@@ -5665,7 +5665,7 @@
         <v>110</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="60">
@@ -5685,7 +5685,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="45">
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="60">
@@ -5716,7 +5716,7 @@
         <v>110</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="60">
@@ -5736,7 +5736,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="45">
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="60">
@@ -5767,7 +5767,7 @@
         <v>110</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="60">
@@ -5787,7 +5787,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="45">
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="60">
@@ -5818,7 +5818,7 @@
         <v>110</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="60">
@@ -5838,7 +5838,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5896,7 +5896,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5904,22 +5904,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5927,7 +5927,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5942,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5992,7 +5992,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -6078,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
@@ -6098,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6191,7 +6191,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
@@ -6199,22 +6199,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -6222,7 +6222,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60">
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6287,7 +6287,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60">
@@ -6321,7 +6321,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -6332,7 +6332,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60">
@@ -6343,7 +6343,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
@@ -6354,7 +6354,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -6365,7 +6365,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
@@ -6376,7 +6376,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -6387,7 +6387,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -8365,7 +8365,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="8" spans="1:8" ht="225">
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>33</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -496,9 +496,6 @@
     <t>pt3</t>
   </si>
   <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician pt3')]</t>
-  </si>
-  <si>
     <t>//button[@aria-label="Operations"]</t>
   </si>
   <si>
@@ -602,6 +599,9 @@
   </si>
   <si>
     <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician chha3')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Pt3')]</t>
   </si>
 </sst>
 </file>
@@ -961,7 +961,7 @@
   <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1000,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
@@ -1008,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -1069,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
@@ -1096,7 +1096,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="50.25" customHeight="1">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.75" customHeight="1">
@@ -1165,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:10" customFormat="1" ht="51" customHeight="1">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36.75" customHeight="1">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.75" customHeight="1">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1">
@@ -1281,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36.75" customHeight="1">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
@@ -1419,7 +1419,7 @@
         <v>52</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36.75" customHeight="1">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H20"/>
       <c r="J20" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="63" customHeight="1">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36.75" customHeight="1">
@@ -1489,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36.75" customHeight="1">
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36.75" customHeight="1">
@@ -1526,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.75" customHeight="1">
@@ -1555,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1">
@@ -1578,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
@@ -1601,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1">
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36.75" customHeight="1">
@@ -1647,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36.75" customHeight="1">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36.75" customHeight="1">
@@ -1716,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36.75" customHeight="1">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36.75" customHeight="1">
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36.75" customHeight="1">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.75" customHeight="1">
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.75" customHeight="1">
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36.75" customHeight="1">
@@ -1854,7 +1854,7 @@
         <v>52</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.75" customHeight="1">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.75" customHeight="1">
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.75" customHeight="1">
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.75" customHeight="1">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.75" customHeight="1">
@@ -1960,13 +1960,13 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.75" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.75" customHeight="1">
@@ -2012,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.75" customHeight="1">
@@ -2035,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.75" customHeight="1">
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.75" customHeight="1">
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.75" customHeight="1">
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36.75" customHeight="1">
@@ -2150,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36.75" customHeight="1">
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36.75" customHeight="1">
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.75" customHeight="1">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36.75" customHeight="1">
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36.75" customHeight="1">
@@ -2288,7 +2288,7 @@
         <v>52</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36.75" customHeight="1">
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36.75" customHeight="1">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="36.75" customHeight="1">
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="36.75" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
@@ -2394,13 +2394,13 @@
         <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G62" s="3">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36.75" customHeight="1">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36.75" customHeight="1">
@@ -2446,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="36.75" customHeight="1">
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="36.75" customHeight="1">
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="36.75" customHeight="1">
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="36.75" customHeight="1">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1">
@@ -2561,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1">
@@ -2584,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="36.75" customHeight="1">
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="36.75" customHeight="1">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="36.75" customHeight="1">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="36.75" customHeight="1">
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="36.75" customHeight="1">
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="36.75" customHeight="1">
@@ -2722,7 +2722,7 @@
         <v>52</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="36.75" customHeight="1">
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="36.75" customHeight="1">
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="36.75" customHeight="1">
@@ -2791,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="36.75" customHeight="1">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="36.75" customHeight="1">
@@ -2834,7 +2834,7 @@
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="36.75" customHeight="1">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="36.75" customHeight="1">
@@ -2880,7 +2880,7 @@
         <v>10</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="36.75" customHeight="1">
@@ -2903,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="36.75" customHeight="1">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1">
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1">
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.75" customHeight="1">
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.75" customHeight="1">
@@ -3018,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.75" customHeight="1">
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.75" customHeight="1">
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="36.75" customHeight="1">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.75" customHeight="1">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.75" customHeight="1">
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.75" customHeight="1">
@@ -3156,7 +3156,7 @@
         <v>52</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="36.75" customHeight="1">
@@ -3179,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="36.75" customHeight="1">
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="36.75" customHeight="1">
@@ -3225,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.75" customHeight="1">
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.75" customHeight="1">
@@ -3262,13 +3262,13 @@
         <v>8</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G100" s="3">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="36.75" customHeight="1">
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="36.75" customHeight="1">
@@ -3314,7 +3314,7 @@
         <v>10</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="36.75" customHeight="1">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="36.75" customHeight="1">
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="36.75" customHeight="1">
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="36.75" customHeight="1">
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="36.75" customHeight="1">
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="36.75" customHeight="1">
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="36.75" customHeight="1">
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="36.75" customHeight="1">
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="36.75" customHeight="1">
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="36.75" customHeight="1">
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="36.75" customHeight="1">
@@ -3573,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="36.75" customHeight="1">
@@ -3590,7 +3590,7 @@
         <v>52</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="36.75" customHeight="1">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="36.75" customHeight="1">
@@ -3636,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="36.75" customHeight="1">
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="36.75" customHeight="1">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="36.75" customHeight="1">
@@ -3696,13 +3696,13 @@
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G119" s="3">
         <v>3</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="36.75" customHeight="1">
@@ -3725,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="36.75" customHeight="1">
@@ -3748,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="36.75" customHeight="1">
@@ -3771,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="36.75" customHeight="1">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="36.75" customHeight="1">
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="36.75" customHeight="1">
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="36.75" customHeight="1">
@@ -3863,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="36.75" customHeight="1">
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="36.75" customHeight="1">
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="36.75" customHeight="1">
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="36.75" customHeight="1">
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="36.75" customHeight="1">
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="36.75" customHeight="1">
@@ -4007,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="36.75" customHeight="1">
@@ -4024,7 +4024,7 @@
         <v>52</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="36.75" customHeight="1">
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="36.75" customHeight="1">
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="36.75" customHeight="1">
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="36.75" customHeight="1">
@@ -4116,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="36.75" customHeight="1">
@@ -4130,13 +4130,13 @@
         <v>8</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G138" s="3">
         <v>3</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="36.75" customHeight="1">
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="36.75" customHeight="1">
@@ -4182,84 +4182,84 @@
         <v>10</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="B141" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4314,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
@@ -4322,7 +4322,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -4337,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
@@ -4345,7 +4345,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
@@ -4410,7 +4410,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
@@ -4456,7 +4456,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
@@ -4467,7 +4467,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
@@ -4490,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
@@ -4582,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
@@ -4665,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
@@ -4905,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1">
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1">
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1">
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1">
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1">
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1">
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1">
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1">
@@ -5165,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1">
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1">
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.25" customHeight="1">
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1">
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1">
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1">
@@ -5288,7 +5288,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
@@ -5302,7 +5302,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5353,7 +5353,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
@@ -5361,7 +5361,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -5384,7 +5384,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5399,7 +5399,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60">
@@ -5410,7 +5410,7 @@
         <v>110</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60">
@@ -5430,7 +5430,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60">
@@ -5461,7 +5461,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -5481,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45">
@@ -5501,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
@@ -5512,7 +5512,7 @@
         <v>110</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -5532,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -5563,7 +5563,7 @@
         <v>110</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
@@ -5583,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60">
@@ -5614,7 +5614,7 @@
         <v>110</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="60">
@@ -5634,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="45">
@@ -5654,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="60">
@@ -5665,7 +5665,7 @@
         <v>110</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="60">
@@ -5685,7 +5685,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="45">
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="60">
@@ -5716,7 +5716,7 @@
         <v>110</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="60">
@@ -5736,7 +5736,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="45">
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="60">
@@ -5767,7 +5767,7 @@
         <v>110</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="60">
@@ -5787,7 +5787,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="45">
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="60">
@@ -5818,7 +5818,7 @@
         <v>110</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="60">
@@ -5838,7 +5838,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5896,7 +5896,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5904,7 +5904,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5927,7 +5927,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5942,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5992,7 +5992,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -6078,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
@@ -6098,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6191,7 +6191,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
@@ -6199,7 +6199,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -6222,7 +6222,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60">
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6287,7 +6287,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60">
@@ -6321,7 +6321,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -6332,7 +6332,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60">
@@ -6343,7 +6343,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
@@ -6354,7 +6354,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -6365,7 +6365,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
@@ -6376,7 +6376,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -6387,7 +6387,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -493,9 +493,6 @@
     <t>//span[@ng-show="vm.episode.primaryClinicians[visitType.name].aggregateId" and contains(text(),"clinician pt3")]</t>
   </si>
   <si>
-    <t>pt3</t>
-  </si>
-  <si>
     <t>//button[@aria-label="Operations"]</t>
   </si>
   <si>
@@ -565,24 +562,6 @@
     <t>Preauth visit does not exist</t>
   </si>
   <si>
-    <t>msw3</t>
-  </si>
-  <si>
-    <t>ot3</t>
-  </si>
-  <si>
-    <t>rd3</t>
-  </si>
-  <si>
-    <t>st3</t>
-  </si>
-  <si>
-    <t>rn3</t>
-  </si>
-  <si>
-    <t>chha3</t>
-  </si>
-  <si>
     <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician MSW3')]</t>
   </si>
   <si>
@@ -602,6 +581,27 @@
   </si>
   <si>
     <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Pt3')]</t>
+  </si>
+  <si>
+    <t>chha4</t>
+  </si>
+  <si>
+    <t>msw4</t>
+  </si>
+  <si>
+    <t>ot4</t>
+  </si>
+  <si>
+    <t>pt4</t>
+  </si>
+  <si>
+    <t>rd4</t>
+  </si>
+  <si>
+    <t>st4</t>
+  </si>
+  <si>
+    <t>rn4</t>
   </si>
 </sst>
 </file>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="B133" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1000,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
@@ -1008,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -1069,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
@@ -1096,7 +1096,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="50.25" customHeight="1">
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.75" customHeight="1">
@@ -1165,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" customFormat="1" ht="51" customHeight="1">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36.75" customHeight="1">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.75" customHeight="1">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1">
@@ -1281,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36.75" customHeight="1">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
@@ -1419,7 +1419,7 @@
         <v>52</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36.75" customHeight="1">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H20"/>
       <c r="J20" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="63" customHeight="1">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36.75" customHeight="1">
@@ -1489,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36.75" customHeight="1">
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36.75" customHeight="1">
@@ -1526,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.75" customHeight="1">
@@ -1555,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1">
@@ -1578,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
@@ -1601,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1">
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36.75" customHeight="1">
@@ -1647,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36.75" customHeight="1">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36.75" customHeight="1">
@@ -1716,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36.75" customHeight="1">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36.75" customHeight="1">
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36.75" customHeight="1">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.75" customHeight="1">
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.75" customHeight="1">
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36.75" customHeight="1">
@@ -1854,7 +1854,7 @@
         <v>52</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.75" customHeight="1">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.75" customHeight="1">
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.75" customHeight="1">
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.75" customHeight="1">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.75" customHeight="1">
@@ -1960,13 +1960,13 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.75" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.75" customHeight="1">
@@ -2012,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.75" customHeight="1">
@@ -2035,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.75" customHeight="1">
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.75" customHeight="1">
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.75" customHeight="1">
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36.75" customHeight="1">
@@ -2150,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36.75" customHeight="1">
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36.75" customHeight="1">
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.75" customHeight="1">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36.75" customHeight="1">
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36.75" customHeight="1">
@@ -2288,7 +2288,7 @@
         <v>52</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36.75" customHeight="1">
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36.75" customHeight="1">
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="36.75" customHeight="1">
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="36.75" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
@@ -2394,13 +2394,13 @@
         <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G62" s="3">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36.75" customHeight="1">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36.75" customHeight="1">
@@ -2446,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="36.75" customHeight="1">
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="36.75" customHeight="1">
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="36.75" customHeight="1">
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="36.75" customHeight="1">
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1">
@@ -2561,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1">
@@ -2584,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="36.75" customHeight="1">
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="36.75" customHeight="1">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="36.75" customHeight="1">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="36.75" customHeight="1">
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="36.75" customHeight="1">
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="36.75" customHeight="1">
@@ -2722,7 +2722,7 @@
         <v>52</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="36.75" customHeight="1">
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="36.75" customHeight="1">
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="36.75" customHeight="1">
@@ -2791,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="36.75" customHeight="1">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="36.75" customHeight="1">
@@ -2828,13 +2828,13 @@
         <v>8</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="G81" s="3">
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="36.75" customHeight="1">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="36.75" customHeight="1">
@@ -2880,7 +2880,7 @@
         <v>10</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="36.75" customHeight="1">
@@ -2903,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="36.75" customHeight="1">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1">
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1">
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.75" customHeight="1">
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.75" customHeight="1">
@@ -3018,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.75" customHeight="1">
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.75" customHeight="1">
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="36.75" customHeight="1">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.75" customHeight="1">
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.75" customHeight="1">
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.75" customHeight="1">
@@ -3156,7 +3156,7 @@
         <v>52</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="36.75" customHeight="1">
@@ -3179,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="36.75" customHeight="1">
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="36.75" customHeight="1">
@@ -3225,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.75" customHeight="1">
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.75" customHeight="1">
@@ -3262,13 +3262,13 @@
         <v>8</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G100" s="3">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="36.75" customHeight="1">
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="36.75" customHeight="1">
@@ -3314,7 +3314,7 @@
         <v>10</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="36.75" customHeight="1">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="36.75" customHeight="1">
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="36.75" customHeight="1">
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="36.75" customHeight="1">
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="36.75" customHeight="1">
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="36.75" customHeight="1">
@@ -3452,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="36.75" customHeight="1">
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="36.75" customHeight="1">
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="36.75" customHeight="1">
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="36.75" customHeight="1">
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="36.75" customHeight="1">
@@ -3573,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="36.75" customHeight="1">
@@ -3590,7 +3590,7 @@
         <v>52</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="36.75" customHeight="1">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="36.75" customHeight="1">
@@ -3636,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="36.75" customHeight="1">
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="36.75" customHeight="1">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="36.75" customHeight="1">
@@ -3696,13 +3696,13 @@
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G119" s="3">
         <v>3</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="36.75" customHeight="1">
@@ -3725,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="36.75" customHeight="1">
@@ -3748,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="36.75" customHeight="1">
@@ -3771,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="36.75" customHeight="1">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="36.75" customHeight="1">
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="36.75" customHeight="1">
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="36.75" customHeight="1">
@@ -3863,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="36.75" customHeight="1">
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="36.75" customHeight="1">
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="36.75" customHeight="1">
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="36.75" customHeight="1">
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="36.75" customHeight="1">
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="36.75" customHeight="1">
@@ -4007,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="36.75" customHeight="1">
@@ -4024,7 +4024,7 @@
         <v>52</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="36.75" customHeight="1">
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="36.75" customHeight="1">
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="36.75" customHeight="1">
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="36.75" customHeight="1">
@@ -4116,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="36.75" customHeight="1">
@@ -4130,13 +4130,13 @@
         <v>8</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G138" s="3">
         <v>3</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="36.75" customHeight="1">
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="36.75" customHeight="1">
@@ -4182,84 +4182,84 @@
         <v>10</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="B141" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4272,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J4" sqref="J4:J6"/>
     </sheetView>
   </sheetViews>
@@ -4314,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
@@ -4322,7 +4322,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -4337,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
@@ -4345,7 +4345,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
@@ -4410,7 +4410,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
@@ -4456,7 +4456,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
@@ -4467,7 +4467,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
@@ -4490,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
@@ -4582,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
@@ -4665,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
@@ -4905,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17.25" customHeight="1">
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1">
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1">
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1">
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1">
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" customHeight="1">
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1">
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="17.25" customHeight="1">
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1">
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="17.25" customHeight="1">
@@ -5165,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="17.25" customHeight="1">
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="17.25" customHeight="1">
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.25" customHeight="1">
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="17.25" customHeight="1">
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="17.25" customHeight="1">
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1">
@@ -5288,7 +5288,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
@@ -5302,7 +5302,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5353,7 +5353,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
@@ -5361,7 +5361,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -5384,7 +5384,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5399,7 +5399,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60">
@@ -5410,7 +5410,7 @@
         <v>110</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60">
@@ -5430,7 +5430,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60">
@@ -5461,7 +5461,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -5481,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45">
@@ -5501,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
@@ -5512,7 +5512,7 @@
         <v>110</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -5532,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -5563,7 +5563,7 @@
         <v>110</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
@@ -5583,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60">
@@ -5614,7 +5614,7 @@
         <v>110</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="60">
@@ -5634,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="45">
@@ -5654,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="60">
@@ -5665,7 +5665,7 @@
         <v>110</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="60">
@@ -5685,7 +5685,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="45">
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="60">
@@ -5716,7 +5716,7 @@
         <v>110</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="60">
@@ -5736,7 +5736,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="45">
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="60">
@@ -5767,7 +5767,7 @@
         <v>110</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="60">
@@ -5787,7 +5787,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="45">
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="60">
@@ -5818,7 +5818,7 @@
         <v>110</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="60">
@@ -5838,7 +5838,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5896,7 +5896,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5904,7 +5904,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5927,7 +5927,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5942,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5992,7 +5992,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -6078,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
@@ -6098,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6191,7 +6191,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
@@ -6199,7 +6199,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -6222,7 +6222,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60">
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6287,7 +6287,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60">
@@ -6321,7 +6321,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -6332,7 +6332,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60">
@@ -6343,7 +6343,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
@@ -6354,7 +6354,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -6365,7 +6365,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
@@ -6376,7 +6376,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -6387,7 +6387,7 @@
         <v>33</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -562,27 +562,6 @@
     <t>Preauth visit does not exist</t>
   </si>
   <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician MSW3')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Ot3')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rd3')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rn3')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician ST3')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician chha3')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Pt3')]</t>
-  </si>
-  <si>
     <t>chha4</t>
   </si>
   <si>
@@ -602,6 +581,27 @@
   </si>
   <si>
     <t>rn4</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician chha4')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician MSW4')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Ot4')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Pt4')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rd4')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rn4')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician ST4')]</t>
   </si>
 </sst>
 </file>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B133" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1526,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
@@ -1960,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
@@ -2394,7 +2394,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G62" s="3">
         <v>3</v>
@@ -2828,7 +2828,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G81" s="3">
         <v>3</v>
@@ -3262,7 +3262,7 @@
         <v>8</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G100" s="3">
         <v>3</v>
@@ -3696,7 +3696,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G119" s="3">
         <v>3</v>
@@ -4130,7 +4130,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G138" s="3">
         <v>3</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="B141" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>33</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>33</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>33</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>33</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>33</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>33</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>33</v>
@@ -5850,8 +5850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>71</v>
@@ -6009,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>160</v>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>177</v>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>178</v>
@@ -6095,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>178</v>
@@ -6115,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>178</v>
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>178</v>
@@ -6143,6 +6143,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -960,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView topLeftCell="B136" workbookViewId="0">
+    <sheetView topLeftCell="B64" workbookViewId="0">
       <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
@@ -5851,7 +5851,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>71</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190" activeTab="3"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -562,27 +562,6 @@
     <t>Preauth visit does not exist</t>
   </si>
   <si>
-    <t>chha4</t>
-  </si>
-  <si>
-    <t>msw4</t>
-  </si>
-  <si>
-    <t>ot4</t>
-  </si>
-  <si>
-    <t>pt4</t>
-  </si>
-  <si>
-    <t>rd4</t>
-  </si>
-  <si>
-    <t>st4</t>
-  </si>
-  <si>
-    <t>rn4</t>
-  </si>
-  <si>
     <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician chha4')]</t>
   </si>
   <si>
@@ -602,13 +581,34 @@
   </si>
   <si>
     <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician ST4')]</t>
+  </si>
+  <si>
+    <t>chioma.okpara@cvhcare.com</t>
+  </si>
+  <si>
+    <t>alia.dolan@cvhcare.com</t>
+  </si>
+  <si>
+    <t>alison.burton@cvhcare.com</t>
+  </si>
+  <si>
+    <t>amanda.walters@cvhcare.com</t>
+  </si>
+  <si>
+    <t>aaron.gatuz@cvhcare.com</t>
+  </si>
+  <si>
+    <t>jamey.dixon@cvhcare.com</t>
+  </si>
+  <si>
+    <t>elsie.szeto@cvhcare.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +621,21 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -640,10 +655,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -664,8 +683,16 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -960,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1525,8 +1552,8 @@
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>180</v>
+      <c r="D24" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
@@ -1960,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
@@ -2393,8 +2420,8 @@
       <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>182</v>
+      <c r="D62" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="G62" s="3">
         <v>3</v>
@@ -2828,7 +2855,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G81" s="3">
         <v>3</v>
@@ -3261,8 +3288,8 @@
       <c r="C100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>184</v>
+      <c r="D100" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="G100" s="3">
         <v>3</v>
@@ -3696,7 +3723,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G119" s="3">
         <v>3</v>
@@ -4130,7 +4157,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G138" s="3">
         <v>3</v>
@@ -4187,7 +4214,7 @@
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="B141" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>33</v>
@@ -4198,7 +4225,7 @@
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>33</v>
@@ -4209,7 +4236,7 @@
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>33</v>
@@ -4220,7 +4247,7 @@
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>33</v>
@@ -4231,7 +4258,7 @@
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>33</v>
@@ -4242,7 +4269,7 @@
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>33</v>
@@ -4253,7 +4280,7 @@
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>33</v>
@@ -4263,8 +4290,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D62" r:id="rId1"/>
+    <hyperlink ref="D100" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4272,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -5850,8 +5881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
@@ -8305,7 +8336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -562,27 +562,6 @@
     <t>Preauth visit does not exist</t>
   </si>
   <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician chha4')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician MSW4')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Ot4')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician Pt4')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rd4')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician rn4')]</t>
-  </si>
-  <si>
-    <t>//td[@class="fc-event-container"]//span[contains(text(),'clinician ST4')]</t>
-  </si>
-  <si>
     <t>chioma.okpara@cvhcare.com</t>
   </si>
   <si>
@@ -602,6 +581,27 @@
   </si>
   <si>
     <t>elsie.szeto@cvhcare.com</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'Chioma Okpara')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'Alia Dolan')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'Amanda Walters')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'Aaron Gatuz')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'Elsie Szeto')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'Alison Burton')]</t>
+  </si>
+  <si>
+    <t>//td[@class="fc-event-container"]//span[contains(text(),'Jamey Dixon')]</t>
   </si>
 </sst>
 </file>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1553,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
@@ -1987,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
@@ -2421,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G62" s="3">
         <v>3</v>
@@ -2855,7 +2855,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G81" s="3">
         <v>3</v>
@@ -3289,7 +3289,7 @@
         <v>8</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G100" s="3">
         <v>3</v>
@@ -3723,7 +3723,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G119" s="3">
         <v>3</v>
@@ -4157,7 +4157,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G138" s="3">
         <v>3</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="B141" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>33</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>33</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>33</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>33</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>33</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>33</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>33</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="196">
   <si>
     <t>Name</t>
   </si>
@@ -493,12 +493,6 @@
     <t>//span[@ng-show="vm.episode.primaryClinicians[visitType.name].aggregateId" and contains(text(),"clinician pt3")]</t>
   </si>
   <si>
-    <t>//button[@aria-label="Operations"]</t>
-  </si>
-  <si>
-    <t>//button[@aria-label="Scheduling"]</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -508,9 +502,6 @@
     <t>Fail to View Scheduling</t>
   </si>
   <si>
-    <t>Fail to view operation</t>
-  </si>
-  <si>
     <t>Fail to locate visit</t>
   </si>
   <si>
@@ -547,9 +538,6 @@
     <t>Fail to add frequency</t>
   </si>
   <si>
-    <t>D:\SE\Documents\Desktop\test.png</t>
-  </si>
-  <si>
     <t>Fail to Sort Visit</t>
   </si>
   <si>
@@ -602,6 +590,24 @@
   </si>
   <si>
     <t>//td[@class="fc-event-container"]//span[contains(text(),'Jamey Dixon')]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Clinical Support"])[2]</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Fail to navigate to administration</t>
+  </si>
+  <si>
+    <t>fail to navigate to clinician support</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Administration"])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Scheduling"])[2]</t>
   </si>
 </sst>
 </file>
@@ -985,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1027,15 +1033,15 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1050,15 +1056,12 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1073,15 +1076,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1090,72 +1093,72 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="D6" s="7"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="50.25" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1166,69 +1169,69 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36.75" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>3</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" customFormat="1" ht="51" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" customFormat="1" ht="51" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>1</v>
       </c>
@@ -1239,15 +1242,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -1262,15 +1265,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -1282,18 +1285,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -1305,24 +1308,21 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1331,21 +1331,24 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1357,21 +1360,18 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1383,18 +1383,21 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1406,15 +1409,15 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -1429,80 +1432,80 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20"/>
-      <c r="J20" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="63" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21"/>
+      <c r="J21" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="63" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1513,18 +1516,18 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="36.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -1536,64 +1539,64 @@
         <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>180</v>
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1602,18 +1605,18 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -1625,18 +1628,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1648,18 +1651,18 @@
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -1671,18 +1674,18 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -1697,15 +1700,15 @@
         <v>2</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -1720,15 +1723,15 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -1740,24 +1743,21 @@
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -1766,21 +1766,24 @@
         <v>1</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -1792,21 +1795,18 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -1818,18 +1818,21 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -1841,15 +1844,15 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -1864,55 +1867,55 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -1927,15 +1930,15 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -1947,18 +1950,18 @@
         <v>1</v>
       </c>
       <c r="G41" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -1970,64 +1973,64 @@
         <v>1</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>181</v>
+        <v>7</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
       </c>
       <c r="G43" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -2036,18 +2039,18 @@
         <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -2059,18 +2062,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -2082,18 +2085,18 @@
         <v>1</v>
       </c>
       <c r="G47" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -2108,15 +2111,15 @@
         <v>2</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -2128,18 +2131,18 @@
         <v>1</v>
       </c>
       <c r="G49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -2151,18 +2154,18 @@
         <v>1</v>
       </c>
       <c r="G50" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -2177,21 +2180,18 @@
         <v>3</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -2200,21 +2200,24 @@
         <v>1</v>
       </c>
       <c r="G52" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -2226,21 +2229,18 @@
         <v>1</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -2252,18 +2252,21 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -2275,15 +2278,15 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -2298,55 +2301,55 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -2361,15 +2364,15 @@
         <v>1</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="36.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
@@ -2384,15 +2387,15 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="36.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -2407,61 +2410,61 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>183</v>
+        <v>7</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
       </c>
       <c r="G62" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="G63" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -2470,18 +2473,18 @@
         <v>1</v>
       </c>
       <c r="G64" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="36.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>7</v>
@@ -2493,18 +2496,18 @@
         <v>1</v>
       </c>
       <c r="G65" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -2516,18 +2519,18 @@
         <v>1</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="36.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>7</v>
@@ -2542,15 +2545,15 @@
         <v>1</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="36.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -2565,15 +2568,15 @@
         <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>7</v>
@@ -2585,18 +2588,18 @@
         <v>1</v>
       </c>
       <c r="G69" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -2608,24 +2611,21 @@
         <v>1</v>
       </c>
       <c r="G70" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="36.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -2634,21 +2634,24 @@
         <v>1</v>
       </c>
       <c r="G71" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="36.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -2660,21 +2663,18 @@
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="36.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -2686,18 +2686,21 @@
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="36.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -2709,15 +2712,15 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="36.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>7</v>
@@ -2732,55 +2735,55 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="36.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="36.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="36.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -2795,15 +2798,15 @@
         <v>1</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="36.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -2815,18 +2818,18 @@
         <v>1</v>
       </c>
       <c r="G79" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="36.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -2838,64 +2841,64 @@
         <v>1</v>
       </c>
       <c r="G80" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="36.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>184</v>
+        <v>7</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
       </c>
       <c r="G81" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="3">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="G82" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E83" s="3">
         <v>1</v>
@@ -2904,18 +2907,18 @@
         <v>1</v>
       </c>
       <c r="G83" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="36.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>7</v>
@@ -2927,18 +2930,18 @@
         <v>1</v>
       </c>
       <c r="G84" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -2950,18 +2953,18 @@
         <v>1</v>
       </c>
       <c r="G85" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -2976,15 +2979,15 @@
         <v>1</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>7</v>
@@ -2999,15 +3002,15 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -3022,15 +3025,15 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -3042,24 +3045,21 @@
         <v>1</v>
       </c>
       <c r="G89" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E90" s="3">
         <v>1</v>
@@ -3068,21 +3068,24 @@
         <v>1</v>
       </c>
       <c r="G90" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E91" s="3">
         <v>1</v>
@@ -3094,21 +3097,18 @@
         <v>1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="36.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E92" s="3">
         <v>1</v>
@@ -3120,18 +3120,21 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E93" s="3">
         <v>1</v>
@@ -3143,15 +3146,15 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>7</v>
@@ -3166,55 +3169,55 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="36.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="3">
-        <v>1</v>
-      </c>
-      <c r="F96" s="3">
-        <v>1</v>
-      </c>
-      <c r="G96" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="36.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>7</v>
@@ -3229,15 +3232,15 @@
         <v>1</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="36.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>7</v>
@@ -3252,15 +3255,15 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
@@ -3275,61 +3278,61 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>186</v>
+        <v>7</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="G101" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E102" s="3">
         <v>1</v>
@@ -3338,18 +3341,18 @@
         <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="36.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>7</v>
@@ -3361,18 +3364,18 @@
         <v>1</v>
       </c>
       <c r="G103" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -3387,15 +3390,15 @@
         <v>1</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="36.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -3410,15 +3413,15 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="36.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>7</v>
@@ -3433,15 +3436,15 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="36.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
@@ -3456,15 +3459,15 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="36.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>7</v>
@@ -3476,24 +3479,21 @@
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="36.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E109" s="3">
         <v>1</v>
@@ -3502,21 +3502,24 @@
         <v>1</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="36.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E110" s="3">
         <v>1</v>
@@ -3528,21 +3531,18 @@
         <v>1</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="36.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E111" s="3">
         <v>1</v>
@@ -3554,18 +3554,21 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="36.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E112" s="3">
         <v>1</v>
@@ -3577,15 +3580,15 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="36.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>7</v>
@@ -3600,55 +3603,55 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="36.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="36.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="3">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="36.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>7</v>
@@ -3663,15 +3666,15 @@
         <v>1</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="36.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>7</v>
@@ -3686,15 +3689,15 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="36.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>7</v>
@@ -3709,61 +3712,61 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="36.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>185</v>
+        <v>7</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
       </c>
       <c r="G119" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" s="3">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="G120" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
@@ -3772,18 +3775,18 @@
         <v>1</v>
       </c>
       <c r="G121" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="36.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>7</v>
@@ -3795,18 +3798,18 @@
         <v>1</v>
       </c>
       <c r="G122" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -3818,18 +3821,18 @@
         <v>1</v>
       </c>
       <c r="G123" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="36.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>7</v>
@@ -3844,15 +3847,15 @@
         <v>1</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="36.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>7</v>
@@ -3867,15 +3870,15 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="36.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>7</v>
@@ -3887,18 +3890,18 @@
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="36.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -3910,24 +3913,21 @@
         <v>1</v>
       </c>
       <c r="G127" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="36.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E128" s="3">
         <v>1</v>
@@ -3936,21 +3936,24 @@
         <v>1</v>
       </c>
       <c r="G128" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="36.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
@@ -3962,21 +3965,18 @@
         <v>1</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="36.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
@@ -3988,18 +3988,21 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="36.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
@@ -4011,15 +4014,15 @@
         <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="36.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>7</v>
@@ -4034,55 +4037,55 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="36.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="36.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="3">
-        <v>1</v>
-      </c>
-      <c r="F134" s="3">
-        <v>1</v>
-      </c>
-      <c r="G134" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="36.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>7</v>
@@ -4097,15 +4100,15 @@
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="36.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>7</v>
@@ -4120,15 +4123,15 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="36.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>7</v>
@@ -4143,156 +4146,179 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="36.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>182</v>
+        <v>7</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1</v>
       </c>
       <c r="G138" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E139" s="3">
-        <v>1</v>
-      </c>
-      <c r="F139" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="G139" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A141" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="3">
-        <v>1</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3">
+      <c r="C141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
         <v>10</v>
       </c>
-      <c r="J140" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="36.75" customHeight="1">
-      <c r="B141" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="J141" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="B142" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" ht="36.75" customHeight="1">
+      <c r="B148" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D62" r:id="rId1"/>
-    <hyperlink ref="D100" r:id="rId2"/>
+    <hyperlink ref="D63" r:id="rId1"/>
+    <hyperlink ref="D101" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4301,10 +4327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -4345,15 +4371,15 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -4368,15 +4394,12 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4391,15 +4414,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -4408,52 +4431,49 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>7</v>
+      </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="3">
         <v>1</v>
       </c>
@@ -4461,75 +4481,78 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="B9" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -4544,15 +4567,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -4567,15 +4590,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -4590,15 +4613,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -4613,36 +4636,39 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B15" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
@@ -4656,12 +4682,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -4676,12 +4702,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -4696,12 +4722,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -4716,12 +4742,12 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -4736,12 +4762,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4756,12 +4782,12 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -4776,12 +4802,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -4796,12 +4822,12 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -4816,12 +4842,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -4836,12 +4862,12 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -4856,12 +4882,12 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -4876,12 +4902,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -4896,12 +4922,12 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -4916,12 +4942,12 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -4936,12 +4962,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -4956,12 +4982,12 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
       <c r="B31" s="3" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -4976,334 +5002,333 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
       <c r="B32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B33" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B36" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B40" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B41" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B42" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B43" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B44" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B45" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B46" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B47" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B48" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
@@ -5316,24 +5341,45 @@
       <c r="G48" s="3">
         <v>1</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
       <c r="J48" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5344,15 +5390,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="24.42578125" style="3"/>
+    <col min="1" max="1" width="24.42578125" style="3"/>
+    <col min="2" max="2" width="57.140625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="24.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75" customHeight="1">
@@ -5384,64 +5432,73 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="B3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="B4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60">
-      <c r="B4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60">
@@ -5449,50 +5506,50 @@
         <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
+        <v>110</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60">
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45">
-      <c r="B6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45">
+      <c r="B7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60">
-      <c r="B7" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -5500,50 +5557,50 @@
         <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
+        <v>110</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60">
+      <c r="B9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45">
-      <c r="B9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45">
+      <c r="B10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60">
-      <c r="B10" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
@@ -5551,101 +5608,101 @@
         <v>114</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
+        <v>110</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60">
+      <c r="B12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="45">
-      <c r="B12" s="3" t="s">
+      <c r="J12" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45">
+      <c r="B13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="60">
-      <c r="B13" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60">
+      <c r="B15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
         <v>5</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45">
-      <c r="B15" s="3" t="s">
+      <c r="J15" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="B16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="60">
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="60">
@@ -5653,50 +5710,50 @@
         <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
+        <v>110</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="60">
+      <c r="B18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="45">
-      <c r="B18" s="3" t="s">
+      <c r="J18" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="45">
+      <c r="B19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="60">
-      <c r="B19" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="60">
@@ -5704,50 +5761,50 @@
         <v>117</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
+        <v>110</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="60">
+      <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>5</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="45">
-      <c r="B21" s="3" t="s">
+      <c r="J21" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="45">
+      <c r="B22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="60">
-      <c r="B22" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="60">
@@ -5755,50 +5812,50 @@
         <v>118</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
+        <v>110</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="60">
+      <c r="B24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
         <v>5</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="45">
-      <c r="B24" s="3" t="s">
+      <c r="J24" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="45">
+      <c r="B25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="60">
-      <c r="B25" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="60">
@@ -5806,50 +5863,50 @@
         <v>119</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
+        <v>110</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="60">
+      <c r="B27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
         <v>5</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="45">
-      <c r="B27" s="3" t="s">
+      <c r="J27" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="45">
+      <c r="B28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="60">
-      <c r="B28" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="60">
@@ -5857,19 +5914,30 @@
         <v>120</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
+        <v>110</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="60">
+      <c r="B30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
         <v>5</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>176</v>
+      <c r="J30" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5879,10 +5947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
@@ -5927,174 +5995,174 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="5" spans="1:10" ht="45">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60">
+      <c r="B7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
+      <c r="A8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60">
-      <c r="B6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="A7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="60">
-      <c r="A8" s="3" t="s">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60">
+      <c r="A9" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30">
-      <c r="B9" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -6109,18 +6177,18 @@
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="B10" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>126</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -6129,18 +6197,18 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -6149,12 +6217,12 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60">
       <c r="B12" s="3" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -6169,7 +6237,27 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="B13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6180,10 +6268,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -6223,15 +6311,15 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6243,183 +6331,203 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60">
-      <c r="A6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60">
-      <c r="B7" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60">
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60">
+      <c r="B14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6431,8 +6539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63" defaultRowHeight="29.25" customHeight="1"/>
@@ -8337,7 +8445,7 @@
   <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="5"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="CheckPreAuth" sheetId="5" r:id="rId5"/>
     <sheet name="backup" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="AddSched" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="209">
   <si>
     <t>Name</t>
   </si>
@@ -608,6 +609,45 @@
   </si>
   <si>
     <t>(//button[@aria-label="Scheduling"])[2]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Add_EVENT"]</t>
+  </si>
+  <si>
+    <t>//div[@class="md-dialog-container ng-scope"]//md-dialog</t>
+  </si>
+  <si>
+    <t>(//div[@class="md-dialog-container ng-scope"]//md-dialog//md-select)[1]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container calendar-color-select md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
+  </si>
+  <si>
+    <t>(//div[@class="md-dialog-container ng-scope"]//md-dialog//md-select)[2]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container calendar-color-select md-cs-content-theme-theme _md-active _md-clickable"]//md-option[3]</t>
+  </si>
+  <si>
+    <t>(//div[@class="md-dialog-container ng-scope"]//md-dialog//md-select)[3]</t>
+  </si>
+  <si>
+    <t>//div[@class="md-dialog-container ng-scope"]//input[@class="md-datepicker-input"]</t>
+  </si>
+  <si>
+    <t>(//div[@class="md-dialog-container ng-scope"]//md-dialog//md-select)[4]</t>
+  </si>
+  <si>
+    <t>(//div[@id="fullCalendar"]//span[contains(text(),"MSW")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"])[2]</t>
+  </si>
+  <si>
+    <t>//button[@translate="Add"]</t>
+  </si>
+  <si>
+    <t>//button[@translate="Delete"]</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -668,7 +708,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -695,6 +735,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -993,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -5501,7 +5547,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="60">
+    <row r="5" spans="1:10" ht="30">
       <c r="B5" s="3" t="s">
         <v>109</v>
       </c>
@@ -5512,7 +5558,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60">
+    <row r="6" spans="1:10" ht="30">
       <c r="B6" s="3" t="s">
         <v>109</v>
       </c>
@@ -5532,7 +5578,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45">
+    <row r="7" spans="1:10" ht="30">
       <c r="B7" s="3" t="s">
         <v>111</v>
       </c>
@@ -5552,7 +5598,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="60">
+    <row r="8" spans="1:10" ht="30">
       <c r="B8" s="3" t="s">
         <v>112</v>
       </c>
@@ -5563,7 +5609,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="60">
+    <row r="9" spans="1:10" ht="30">
       <c r="B9" s="3" t="s">
         <v>112</v>
       </c>
@@ -5583,7 +5629,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45">
+    <row r="10" spans="1:10">
       <c r="B10" s="3" t="s">
         <v>113</v>
       </c>
@@ -5603,7 +5649,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60">
+    <row r="11" spans="1:10" ht="30">
       <c r="B11" s="3" t="s">
         <v>114</v>
       </c>
@@ -5614,7 +5660,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60">
+    <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
         <v>114</v>
       </c>
@@ -5634,7 +5680,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45">
+    <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
         <v>113</v>
       </c>
@@ -5654,7 +5700,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="60">
+    <row r="14" spans="1:10" ht="30">
       <c r="B14" s="3" t="s">
         <v>114</v>
       </c>
@@ -5665,7 +5711,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="60">
+    <row r="15" spans="1:10" ht="30">
       <c r="B15" s="3" t="s">
         <v>115</v>
       </c>
@@ -5685,7 +5731,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45">
+    <row r="16" spans="1:10">
       <c r="B16" s="3" t="s">
         <v>113</v>
       </c>
@@ -5705,7 +5751,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="60">
+    <row r="17" spans="2:10" ht="30">
       <c r="B17" s="3" t="s">
         <v>116</v>
       </c>
@@ -5716,7 +5762,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="60">
+    <row r="18" spans="2:10" ht="30">
       <c r="B18" s="3" t="s">
         <v>116</v>
       </c>
@@ -5736,7 +5782,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="45">
+    <row r="19" spans="2:10">
       <c r="B19" s="3" t="s">
         <v>113</v>
       </c>
@@ -5756,7 +5802,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="60">
+    <row r="20" spans="2:10" ht="30">
       <c r="B20" s="3" t="s">
         <v>117</v>
       </c>
@@ -5767,7 +5813,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="60">
+    <row r="21" spans="2:10" ht="30">
       <c r="B21" s="3" t="s">
         <v>117</v>
       </c>
@@ -5787,7 +5833,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="45">
+    <row r="22" spans="2:10">
       <c r="B22" s="3" t="s">
         <v>113</v>
       </c>
@@ -5807,7 +5853,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="60">
+    <row r="23" spans="2:10" ht="30">
       <c r="B23" s="3" t="s">
         <v>118</v>
       </c>
@@ -5818,7 +5864,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="60">
+    <row r="24" spans="2:10" ht="30">
       <c r="B24" s="3" t="s">
         <v>118</v>
       </c>
@@ -5838,7 +5884,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="45">
+    <row r="25" spans="2:10">
       <c r="B25" s="3" t="s">
         <v>113</v>
       </c>
@@ -5858,7 +5904,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="60">
+    <row r="26" spans="2:10" ht="30">
       <c r="B26" s="3" t="s">
         <v>119</v>
       </c>
@@ -5869,7 +5915,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="60">
+    <row r="27" spans="2:10" ht="30">
       <c r="B27" s="3" t="s">
         <v>119</v>
       </c>
@@ -5889,7 +5935,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="45">
+    <row r="28" spans="2:10">
       <c r="B28" s="3" t="s">
         <v>113</v>
       </c>
@@ -5909,7 +5955,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="60">
+    <row r="29" spans="2:10" ht="30">
       <c r="B29" s="3" t="s">
         <v>120</v>
       </c>
@@ -5920,7 +5966,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="60">
+    <row r="30" spans="2:10" ht="30">
       <c r="B30" s="3" t="s">
         <v>120</v>
       </c>
@@ -6539,7 +6585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -8591,4 +8637,438 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="3"/>
+    <col min="2" max="2" width="69.85546875" style="3" customWidth="1"/>
+    <col min="3" max="9" width="16.7109375" style="3"/>
+    <col min="10" max="10" width="47.5703125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="16.7109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
+      <c r="B14" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18" customHeight="1">
+      <c r="B20" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="18" customHeight="1">
+      <c r="B21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="7"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="210">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/div[1]/div[2]/div/md-menu/button</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
     <t>scheduling</t>
   </si>
   <si>
@@ -593,9 +590,6 @@
     <t>//td[@class="fc-event-container"]//span[contains(text(),'Jamey Dixon')]</t>
   </si>
   <si>
-    <t>(//button[@aria-label="Clinical Support"])[2]</t>
-  </si>
-  <si>
     <t>Administration</t>
   </si>
   <si>
@@ -605,12 +599,6 @@
     <t>fail to navigate to clinician support</t>
   </si>
   <si>
-    <t>(//button[@aria-label="Administration"])[2]</t>
-  </si>
-  <si>
-    <t>(//button[@aria-label="Scheduling"])[2]</t>
-  </si>
-  <si>
     <t>//button[@aria-label="Add_EVENT"]</t>
   </si>
   <si>
@@ -648,6 +636,21 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>//*[@id="compliance-tabs"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[2]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Administration" and @ng-click="vm.go(entry.state)"]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Clinical Support" and @ng-click="vm.go(entry.state)"])</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Scheduling" and @ng-click="vm.go(entry.state)"])</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list-item/div/button</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1073,21 +1076,21 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1099,15 +1102,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1119,18 +1122,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1142,18 +1145,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -1162,10 +1162,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>158</v>
@@ -1173,60 +1173,60 @@
     </row>
     <row r="6" spans="1:10" ht="36.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="D7" s="7"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
+      <c r="H7" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="36.75" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1238,18 +1238,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -1261,65 +1261,65 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
         <v>3</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J10" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" customFormat="1" ht="51" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" customFormat="1" ht="51" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -1334,15 +1334,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -1354,18 +1354,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -1377,24 +1377,21 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1403,21 +1400,24 @@
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1429,21 +1429,18 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1455,19 +1452,22 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
@@ -1478,15 +1478,15 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -1506,97 +1506,97 @@
     </row>
     <row r="20" spans="1:10" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36.75" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22"/>
+      <c r="J22" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="63" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21"/>
-      <c r="J21" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="63" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -1608,64 +1608,64 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>176</v>
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1674,18 +1674,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1697,18 +1697,18 @@
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -1720,18 +1720,18 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -1743,18 +1743,18 @@
         <v>1</v>
       </c>
       <c r="G30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -1769,15 +1769,15 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -1792,15 +1792,15 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -1812,24 +1812,21 @@
         <v>1</v>
       </c>
       <c r="G33" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -1838,21 +1835,24 @@
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -1864,21 +1864,18 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -1890,19 +1887,22 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.75" customHeight="1">
       <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
@@ -1913,15 +1913,15 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -1941,50 +1941,50 @@
     </row>
     <row r="39" spans="1:10" ht="36.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -1999,15 +1999,15 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -2019,18 +2019,18 @@
         <v>1</v>
       </c>
       <c r="G42" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -2042,64 +2042,64 @@
         <v>1</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>177</v>
+        <v>7</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
       </c>
       <c r="G44" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G45" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -2108,18 +2108,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -2131,18 +2131,18 @@
         <v>1</v>
       </c>
       <c r="G47" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -2154,18 +2154,18 @@
         <v>1</v>
       </c>
       <c r="G48" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -2180,15 +2180,15 @@
         <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -2200,18 +2200,18 @@
         <v>1</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -2223,18 +2223,18 @@
         <v>1</v>
       </c>
       <c r="G51" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -2249,21 +2249,18 @@
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -2272,21 +2269,24 @@
         <v>1</v>
       </c>
       <c r="G53" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -2298,21 +2298,18 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -2324,19 +2321,22 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36.75" customHeight="1">
       <c r="A56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" s="3">
         <v>1</v>
       </c>
@@ -2347,15 +2347,15 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>7</v>
@@ -2375,50 +2375,50 @@
     </row>
     <row r="58" spans="1:10" ht="36.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="36.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
@@ -2433,15 +2433,15 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="36.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -2456,15 +2456,15 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
@@ -2479,61 +2479,61 @@
         <v>1</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>179</v>
+        <v>7</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
       </c>
       <c r="G63" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="36.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -2542,18 +2542,18 @@
         <v>1</v>
       </c>
       <c r="G65" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -2565,18 +2565,18 @@
         <v>1</v>
       </c>
       <c r="G66" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="36.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>7</v>
@@ -2588,18 +2588,18 @@
         <v>1</v>
       </c>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="36.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -2614,15 +2614,15 @@
         <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>7</v>
@@ -2637,15 +2637,15 @@
         <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -2657,18 +2657,18 @@
         <v>1</v>
       </c>
       <c r="G70" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="36.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
@@ -2680,24 +2680,21 @@
         <v>1</v>
       </c>
       <c r="G71" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="36.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -2706,21 +2703,24 @@
         <v>1</v>
       </c>
       <c r="G72" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="36.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -2732,21 +2732,18 @@
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="36.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -2758,19 +2755,22 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="36.75" customHeight="1">
       <c r="A75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E75" s="3">
         <v>1</v>
       </c>
@@ -2781,15 +2781,15 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="36.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -2809,50 +2809,50 @@
     </row>
     <row r="77" spans="1:10" ht="36.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="36.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="36.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -2867,15 +2867,15 @@
         <v>1</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="36.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -2887,18 +2887,18 @@
         <v>1</v>
       </c>
       <c r="G80" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="36.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -2910,64 +2910,64 @@
         <v>1</v>
       </c>
       <c r="G81" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>180</v>
+        <v>7</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="G83" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="36.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
@@ -2976,18 +2976,18 @@
         <v>1</v>
       </c>
       <c r="G84" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -2999,18 +2999,18 @@
         <v>1</v>
       </c>
       <c r="G85" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -3022,18 +3022,18 @@
         <v>1</v>
       </c>
       <c r="G86" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>7</v>
@@ -3048,15 +3048,15 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -3071,15 +3071,15 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -3094,15 +3094,15 @@
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>7</v>
@@ -3114,24 +3114,21 @@
         <v>1</v>
       </c>
       <c r="G90" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E91" s="3">
         <v>1</v>
@@ -3140,21 +3137,24 @@
         <v>1</v>
       </c>
       <c r="G91" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="36.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E92" s="3">
         <v>1</v>
@@ -3166,21 +3166,18 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E93" s="3">
         <v>1</v>
@@ -3192,19 +3189,22 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.75" customHeight="1">
       <c r="A94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E94" s="3">
         <v>1</v>
       </c>
@@ -3215,15 +3215,15 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>7</v>
@@ -3243,50 +3243,50 @@
     </row>
     <row r="96" spans="1:10" ht="36.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="36.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="3">
-        <v>1</v>
-      </c>
-      <c r="F97" s="3">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="36.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>7</v>
@@ -3301,15 +3301,15 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
@@ -3324,15 +3324,15 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -3347,61 +3347,61 @@
         <v>1</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>182</v>
+        <v>7</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
       </c>
       <c r="G101" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="G102" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="36.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E103" s="3">
         <v>1</v>
@@ -3410,18 +3410,18 @@
         <v>1</v>
       </c>
       <c r="G103" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -3433,18 +3433,18 @@
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="36.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -3459,15 +3459,15 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="36.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>7</v>
@@ -3482,15 +3482,15 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="36.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
@@ -3505,15 +3505,15 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="36.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>7</v>
@@ -3528,15 +3528,15 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="36.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>7</v>
@@ -3548,24 +3548,21 @@
         <v>1</v>
       </c>
       <c r="G109" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="36.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E110" s="3">
         <v>1</v>
@@ -3574,21 +3571,24 @@
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="36.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E111" s="3">
         <v>1</v>
@@ -3600,21 +3600,18 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="36.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E112" s="3">
         <v>1</v>
@@ -3626,19 +3623,22 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="36.75" customHeight="1">
       <c r="A113" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E113" s="3">
         <v>1</v>
       </c>
@@ -3649,15 +3649,15 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="36.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>7</v>
@@ -3677,50 +3677,50 @@
     </row>
     <row r="115" spans="1:10" ht="36.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="36.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="3">
-        <v>1</v>
-      </c>
-      <c r="F116" s="3">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="36.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>7</v>
@@ -3735,15 +3735,15 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="36.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>7</v>
@@ -3758,15 +3758,15 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="36.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>7</v>
@@ -3781,61 +3781,61 @@
         <v>1</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>181</v>
+        <v>7</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
       </c>
       <c r="G120" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E121" s="3">
-        <v>1</v>
-      </c>
-      <c r="F121" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="G121" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="36.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
@@ -3844,18 +3844,18 @@
         <v>1</v>
       </c>
       <c r="G122" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -3867,18 +3867,18 @@
         <v>1</v>
       </c>
       <c r="G123" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="36.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>7</v>
@@ -3890,18 +3890,18 @@
         <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="36.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>7</v>
@@ -3916,15 +3916,15 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="36.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>7</v>
@@ -3939,15 +3939,15 @@
         <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="36.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -3959,18 +3959,18 @@
         <v>1</v>
       </c>
       <c r="G127" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="36.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>7</v>
@@ -3982,24 +3982,21 @@
         <v>1</v>
       </c>
       <c r="G128" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="36.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
@@ -4008,21 +4005,24 @@
         <v>1</v>
       </c>
       <c r="G129" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="36.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
@@ -4034,21 +4034,18 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="36.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
@@ -4060,19 +4057,22 @@
         <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="36.75" customHeight="1">
       <c r="A132" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E132" s="3">
         <v>1</v>
       </c>
@@ -4083,15 +4083,15 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="36.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>7</v>
@@ -4111,50 +4111,50 @@
     </row>
     <row r="134" spans="1:10" ht="36.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="36.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="3">
-        <v>1</v>
-      </c>
-      <c r="F135" s="3">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="36.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>7</v>
@@ -4169,15 +4169,15 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="36.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>7</v>
@@ -4192,15 +4192,15 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="36.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>7</v>
@@ -4215,156 +4215,179 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>178</v>
+        <v>7</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1</v>
       </c>
       <c r="G139" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E140" s="3">
-        <v>1</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="G140" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>1</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A142" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="3">
-        <v>1</v>
-      </c>
-      <c r="F141" s="3">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
+      <c r="B142" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
         <v>10</v>
       </c>
-      <c r="J141" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="36.75" customHeight="1">
-      <c r="B142" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="J142" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="2:10" ht="36.75" customHeight="1">
       <c r="B148" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" ht="36.75" customHeight="1">
+      <c r="B149" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D63" r:id="rId1"/>
-    <hyperlink ref="D101" r:id="rId2"/>
+    <hyperlink ref="D64" r:id="rId1"/>
+    <hyperlink ref="D102" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4373,10 +4396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -4411,64 +4434,64 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36.75" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1">
+    </row>
+    <row r="4" spans="1:10" ht="36.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -4480,18 +4503,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -4500,10 +4520,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>158</v>
@@ -4511,41 +4531,38 @@
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>7</v>
+      </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="3">
         <v>1</v>
       </c>
@@ -4553,75 +4570,78 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>3</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -4636,15 +4656,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -4659,15 +4679,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -4682,15 +4702,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -4705,15 +4725,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -4728,12 +4748,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -4748,12 +4771,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -4768,12 +4791,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -4788,12 +4811,12 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -4808,12 +4831,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4828,12 +4851,12 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -4848,12 +4871,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -4868,12 +4891,12 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -4888,12 +4911,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -4908,12 +4931,12 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -4928,12 +4951,12 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -4948,12 +4971,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -4968,12 +4991,12 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -4988,12 +5011,12 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -5008,12 +5031,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -5028,12 +5051,12 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
       <c r="B31" s="3" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -5048,12 +5071,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -5068,12 +5091,12 @@
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="17.25" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -5088,12 +5111,12 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="17.25" customHeight="1">
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -5108,12 +5131,12 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="17.25" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -5128,12 +5151,12 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="17.25" customHeight="1">
       <c r="B36" s="3" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -5148,12 +5171,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="17.25" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -5168,12 +5191,12 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="17.25" customHeight="1">
       <c r="B38" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -5188,12 +5211,12 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="17.25" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -5208,12 +5231,12 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="17.25" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -5228,12 +5251,12 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="17.25" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -5248,12 +5271,12 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="17.25" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -5268,12 +5291,12 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="17.25" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -5288,12 +5311,12 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="17.25" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -5308,12 +5331,12 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="17.25" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -5328,12 +5351,12 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="17.25" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -5348,12 +5371,12 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="17.25" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -5368,12 +5391,12 @@
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="17.25" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -5388,12 +5411,11 @@
         <v>1</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -5408,24 +5430,45 @@
       <c r="G49" s="3">
         <v>1</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
       <c r="J49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5436,10 +5479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15"/>
@@ -5472,64 +5515,64 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36.75" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:10" ht="36.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -5541,46 +5584,46 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="B6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -5592,95 +5635,95 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="B9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="B10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
-      <c r="B11" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
       <c r="B13" s="3" t="s">
         <v>113</v>
       </c>
@@ -5694,296 +5737,316 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="B15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
+        <v>109</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="B16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="30">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="30">
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
+        <v>109</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="30">
+      <c r="B19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
         <v>5</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="30">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="30">
       <c r="B21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
+        <v>109</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="30">
+      <c r="B22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
         <v>5</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="30">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="30">
       <c r="B24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
+        <v>109</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="30">
+      <c r="B25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
         <v>5</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="30">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="30">
       <c r="B27" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
+        <v>109</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="30">
+      <c r="B28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
         <v>5</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="30">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="30">
       <c r="B30" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
+        <v>109</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="30">
+      <c r="B31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
         <v>5</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>172</v>
+      <c r="J31" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5993,10 +6056,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
@@ -6035,64 +6098,64 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36.75" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:10" ht="36.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6104,18 +6167,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6124,111 +6184,114 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="45">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="D7" s="4"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60">
-      <c r="B7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60">
+      <c r="B8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60">
+      <c r="A10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60">
-      <c r="A9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30">
-      <c r="B10" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -6243,18 +6306,18 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>126</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -6263,18 +6326,18 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -6283,12 +6346,12 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60">
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -6303,7 +6366,27 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
+      <c r="B14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6314,10 +6397,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -6351,21 +6434,21 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6380,12 +6463,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6400,15 +6483,15 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6423,15 +6506,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6440,140 +6520,163 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="60">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="D7" s="4"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
+      <c r="H7" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="60">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60">
       <c r="B9" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60">
+      <c r="B15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6593,10 +6696,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
@@ -6614,10 +6717,10 @@
     </row>
     <row r="2" spans="1:7" ht="29.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6635,10 +6738,10 @@
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6656,10 +6759,10 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6677,10 +6780,10 @@
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6698,10 +6801,10 @@
     </row>
     <row r="6" spans="1:7" ht="29.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6719,16 +6822,16 @@
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -6742,10 +6845,10 @@
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6763,16 +6866,16 @@
     </row>
     <row r="9" spans="1:7" ht="29.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -6786,10 +6889,10 @@
     </row>
     <row r="10" spans="1:7" ht="29.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -6807,10 +6910,10 @@
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -6828,16 +6931,16 @@
     </row>
     <row r="12" spans="1:7" ht="29.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6845,10 +6948,10 @@
     </row>
     <row r="13" spans="1:7" ht="29.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -6866,10 +6969,10 @@
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -6887,10 +6990,10 @@
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -6908,10 +7011,10 @@
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -6929,10 +7032,10 @@
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -6950,10 +7053,10 @@
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -6971,10 +7074,10 @@
     </row>
     <row r="19" spans="1:7" ht="29.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -6992,10 +7095,10 @@
     </row>
     <row r="20" spans="1:7" ht="29.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -7013,10 +7116,10 @@
     </row>
     <row r="21" spans="1:7" ht="29.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -7034,16 +7137,16 @@
     </row>
     <row r="22" spans="1:7" ht="29.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -7057,10 +7160,10 @@
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -7078,16 +7181,16 @@
     </row>
     <row r="24" spans="1:7" ht="29.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -7101,10 +7204,10 @@
     </row>
     <row r="25" spans="1:7" ht="29.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -7122,10 +7225,10 @@
     </row>
     <row r="26" spans="1:7" ht="29.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -7143,16 +7246,16 @@
     </row>
     <row r="27" spans="1:7" ht="29.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -7160,10 +7263,10 @@
     </row>
     <row r="28" spans="1:7" ht="29.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -7181,10 +7284,10 @@
     </row>
     <row r="29" spans="1:7" ht="29.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -7202,10 +7305,10 @@
     </row>
     <row r="30" spans="1:7" ht="29.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -7223,10 +7326,10 @@
     </row>
     <row r="31" spans="1:7" ht="29.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -7244,10 +7347,10 @@
     </row>
     <row r="32" spans="1:7" ht="29.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -7265,10 +7368,10 @@
     </row>
     <row r="33" spans="1:7" ht="29.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -7286,10 +7389,10 @@
     </row>
     <row r="34" spans="1:7" ht="29.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -7307,10 +7410,10 @@
     </row>
     <row r="35" spans="1:7" ht="29.25" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -7328,10 +7431,10 @@
     </row>
     <row r="36" spans="1:7" ht="29.25" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -7349,16 +7452,16 @@
     </row>
     <row r="37" spans="1:7" ht="29.25" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -7372,10 +7475,10 @@
     </row>
     <row r="38" spans="1:7" ht="29.25" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -7393,16 +7496,16 @@
     </row>
     <row r="39" spans="1:7" ht="29.25" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -7416,10 +7519,10 @@
     </row>
     <row r="40" spans="1:7" ht="29.25" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -7437,10 +7540,10 @@
     </row>
     <row r="41" spans="1:7" ht="29.25" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -7458,16 +7561,16 @@
     </row>
     <row r="42" spans="1:7" ht="29.25" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -7475,10 +7578,10 @@
     </row>
     <row r="43" spans="1:7" ht="29.25" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -7496,10 +7599,10 @@
     </row>
     <row r="44" spans="1:7" ht="29.25" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -7517,10 +7620,10 @@
     </row>
     <row r="45" spans="1:7" ht="29.25" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -7538,10 +7641,10 @@
     </row>
     <row r="46" spans="1:7" ht="29.25" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -7559,10 +7662,10 @@
     </row>
     <row r="47" spans="1:7" ht="29.25" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -7580,10 +7683,10 @@
     </row>
     <row r="48" spans="1:7" ht="29.25" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -7601,10 +7704,10 @@
     </row>
     <row r="49" spans="1:7" ht="29.25" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -7622,10 +7725,10 @@
     </row>
     <row r="50" spans="1:7" ht="29.25" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -7643,10 +7746,10 @@
     </row>
     <row r="51" spans="1:7" ht="29.25" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -7664,16 +7767,16 @@
     </row>
     <row r="52" spans="1:7" ht="29.25" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -7687,10 +7790,10 @@
     </row>
     <row r="53" spans="1:7" ht="29.25" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -7708,16 +7811,16 @@
     </row>
     <row r="54" spans="1:7" ht="29.25" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -7731,10 +7834,10 @@
     </row>
     <row r="55" spans="1:7" ht="29.25" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
@@ -7752,10 +7855,10 @@
     </row>
     <row r="56" spans="1:7" ht="29.25" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -7773,16 +7876,16 @@
     </row>
     <row r="57" spans="1:7" ht="29.25" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -7790,10 +7893,10 @@
     </row>
     <row r="58" spans="1:7" ht="29.25" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
@@ -7811,10 +7914,10 @@
     </row>
     <row r="59" spans="1:7" ht="29.25" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -7832,10 +7935,10 @@
     </row>
     <row r="60" spans="1:7" ht="29.25" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
@@ -7853,10 +7956,10 @@
     </row>
     <row r="61" spans="1:7" ht="29.25" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -7874,10 +7977,10 @@
     </row>
     <row r="62" spans="1:7" ht="29.25" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
@@ -7895,10 +7998,10 @@
     </row>
     <row r="63" spans="1:7" ht="29.25" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -7916,10 +8019,10 @@
     </row>
     <row r="64" spans="1:7" ht="29.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>7</v>
@@ -7937,10 +8040,10 @@
     </row>
     <row r="65" spans="1:7" ht="29.25" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>7</v>
@@ -7958,10 +8061,10 @@
     </row>
     <row r="66" spans="1:7" ht="29.25" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -7979,16 +8082,16 @@
     </row>
     <row r="67" spans="1:7" ht="29.25" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -8002,10 +8105,10 @@
     </row>
     <row r="68" spans="1:7" ht="29.25" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -8023,16 +8126,16 @@
     </row>
     <row r="69" spans="1:7" ht="29.25" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -8046,10 +8149,10 @@
     </row>
     <row r="70" spans="1:7" ht="29.25" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -8067,10 +8170,10 @@
     </row>
     <row r="71" spans="1:7" ht="29.25" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
@@ -8088,16 +8191,16 @@
     </row>
     <row r="72" spans="1:7" ht="29.25" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -8105,10 +8208,10 @@
     </row>
     <row r="73" spans="1:7" ht="29.25" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>7</v>
@@ -8126,10 +8229,10 @@
     </row>
     <row r="74" spans="1:7" ht="29.25" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
@@ -8147,10 +8250,10 @@
     </row>
     <row r="75" spans="1:7" ht="29.25" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>7</v>
@@ -8168,10 +8271,10 @@
     </row>
     <row r="76" spans="1:7" ht="29.25" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -8189,10 +8292,10 @@
     </row>
     <row r="77" spans="1:7" ht="29.25" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>7</v>
@@ -8210,10 +8313,10 @@
     </row>
     <row r="78" spans="1:7" ht="29.25" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -8231,10 +8334,10 @@
     </row>
     <row r="79" spans="1:7" ht="29.25" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -8252,10 +8355,10 @@
     </row>
     <row r="80" spans="1:7" ht="29.25" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -8273,10 +8376,10 @@
     </row>
     <row r="81" spans="1:7" ht="29.25" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -8294,16 +8397,16 @@
     </row>
     <row r="82" spans="1:7" ht="29.25" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -8317,10 +8420,10 @@
     </row>
     <row r="83" spans="1:7" ht="29.25" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>7</v>
@@ -8338,16 +8441,16 @@
     </row>
     <row r="84" spans="1:7" ht="29.25" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
@@ -8361,10 +8464,10 @@
     </row>
     <row r="85" spans="1:7" ht="29.25" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -8382,10 +8485,10 @@
     </row>
     <row r="86" spans="1:7" ht="29.25" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -8403,16 +8506,16 @@
     </row>
     <row r="87" spans="1:7" ht="29.25" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -8420,10 +8523,10 @@
     </row>
     <row r="88" spans="1:7" ht="29.25" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -8441,10 +8544,10 @@
     </row>
     <row r="89" spans="1:7" ht="29.25" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -8462,10 +8565,10 @@
     </row>
     <row r="90" spans="1:7" ht="29.25" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>7</v>
@@ -8498,10 +8601,10 @@
   <sheetData>
     <row r="2" spans="1:8" ht="210">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -8523,7 +8626,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -8542,16 +8645,16 @@
     </row>
     <row r="4" spans="1:8" ht="135">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -8562,13 +8665,13 @@
     </row>
     <row r="5" spans="1:8" ht="180">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -8584,10 +8687,10 @@
     </row>
     <row r="6" spans="1:8" ht="150">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -8606,13 +8709,13 @@
     </row>
     <row r="7" spans="1:8" ht="75">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -8628,10 +8731,10 @@
     </row>
     <row r="8" spans="1:8" ht="225">
       <c r="B8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8744,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -8679,21 +8782,21 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -8705,15 +8808,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -8725,18 +8828,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -8748,18 +8851,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -8768,7 +8868,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -8779,58 +8879,61 @@
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="B8" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
@@ -8838,18 +8941,21 @@
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -8863,10 +8969,10 @@
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -8880,7 +8986,7 @@
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -8897,7 +9003,7 @@
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -8914,7 +9020,7 @@
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -8930,11 +9036,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="B14" s="12" t="s">
-        <v>203</v>
+      <c r="B14" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -8945,16 +9051,13 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="B15" s="3" t="s">
-        <v>202</v>
+      <c r="B15" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -8965,10 +9068,13 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -8985,7 +9091,7 @@
     </row>
     <row r="17" spans="2:7" ht="18" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -9002,7 +9108,7 @@
     </row>
     <row r="18" spans="2:7" ht="18" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -9019,7 +9125,7 @@
     </row>
     <row r="19" spans="2:7" ht="18" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -9031,12 +9137,12 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="18" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -9048,12 +9154,12 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="18" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -9065,6 +9171,23 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>6</v>
       </c>
     </row>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="4"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -383,9 +383,6 @@
     <t>//*[contains(@class, 'highcharts-series-group')]//*[contains(@class, 'highcharts-point')][9]</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list/md-list-item/div/div[1]/div/div[2]/button[1]</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -651,6 +648,9 @@
   </si>
   <si>
     <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list-item/div/button</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list-item[1]/div/div[1]/div/div[2]/button[1]</t>
   </si>
 </sst>
 </file>
@@ -1082,15 +1082,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1105,12 +1105,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -1133,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1148,12 +1148,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="36.75" customHeight="1">
@@ -1191,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1">
@@ -1218,7 +1218,7 @@
         <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50.25" customHeight="1">
@@ -1226,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.75" customHeight="1">
@@ -1264,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36.75" customHeight="1">
@@ -1287,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:10" customFormat="1" ht="51" customHeight="1">
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1">
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
@@ -1380,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1">
@@ -1403,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36.75" customHeight="1">
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36.75" customHeight="1">
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36.75" customHeight="1">
@@ -1541,7 +1541,7 @@
         <v>51</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36.75" customHeight="1">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H22"/>
       <c r="J22" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="63" customHeight="1">
@@ -1588,15 +1588,15 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -1611,15 +1611,15 @@
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -1634,35 +1634,35 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" s="3">
         <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>34</v>
@@ -1677,15 +1677,15 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1700,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36.75" customHeight="1">
@@ -1723,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36.75" customHeight="1">
@@ -1746,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
@@ -1769,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36.75" customHeight="1">
@@ -1792,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36.75" customHeight="1">
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36.75" customHeight="1">
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36.75" customHeight="1">
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.75" customHeight="1">
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.75" customHeight="1">
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36.75" customHeight="1">
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.75" customHeight="1">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.75" customHeight="1">
@@ -1976,7 +1976,7 @@
         <v>51</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.75" customHeight="1">
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.75" customHeight="1">
@@ -2022,15 +2022,15 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -2045,15 +2045,15 @@
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -2068,35 +2068,35 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G45" s="3">
         <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>34</v>
@@ -2111,15 +2111,15 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -2134,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.75" customHeight="1">
@@ -2157,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.75" customHeight="1">
@@ -2180,7 +2180,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.75" customHeight="1">
@@ -2203,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36.75" customHeight="1">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36.75" customHeight="1">
@@ -2249,7 +2249,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36.75" customHeight="1">
@@ -2272,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.75" customHeight="1">
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36.75" customHeight="1">
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36.75" customHeight="1">
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36.75" customHeight="1">
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36.75" customHeight="1">
@@ -2410,7 +2410,7 @@
         <v>51</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="36.75" customHeight="1">
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="36.75" customHeight="1">
@@ -2456,15 +2456,15 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
@@ -2479,15 +2479,15 @@
         <v>1</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -2502,35 +2502,35 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G64" s="3">
         <v>3</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="36.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>34</v>
@@ -2545,15 +2545,15 @@
         <v>1</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -2568,7 +2568,7 @@
         <v>10</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="36.75" customHeight="1">
@@ -2591,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="36.75" customHeight="1">
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1">
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="36.75" customHeight="1">
@@ -2683,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="36.75" customHeight="1">
@@ -2706,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="36.75" customHeight="1">
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="36.75" customHeight="1">
@@ -2755,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="36.75" customHeight="1">
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="36.75" customHeight="1">
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="36.75" customHeight="1">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="36.75" customHeight="1">
@@ -2844,7 +2844,7 @@
         <v>51</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="36.75" customHeight="1">
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="36.75" customHeight="1">
@@ -2890,15 +2890,15 @@
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="36.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -2913,15 +2913,15 @@
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>7</v>
@@ -2936,35 +2936,35 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G83" s="3">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="36.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>34</v>
@@ -2979,15 +2979,15 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -3002,7 +3002,7 @@
         <v>10</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1">
@@ -3025,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1">
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.75" customHeight="1">
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.75" customHeight="1">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.75" customHeight="1">
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.75" customHeight="1">
@@ -3140,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="36.75" customHeight="1">
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.75" customHeight="1">
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.75" customHeight="1">
@@ -3215,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.75" customHeight="1">
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="36.75" customHeight="1">
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="36.75" customHeight="1">
@@ -3278,7 +3278,7 @@
         <v>51</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="36.75" customHeight="1">
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.75" customHeight="1">
@@ -3324,15 +3324,15 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -3347,15 +3347,15 @@
         <v>1</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
@@ -3370,35 +3370,35 @@
         <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G102" s="3">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="36.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>34</v>
@@ -3413,15 +3413,15 @@
         <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -3436,7 +3436,7 @@
         <v>10</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="36.75" customHeight="1">
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="36.75" customHeight="1">
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="36.75" customHeight="1">
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="36.75" customHeight="1">
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="36.75" customHeight="1">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="36.75" customHeight="1">
@@ -3574,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="36.75" customHeight="1">
@@ -3600,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="36.75" customHeight="1">
@@ -3623,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="36.75" customHeight="1">
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="36.75" customHeight="1">
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="36.75" customHeight="1">
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="36.75" customHeight="1">
@@ -3712,7 +3712,7 @@
         <v>51</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="36.75" customHeight="1">
@@ -3735,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="36.75" customHeight="1">
@@ -3758,15 +3758,15 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="36.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>7</v>
@@ -3781,15 +3781,15 @@
         <v>1</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>7</v>
@@ -3804,35 +3804,35 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G121" s="3">
         <v>3</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="36.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>34</v>
@@ -3847,15 +3847,15 @@
         <v>1</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -3870,7 +3870,7 @@
         <v>10</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="36.75" customHeight="1">
@@ -3893,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="36.75" customHeight="1">
@@ -3916,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="36.75" customHeight="1">
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="36.75" customHeight="1">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="36.75" customHeight="1">
@@ -3985,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="36.75" customHeight="1">
@@ -4008,7 +4008,7 @@
         <v>3</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="36.75" customHeight="1">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="36.75" customHeight="1">
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="36.75" customHeight="1">
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="36.75" customHeight="1">
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="36.75" customHeight="1">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="36.75" customHeight="1">
@@ -4146,7 +4146,7 @@
         <v>51</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="36.75" customHeight="1">
@@ -4169,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="36.75" customHeight="1">
@@ -4192,15 +4192,15 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="36.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>7</v>
@@ -4215,15 +4215,15 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>7</v>
@@ -4238,35 +4238,35 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G140" s="3">
         <v>3</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>34</v>
@@ -4281,15 +4281,15 @@
         <v>1</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>7</v>
@@ -4304,84 +4304,84 @@
         <v>10</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="2:10" ht="36.75" customHeight="1">
       <c r="B148" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="2:10" ht="36.75" customHeight="1">
       <c r="B149" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4440,15 +4440,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -4463,12 +4463,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4483,7 +4483,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -4491,7 +4491,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -4506,12 +4506,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -4526,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
@@ -4576,7 +4576,7 @@
         <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
@@ -4584,7 +4584,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -4599,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
@@ -4633,7 +4633,7 @@
         <v>59</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
@@ -4664,7 +4664,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
@@ -4702,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
@@ -4771,12 +4771,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -4791,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
@@ -4851,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
@@ -4871,12 +4871,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
@@ -4931,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
@@ -4971,12 +4971,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
@@ -5071,12 +5071,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
       <c r="B32" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -5091,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="17.25" customHeight="1">
@@ -5111,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="17.25" customHeight="1">
@@ -5131,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="17.25" customHeight="1">
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="17.25" customHeight="1">
@@ -5171,12 +5171,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="17.25" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="17.25" customHeight="1">
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="17.25" customHeight="1">
@@ -5231,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="17.25" customHeight="1">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="17.25" customHeight="1">
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="17.25" customHeight="1">
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="17.25" customHeight="1">
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="17.25" customHeight="1">
@@ -5331,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="17.25" customHeight="1">
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="17.25" customHeight="1">
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="17.25" customHeight="1">
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="17.25" customHeight="1">
@@ -5411,12 +5411,12 @@
         <v>1</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -5431,13 +5431,13 @@
         <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -5454,13 +5454,13 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>59</v>
@@ -5468,7 +5468,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5521,15 +5521,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5544,12 +5544,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5564,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -5572,7 +5572,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -5587,12 +5587,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -5618,7 +5618,7 @@
         <v>109</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -5638,7 +5638,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
@@ -5669,7 +5669,7 @@
         <v>109</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
@@ -5689,7 +5689,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
@@ -5720,7 +5720,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
@@ -5740,7 +5740,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5760,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
@@ -5771,7 +5771,7 @@
         <v>109</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
@@ -5791,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -5811,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="30">
@@ -5822,7 +5822,7 @@
         <v>109</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30">
@@ -5842,7 +5842,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="30">
@@ -5873,7 +5873,7 @@
         <v>109</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30">
@@ -5893,7 +5893,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="30">
@@ -5924,7 +5924,7 @@
         <v>109</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="30">
@@ -5944,7 +5944,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -5964,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="30">
@@ -5975,7 +5975,7 @@
         <v>109</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="30">
@@ -5995,7 +5995,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -6015,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="30">
@@ -6026,7 +6026,7 @@
         <v>109</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="30">
@@ -6046,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6058,8 +6058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
@@ -6104,15 +6104,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6127,12 +6127,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6147,7 +6147,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -6155,7 +6155,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6170,12 +6170,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6190,7 +6190,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
@@ -6198,7 +6198,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6213,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6240,12 +6240,12 @@
         <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="60">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45">
       <c r="B8" s="3" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6260,15 +6260,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -6283,12 +6283,12 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -6306,12 +6306,12 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -6326,18 +6326,18 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -6346,7 +6346,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -6366,12 +6366,12 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -6386,7 +6386,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6399,7 +6399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -6440,15 +6440,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6463,12 +6463,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6483,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -6491,7 +6491,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6506,12 +6506,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6526,7 +6526,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6576,15 +6576,15 @@
         <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6599,84 +6599,84 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60">
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="B15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -8604,7 +8604,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -8654,7 +8654,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -8731,7 +8731,7 @@
     </row>
     <row r="8" spans="1:8" ht="225">
       <c r="B8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>32</v>
@@ -8788,15 +8788,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -8811,12 +8811,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -8831,7 +8831,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
@@ -8839,7 +8839,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -8854,12 +8854,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -8874,7 +8874,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
@@ -8897,7 +8897,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
@@ -8924,7 +8924,7 @@
         <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1">
@@ -8947,12 +8947,12 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>32</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -9054,7 +9054,7 @@
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -9069,12 +9069,12 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="17" spans="2:7" ht="18" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="18" spans="2:7" ht="18" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="19" spans="2:7" ht="18" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -9142,7 +9142,7 @@
     </row>
     <row r="20" spans="2:7" ht="18" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -9159,7 +9159,7 @@
     </row>
     <row r="21" spans="2:7" ht="18" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="22" spans="2:7" ht="18" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="3"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="211">
   <si>
     <t>Name</t>
   </si>
@@ -86,9 +86,6 @@
     <t>//input[@id="nameSeach"]</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list/md-list-item[1]/div/button</t>
-  </si>
-  <si>
     <t>//md-dialog-content//button[@ng-click="vm.filterShow = !vm.filterShow"]</t>
   </si>
   <si>
@@ -623,9 +620,6 @@
     <t>(//div[@class="md-dialog-container ng-scope"]//md-dialog//md-select)[4]</t>
   </si>
   <si>
-    <t>(//div[@id="fullCalendar"]//span[contains(text(),"MSW")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"])[2]</t>
-  </si>
-  <si>
     <t>//button[@translate="Add"]</t>
   </si>
   <si>
@@ -651,6 +645,15 @@
   </si>
   <si>
     <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list-item[1]/div/div[1]/div/div[2]/button[1]</t>
+  </si>
+  <si>
+    <t>(//div[@id="fullCalendar"]//span[contains(text(),"MSW")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"])[1]</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>(//div[@id="fullCalendar"]//span[contains(text(),"MSW")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"])</t>
   </si>
 </sst>
 </file>
@@ -1082,15 +1085,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1105,12 +1108,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1125,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -1133,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1148,12 +1151,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -1168,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="36.75" customHeight="1">
@@ -1191,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1">
@@ -1215,18 +1218,18 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1241,15 +1244,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -1264,15 +1267,15 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -1287,12 +1290,12 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:10" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>14</v>
@@ -1311,15 +1314,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -1334,15 +1337,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -1357,15 +1360,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -1380,15 +1383,15 @@
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -1403,12 +1406,12 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -1417,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1429,15 +1432,15 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -1452,12 +1455,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
@@ -1466,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1478,15 +1481,15 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -1501,15 +1504,15 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -1524,32 +1527,32 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -1565,15 +1568,15 @@
       </c>
       <c r="H22"/>
       <c r="J22" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="63" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -1588,15 +1591,15 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -1611,15 +1614,15 @@
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -1634,38 +1637,38 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G26" s="3">
         <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1677,15 +1680,15 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1700,15 +1703,15 @@
         <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -1723,12 +1726,12 @@
         <v>3</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>14</v>
@@ -1746,15 +1749,15 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -1769,15 +1772,15 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -1792,15 +1795,15 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -1815,15 +1818,15 @@
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -1838,12 +1841,12 @@
         <v>3</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>15</v>
@@ -1852,7 +1855,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -1864,15 +1867,15 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -1887,12 +1890,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>15</v>
@@ -1901,7 +1904,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -1913,15 +1916,15 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -1936,15 +1939,15 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -1959,32 +1962,32 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -1999,15 +2002,15 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -2022,15 +2025,15 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -2045,15 +2048,15 @@
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -2068,38 +2071,38 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G45" s="3">
         <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -2111,15 +2114,15 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -2134,15 +2137,15 @@
         <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -2157,12 +2160,12 @@
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>14</v>
@@ -2180,15 +2183,15 @@
         <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -2203,15 +2206,15 @@
         <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -2226,15 +2229,15 @@
         <v>1</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -2249,15 +2252,15 @@
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -2272,12 +2275,12 @@
         <v>3</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>15</v>
@@ -2286,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -2298,15 +2301,15 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
@@ -2321,12 +2324,12 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>15</v>
@@ -2335,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -2347,15 +2350,15 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>7</v>
@@ -2370,15 +2373,15 @@
         <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
@@ -2393,32 +2396,32 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="36.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
@@ -2433,15 +2436,15 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="36.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -2456,15 +2459,15 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
@@ -2479,15 +2482,15 @@
         <v>1</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -2502,38 +2505,38 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G64" s="3">
         <v>3</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="36.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -2545,15 +2548,15 @@
         <v>1</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -2568,15 +2571,15 @@
         <v>10</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="36.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>7</v>
@@ -2591,12 +2594,12 @@
         <v>3</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="36.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>14</v>
@@ -2614,15 +2617,15 @@
         <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>7</v>
@@ -2637,15 +2640,15 @@
         <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -2660,15 +2663,15 @@
         <v>1</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="36.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
@@ -2683,15 +2686,15 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="36.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>7</v>
@@ -2706,12 +2709,12 @@
         <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="36.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>15</v>
@@ -2720,7 +2723,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -2732,15 +2735,15 @@
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="36.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
@@ -2755,12 +2758,12 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="36.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>15</v>
@@ -2769,7 +2772,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E75" s="3">
         <v>1</v>
@@ -2781,15 +2784,15 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="36.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -2804,15 +2807,15 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="36.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>7</v>
@@ -2827,32 +2830,32 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="36.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="36.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -2867,15 +2870,15 @@
         <v>1</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="36.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -2890,15 +2893,15 @@
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="36.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -2913,15 +2916,15 @@
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>7</v>
@@ -2936,38 +2939,38 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G83" s="3">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="36.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
@@ -2979,15 +2982,15 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -3002,15 +3005,15 @@
         <v>10</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -3025,12 +3028,12 @@
         <v>3</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>14</v>
@@ -3048,15 +3051,15 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -3071,15 +3074,15 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -3094,15 +3097,15 @@
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>7</v>
@@ -3117,15 +3120,15 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>7</v>
@@ -3140,12 +3143,12 @@
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="36.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>15</v>
@@ -3154,7 +3157,7 @@
         <v>8</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E92" s="3">
         <v>1</v>
@@ -3166,15 +3169,15 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>7</v>
@@ -3189,12 +3192,12 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>15</v>
@@ -3203,7 +3206,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E94" s="3">
         <v>1</v>
@@ -3215,15 +3218,15 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>7</v>
@@ -3238,15 +3241,15 @@
         <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="36.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>7</v>
@@ -3261,32 +3264,32 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="36.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="36.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>7</v>
@@ -3301,15 +3304,15 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
@@ -3324,15 +3327,15 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -3347,15 +3350,15 @@
         <v>1</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
@@ -3370,38 +3373,38 @@
         <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G102" s="3">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="36.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E103" s="3">
         <v>1</v>
@@ -3413,15 +3416,15 @@
         <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -3436,15 +3439,15 @@
         <v>10</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="36.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -3459,12 +3462,12 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="36.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>14</v>
@@ -3482,15 +3485,15 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="36.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
@@ -3505,15 +3508,15 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="36.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>7</v>
@@ -3528,15 +3531,15 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="36.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>7</v>
@@ -3551,15 +3554,15 @@
         <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="36.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>7</v>
@@ -3574,12 +3577,12 @@
         <v>3</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="36.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>15</v>
@@ -3588,7 +3591,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E111" s="3">
         <v>1</v>
@@ -3600,15 +3603,15 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="36.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>7</v>
@@ -3623,12 +3626,12 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="36.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>15</v>
@@ -3637,7 +3640,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E113" s="3">
         <v>1</v>
@@ -3649,15 +3652,15 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="36.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>7</v>
@@ -3672,15 +3675,15 @@
         <v>1</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="36.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>7</v>
@@ -3695,32 +3698,32 @@
         <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="36.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="36.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>7</v>
@@ -3735,15 +3738,15 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="36.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>7</v>
@@ -3758,15 +3761,15 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="36.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>7</v>
@@ -3781,15 +3784,15 @@
         <v>1</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>7</v>
@@ -3804,38 +3807,38 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G121" s="3">
         <v>3</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="36.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
@@ -3847,15 +3850,15 @@
         <v>1</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -3870,15 +3873,15 @@
         <v>10</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="36.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>7</v>
@@ -3893,12 +3896,12 @@
         <v>3</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="36.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>14</v>
@@ -3916,15 +3919,15 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="36.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>7</v>
@@ -3939,15 +3942,15 @@
         <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="36.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -3962,15 +3965,15 @@
         <v>1</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="36.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>7</v>
@@ -3985,15 +3988,15 @@
         <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="36.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>7</v>
@@ -4008,12 +4011,12 @@
         <v>3</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="36.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>15</v>
@@ -4022,7 +4025,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
@@ -4034,15 +4037,15 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="36.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>7</v>
@@ -4057,12 +4060,12 @@
         <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="36.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>15</v>
@@ -4071,7 +4074,7 @@
         <v>8</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
@@ -4083,15 +4086,15 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="36.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>7</v>
@@ -4106,15 +4109,15 @@
         <v>1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="36.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>7</v>
@@ -4129,32 +4132,32 @@
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="36.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="36.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>7</v>
@@ -4169,15 +4172,15 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="36.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>7</v>
@@ -4192,15 +4195,15 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="36.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>7</v>
@@ -4215,15 +4218,15 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>7</v>
@@ -4238,38 +4241,38 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G140" s="3">
         <v>3</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E141" s="3">
         <v>1</v>
@@ -4281,15 +4284,15 @@
         <v>1</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>7</v>
@@ -4304,84 +4307,84 @@
         <v>10</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="2:10" ht="36.75" customHeight="1">
       <c r="B148" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="2:10" ht="36.75" customHeight="1">
       <c r="B149" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4440,15 +4443,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -4463,12 +4466,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4483,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -4491,7 +4494,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -4506,12 +4509,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -4526,7 +4529,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
@@ -4549,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
@@ -4573,18 +4576,18 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -4599,15 +4602,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -4622,26 +4625,26 @@
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -4656,15 +4659,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -4679,16 +4682,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
@@ -4702,16 +4705,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
@@ -4725,15 +4728,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -4748,15 +4751,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -4771,12 +4774,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -4791,12 +4794,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -4811,12 +4814,12 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -4831,12 +4834,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4851,12 +4854,12 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -4871,12 +4874,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -4891,12 +4894,12 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -4911,12 +4914,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -4931,12 +4934,12 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -4951,12 +4954,12 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -4971,12 +4974,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -4991,12 +4994,12 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -5011,12 +5014,12 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -5031,12 +5034,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -5051,12 +5054,12 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
       <c r="B31" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -5071,12 +5074,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
       <c r="B32" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -5091,12 +5094,12 @@
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="17.25" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -5111,12 +5114,12 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="17.25" customHeight="1">
       <c r="B34" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -5131,12 +5134,12 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="17.25" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -5151,12 +5154,12 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="17.25" customHeight="1">
       <c r="B36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -5171,12 +5174,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="17.25" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -5191,12 +5194,12 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="17.25" customHeight="1">
       <c r="B38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -5211,12 +5214,12 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="17.25" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -5231,12 +5234,12 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="17.25" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -5251,12 +5254,12 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="17.25" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -5271,12 +5274,12 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="17.25" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -5291,12 +5294,12 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="17.25" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -5311,12 +5314,12 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="17.25" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -5331,12 +5334,12 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="17.25" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -5351,12 +5354,12 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="17.25" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -5371,12 +5374,12 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="17.25" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -5391,12 +5394,12 @@
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="17.25" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -5411,12 +5414,12 @@
         <v>1</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -5431,13 +5434,13 @@
         <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -5454,21 +5457,21 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5521,15 +5524,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5544,12 +5547,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5564,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -5572,7 +5575,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -5587,12 +5590,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -5607,23 +5610,23 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="B6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -5638,12 +5641,12 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -5658,23 +5661,23 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="B9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="B10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -5689,12 +5692,12 @@
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -5709,23 +5712,23 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -5740,12 +5743,12 @@
         <v>5</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -5760,23 +5763,23 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="B15" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -5791,12 +5794,12 @@
         <v>5</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -5811,23 +5814,23 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="30">
       <c r="B18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30">
       <c r="B19" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -5842,12 +5845,12 @@
         <v>5</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -5862,23 +5865,23 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="30">
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30">
       <c r="B22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -5893,12 +5896,12 @@
         <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -5913,23 +5916,23 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="30">
       <c r="B24" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="30">
       <c r="B25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -5944,12 +5947,12 @@
         <v>5</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -5964,23 +5967,23 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="30">
       <c r="B27" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="30">
       <c r="B28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -5995,12 +5998,12 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -6015,23 +6018,23 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="30">
       <c r="B30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="30">
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -6046,7 +6049,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6058,7 +6061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6104,15 +6107,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6127,12 +6130,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6147,7 +6150,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -6155,7 +6158,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6170,12 +6173,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6190,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
@@ -6198,7 +6201,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6213,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6237,15 +6240,15 @@
         <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6260,15 +6263,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -6283,12 +6286,12 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="A10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -6306,12 +6309,12 @@
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -6326,18 +6329,18 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -6346,7 +6349,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -6366,12 +6369,12 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="B14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -6386,7 +6389,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6400,7 +6403,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -6440,15 +6443,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6463,12 +6466,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6483,7 +6486,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -6491,7 +6494,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6506,12 +6509,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6526,7 +6529,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60">
@@ -6549,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6573,18 +6576,18 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6599,84 +6602,84 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60">
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="B10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="B14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="B15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6696,10 +6699,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
@@ -6717,7 +6720,7 @@
     </row>
     <row r="2" spans="1:7" ht="29.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -6738,10 +6741,10 @@
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6759,10 +6762,10 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6780,10 +6783,10 @@
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6801,10 +6804,10 @@
     </row>
     <row r="6" spans="1:7" ht="29.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6822,7 +6825,7 @@
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -6831,7 +6834,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -6845,10 +6848,10 @@
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6866,7 +6869,7 @@
     </row>
     <row r="9" spans="1:7" ht="29.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -6875,7 +6878,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -6889,10 +6892,10 @@
     </row>
     <row r="10" spans="1:7" ht="29.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -6910,10 +6913,10 @@
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -6931,16 +6934,16 @@
     </row>
     <row r="12" spans="1:7" ht="29.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6948,10 +6951,10 @@
     </row>
     <row r="13" spans="1:7" ht="29.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -6969,10 +6972,10 @@
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -6990,10 +6993,10 @@
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -7011,10 +7014,10 @@
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -7032,7 +7035,7 @@
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>14</v>
@@ -7053,10 +7056,10 @@
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -7074,10 +7077,10 @@
     </row>
     <row r="19" spans="1:7" ht="29.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -7095,10 +7098,10 @@
     </row>
     <row r="20" spans="1:7" ht="29.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -7116,10 +7119,10 @@
     </row>
     <row r="21" spans="1:7" ht="29.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -7137,7 +7140,7 @@
     </row>
     <row r="22" spans="1:7" ht="29.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>15</v>
@@ -7146,7 +7149,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -7160,10 +7163,10 @@
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="24" spans="1:7" ht="29.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
@@ -7190,7 +7193,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -7204,10 +7207,10 @@
     </row>
     <row r="25" spans="1:7" ht="29.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -7225,10 +7228,10 @@
     </row>
     <row r="26" spans="1:7" ht="29.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -7246,16 +7249,16 @@
     </row>
     <row r="27" spans="1:7" ht="29.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -7263,10 +7266,10 @@
     </row>
     <row r="28" spans="1:7" ht="29.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -7284,10 +7287,10 @@
     </row>
     <row r="29" spans="1:7" ht="29.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -7305,10 +7308,10 @@
     </row>
     <row r="30" spans="1:7" ht="29.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -7326,10 +7329,10 @@
     </row>
     <row r="31" spans="1:7" ht="29.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -7347,7 +7350,7 @@
     </row>
     <row r="32" spans="1:7" ht="29.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -7368,10 +7371,10 @@
     </row>
     <row r="33" spans="1:7" ht="29.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -7389,10 +7392,10 @@
     </row>
     <row r="34" spans="1:7" ht="29.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -7410,10 +7413,10 @@
     </row>
     <row r="35" spans="1:7" ht="29.25" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -7431,10 +7434,10 @@
     </row>
     <row r="36" spans="1:7" ht="29.25" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -7452,7 +7455,7 @@
     </row>
     <row r="37" spans="1:7" ht="29.25" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>15</v>
@@ -7461,7 +7464,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -7475,10 +7478,10 @@
     </row>
     <row r="38" spans="1:7" ht="29.25" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -7496,7 +7499,7 @@
     </row>
     <row r="39" spans="1:7" ht="29.25" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>15</v>
@@ -7505,7 +7508,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -7519,10 +7522,10 @@
     </row>
     <row r="40" spans="1:7" ht="29.25" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -7540,10 +7543,10 @@
     </row>
     <row r="41" spans="1:7" ht="29.25" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -7561,16 +7564,16 @@
     </row>
     <row r="42" spans="1:7" ht="29.25" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -7578,10 +7581,10 @@
     </row>
     <row r="43" spans="1:7" ht="29.25" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -7599,10 +7602,10 @@
     </row>
     <row r="44" spans="1:7" ht="29.25" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -7620,10 +7623,10 @@
     </row>
     <row r="45" spans="1:7" ht="29.25" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -7641,10 +7644,10 @@
     </row>
     <row r="46" spans="1:7" ht="29.25" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -7662,7 +7665,7 @@
     </row>
     <row r="47" spans="1:7" ht="29.25" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>14</v>
@@ -7683,10 +7686,10 @@
     </row>
     <row r="48" spans="1:7" ht="29.25" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -7704,10 +7707,10 @@
     </row>
     <row r="49" spans="1:7" ht="29.25" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -7725,10 +7728,10 @@
     </row>
     <row r="50" spans="1:7" ht="29.25" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -7746,10 +7749,10 @@
     </row>
     <row r="51" spans="1:7" ht="29.25" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -7767,7 +7770,7 @@
     </row>
     <row r="52" spans="1:7" ht="29.25" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>15</v>
@@ -7776,7 +7779,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -7790,10 +7793,10 @@
     </row>
     <row r="53" spans="1:7" ht="29.25" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -7811,7 +7814,7 @@
     </row>
     <row r="54" spans="1:7" ht="29.25" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>15</v>
@@ -7820,7 +7823,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -7834,10 +7837,10 @@
     </row>
     <row r="55" spans="1:7" ht="29.25" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
@@ -7855,10 +7858,10 @@
     </row>
     <row r="56" spans="1:7" ht="29.25" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -7876,16 +7879,16 @@
     </row>
     <row r="57" spans="1:7" ht="29.25" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -7893,10 +7896,10 @@
     </row>
     <row r="58" spans="1:7" ht="29.25" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
@@ -7914,10 +7917,10 @@
     </row>
     <row r="59" spans="1:7" ht="29.25" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -7935,10 +7938,10 @@
     </row>
     <row r="60" spans="1:7" ht="29.25" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
@@ -7956,10 +7959,10 @@
     </row>
     <row r="61" spans="1:7" ht="29.25" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -7977,7 +7980,7 @@
     </row>
     <row r="62" spans="1:7" ht="29.25" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>14</v>
@@ -7998,10 +8001,10 @@
     </row>
     <row r="63" spans="1:7" ht="29.25" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -8019,10 +8022,10 @@
     </row>
     <row r="64" spans="1:7" ht="29.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>7</v>
@@ -8040,10 +8043,10 @@
     </row>
     <row r="65" spans="1:7" ht="29.25" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>7</v>
@@ -8061,10 +8064,10 @@
     </row>
     <row r="66" spans="1:7" ht="29.25" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -8082,7 +8085,7 @@
     </row>
     <row r="67" spans="1:7" ht="29.25" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>15</v>
@@ -8091,7 +8094,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -8105,10 +8108,10 @@
     </row>
     <row r="68" spans="1:7" ht="29.25" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -8126,7 +8129,7 @@
     </row>
     <row r="69" spans="1:7" ht="29.25" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>15</v>
@@ -8135,7 +8138,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -8149,10 +8152,10 @@
     </row>
     <row r="70" spans="1:7" ht="29.25" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -8170,10 +8173,10 @@
     </row>
     <row r="71" spans="1:7" ht="29.25" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
@@ -8191,16 +8194,16 @@
     </row>
     <row r="72" spans="1:7" ht="29.25" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -8208,10 +8211,10 @@
     </row>
     <row r="73" spans="1:7" ht="29.25" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>7</v>
@@ -8229,10 +8232,10 @@
     </row>
     <row r="74" spans="1:7" ht="29.25" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
@@ -8250,10 +8253,10 @@
     </row>
     <row r="75" spans="1:7" ht="29.25" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>7</v>
@@ -8271,10 +8274,10 @@
     </row>
     <row r="76" spans="1:7" ht="29.25" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -8292,7 +8295,7 @@
     </row>
     <row r="77" spans="1:7" ht="29.25" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>14</v>
@@ -8313,10 +8316,10 @@
     </row>
     <row r="78" spans="1:7" ht="29.25" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -8334,10 +8337,10 @@
     </row>
     <row r="79" spans="1:7" ht="29.25" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -8355,10 +8358,10 @@
     </row>
     <row r="80" spans="1:7" ht="29.25" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -8376,10 +8379,10 @@
     </row>
     <row r="81" spans="1:7" ht="29.25" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -8397,7 +8400,7 @@
     </row>
     <row r="82" spans="1:7" ht="29.25" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>15</v>
@@ -8406,7 +8409,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -8420,10 +8423,10 @@
     </row>
     <row r="83" spans="1:7" ht="29.25" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>7</v>
@@ -8441,7 +8444,7 @@
     </row>
     <row r="84" spans="1:7" ht="29.25" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>15</v>
@@ -8450,7 +8453,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
@@ -8464,10 +8467,10 @@
     </row>
     <row r="85" spans="1:7" ht="29.25" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -8485,10 +8488,10 @@
     </row>
     <row r="86" spans="1:7" ht="29.25" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -8506,16 +8509,16 @@
     </row>
     <row r="87" spans="1:7" ht="29.25" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -8523,10 +8526,10 @@
     </row>
     <row r="88" spans="1:7" ht="29.25" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -8544,10 +8547,10 @@
     </row>
     <row r="89" spans="1:7" ht="29.25" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -8565,10 +8568,10 @@
     </row>
     <row r="90" spans="1:7" ht="29.25" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>7</v>
@@ -8601,10 +8604,10 @@
   <sheetData>
     <row r="2" spans="1:8" ht="210">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -8626,7 +8629,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -8648,13 +8651,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -8665,13 +8668,13 @@
     </row>
     <row r="5" spans="1:8" ht="180">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -8687,10 +8690,10 @@
     </row>
     <row r="6" spans="1:8" ht="150">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -8709,13 +8712,13 @@
     </row>
     <row r="7" spans="1:8" ht="75">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -8731,10 +8734,10 @@
     </row>
     <row r="8" spans="1:8" ht="225">
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8744,10 +8747,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -8788,15 +8791,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -8811,12 +8814,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -8831,7 +8834,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
@@ -8839,7 +8842,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -8854,12 +8857,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -8874,7 +8877,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
@@ -8897,7 +8900,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
@@ -8921,18 +8924,18 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -8947,12 +8950,12 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -8969,10 +8972,10 @@
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -8986,7 +8989,7 @@
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -9003,7 +9006,7 @@
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -9020,7 +9023,7 @@
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -9037,7 +9040,7 @@
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -9054,7 +9057,7 @@
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -9069,12 +9072,12 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -9091,7 +9094,7 @@
     </row>
     <row r="17" spans="2:7" ht="18" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -9108,7 +9111,7 @@
     </row>
     <row r="18" spans="2:7" ht="18" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -9125,7 +9128,7 @@
     </row>
     <row r="19" spans="2:7" ht="18" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -9142,7 +9145,7 @@
     </row>
     <row r="20" spans="2:7" ht="18" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -9159,7 +9162,7 @@
     </row>
     <row r="21" spans="2:7" ht="18" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -9176,7 +9179,7 @@
     </row>
     <row r="22" spans="2:7" ht="18" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -9188,7 +9191,27 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18" customHeight="1">
+      <c r="B23" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="7"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -4401,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -8749,7 +8749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="1"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -5484,7 +5484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -6059,10 +6059,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
@@ -6283,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>170</v>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>170</v>
@@ -6326,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>171</v>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>171</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>171</v>
@@ -6386,10 +6386,15 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6691,7 +6696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="3"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>send to clinician</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/div/div/div/div[1]/button</t>
-  </si>
-  <si>
     <t>//input[@id="nameSeach"]</t>
   </si>
   <si>
@@ -654,6 +651,9 @@
   </si>
   <si>
     <t>(//div[@id="fullCalendar"]//span[contains(text(),"MSW")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"])</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.filterShow = false; vm.focusInput()"]</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1085,15 +1085,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1108,12 +1108,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -1136,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1151,12 +1151,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="36.75" customHeight="1">
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1">
@@ -1202,7 +1202,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -1218,18 +1218,18 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1244,15 +1244,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -1267,15 +1267,15 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -1290,12 +1290,12 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:10" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>14</v>
@@ -1314,15 +1314,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -1337,15 +1337,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -1360,15 +1360,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -1383,15 +1383,15 @@
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -1406,12 +1406,12 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
@@ -1420,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1432,15 +1432,15 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -1455,12 +1455,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>15</v>
@@ -1469,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1481,15 +1481,15 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -1504,15 +1504,15 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -1527,32 +1527,32 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -1568,15 +1568,15 @@
       </c>
       <c r="H22"/>
       <c r="J22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="63" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -1591,15 +1591,15 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -1614,15 +1614,15 @@
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -1637,38 +1637,38 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" s="3">
         <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1680,15 +1680,15 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1703,15 +1703,15 @@
         <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -1726,12 +1726,12 @@
         <v>3</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>14</v>
@@ -1749,15 +1749,15 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -1772,15 +1772,15 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -1795,15 +1795,15 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -1818,15 +1818,15 @@
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -1841,12 +1841,12 @@
         <v>3</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>15</v>
@@ -1855,7 +1855,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -1867,15 +1867,15 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -1890,12 +1890,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>15</v>
@@ -1904,7 +1904,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -1916,15 +1916,15 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -1939,15 +1939,15 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -1962,32 +1962,32 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -2002,15 +2002,15 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -2025,15 +2025,15 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -2048,15 +2048,15 @@
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -2071,38 +2071,38 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G45" s="3">
         <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -2114,15 +2114,15 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -2137,15 +2137,15 @@
         <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -2160,12 +2160,12 @@
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>14</v>
@@ -2183,15 +2183,15 @@
         <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -2206,15 +2206,15 @@
         <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -2229,15 +2229,15 @@
         <v>1</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -2252,15 +2252,15 @@
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -2275,12 +2275,12 @@
         <v>3</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>15</v>
@@ -2289,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -2301,15 +2301,15 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
@@ -2324,12 +2324,12 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>15</v>
@@ -2338,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -2350,15 +2350,15 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>7</v>
@@ -2373,15 +2373,15 @@
         <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
@@ -2396,32 +2396,32 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="36.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
@@ -2436,15 +2436,15 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="36.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -2459,15 +2459,15 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
@@ -2482,15 +2482,15 @@
         <v>1</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -2505,38 +2505,38 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G64" s="3">
         <v>3</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="36.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -2548,15 +2548,15 @@
         <v>1</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -2571,15 +2571,15 @@
         <v>10</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="36.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>7</v>
@@ -2594,12 +2594,12 @@
         <v>3</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="36.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>14</v>
@@ -2617,15 +2617,15 @@
         <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>7</v>
@@ -2640,15 +2640,15 @@
         <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -2663,15 +2663,15 @@
         <v>1</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="36.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
@@ -2686,15 +2686,15 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="36.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>7</v>
@@ -2709,12 +2709,12 @@
         <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="36.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>15</v>
@@ -2723,7 +2723,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -2735,15 +2735,15 @@
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="36.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
@@ -2758,12 +2758,12 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="36.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>15</v>
@@ -2772,7 +2772,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E75" s="3">
         <v>1</v>
@@ -2784,15 +2784,15 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="36.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -2807,15 +2807,15 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="36.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>7</v>
@@ -2830,32 +2830,32 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="36.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="36.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -2870,15 +2870,15 @@
         <v>1</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="36.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -2893,15 +2893,15 @@
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="36.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -2916,15 +2916,15 @@
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>7</v>
@@ -2939,38 +2939,38 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G83" s="3">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="36.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
@@ -2982,15 +2982,15 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -3005,15 +3005,15 @@
         <v>10</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -3028,12 +3028,12 @@
         <v>3</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>14</v>
@@ -3051,15 +3051,15 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -3074,15 +3074,15 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -3097,15 +3097,15 @@
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>7</v>
@@ -3120,15 +3120,15 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>7</v>
@@ -3143,12 +3143,12 @@
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="36.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>15</v>
@@ -3157,7 +3157,7 @@
         <v>8</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E92" s="3">
         <v>1</v>
@@ -3169,15 +3169,15 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>7</v>
@@ -3192,12 +3192,12 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>15</v>
@@ -3206,7 +3206,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E94" s="3">
         <v>1</v>
@@ -3218,15 +3218,15 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>7</v>
@@ -3241,15 +3241,15 @@
         <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="36.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>7</v>
@@ -3264,32 +3264,32 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="36.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="36.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>7</v>
@@ -3304,15 +3304,15 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>7</v>
@@ -3327,15 +3327,15 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -3350,15 +3350,15 @@
         <v>1</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
@@ -3373,38 +3373,38 @@
         <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G102" s="3">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="36.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E103" s="3">
         <v>1</v>
@@ -3416,15 +3416,15 @@
         <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -3439,15 +3439,15 @@
         <v>10</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="36.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>7</v>
@@ -3462,12 +3462,12 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="36.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>14</v>
@@ -3485,15 +3485,15 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="36.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
@@ -3508,15 +3508,15 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="36.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>7</v>
@@ -3531,15 +3531,15 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="36.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>7</v>
@@ -3554,15 +3554,15 @@
         <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="36.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>7</v>
@@ -3577,12 +3577,12 @@
         <v>3</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="36.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>15</v>
@@ -3591,7 +3591,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E111" s="3">
         <v>1</v>
@@ -3603,15 +3603,15 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="36.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>7</v>
@@ -3626,12 +3626,12 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="36.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>15</v>
@@ -3640,7 +3640,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E113" s="3">
         <v>1</v>
@@ -3652,15 +3652,15 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="36.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>7</v>
@@ -3675,15 +3675,15 @@
         <v>1</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="36.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>7</v>
@@ -3698,32 +3698,32 @@
         <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="36.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="36.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>7</v>
@@ -3738,15 +3738,15 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="36.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>7</v>
@@ -3761,15 +3761,15 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="36.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>7</v>
@@ -3784,15 +3784,15 @@
         <v>1</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>7</v>
@@ -3807,38 +3807,38 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G121" s="3">
         <v>3</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="36.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
@@ -3850,15 +3850,15 @@
         <v>1</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -3873,15 +3873,15 @@
         <v>10</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="36.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>7</v>
@@ -3896,12 +3896,12 @@
         <v>3</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="36.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>14</v>
@@ -3919,15 +3919,15 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="36.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>7</v>
@@ -3942,15 +3942,15 @@
         <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="36.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -3965,15 +3965,15 @@
         <v>1</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="36.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>7</v>
@@ -3988,15 +3988,15 @@
         <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="36.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>7</v>
@@ -4011,12 +4011,12 @@
         <v>3</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="36.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>15</v>
@@ -4025,7 +4025,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
@@ -4037,15 +4037,15 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="36.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>7</v>
@@ -4060,12 +4060,12 @@
         <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="36.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>15</v>
@@ -4074,7 +4074,7 @@
         <v>8</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
@@ -4086,15 +4086,15 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="36.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>7</v>
@@ -4109,15 +4109,15 @@
         <v>1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="36.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>7</v>
@@ -4132,32 +4132,32 @@
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="36.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="36.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>7</v>
@@ -4172,15 +4172,15 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="36.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>7</v>
@@ -4195,15 +4195,15 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="36.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>7</v>
@@ -4218,15 +4218,15 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>7</v>
@@ -4241,38 +4241,38 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G140" s="3">
         <v>3</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E141" s="3">
         <v>1</v>
@@ -4284,15 +4284,15 @@
         <v>1</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>7</v>
@@ -4307,84 +4307,84 @@
         <v>10</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="2:10" ht="36.75" customHeight="1">
       <c r="B148" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="2:10" ht="36.75" customHeight="1">
       <c r="B149" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4401,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -4443,15 +4443,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -4466,12 +4466,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4486,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -4494,7 +4494,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -4509,12 +4509,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -4529,7 +4529,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
@@ -4537,7 +4537,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
@@ -4560,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -4576,18 +4576,18 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -4602,15 +4602,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -4625,26 +4625,26 @@
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -4659,15 +4659,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -4682,16 +4682,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
@@ -4705,16 +4705,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
@@ -4728,15 +4728,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -4751,15 +4751,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -4774,12 +4774,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -4794,12 +4794,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -4814,12 +4814,12 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -4834,12 +4834,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4854,12 +4854,12 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -4874,12 +4874,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -4894,12 +4894,12 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -4914,12 +4914,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -4934,12 +4934,12 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -4954,12 +4954,12 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -4974,12 +4974,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -4994,12 +4994,12 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -5014,12 +5014,12 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -5034,12 +5034,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -5054,12 +5054,12 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -5074,12 +5074,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
       <c r="B32" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -5094,12 +5094,12 @@
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="17.25" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -5114,12 +5114,12 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="17.25" customHeight="1">
       <c r="B34" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -5134,12 +5134,12 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="17.25" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -5154,12 +5154,12 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="17.25" customHeight="1">
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -5174,12 +5174,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="17.25" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -5194,12 +5194,12 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="17.25" customHeight="1">
       <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -5214,12 +5214,12 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="17.25" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -5234,12 +5234,12 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="17.25" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -5254,12 +5254,12 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="17.25" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -5274,12 +5274,12 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="17.25" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -5294,12 +5294,12 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="17.25" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -5314,12 +5314,12 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="17.25" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -5334,12 +5334,12 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="17.25" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -5354,12 +5354,12 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="17.25" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -5374,12 +5374,12 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="17.25" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -5394,12 +5394,12 @@
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="17.25" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -5414,12 +5414,12 @@
         <v>1</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -5434,13 +5434,13 @@
         <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -5457,21 +5457,21 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -5484,8 +5484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15"/>
@@ -5524,15 +5524,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5547,12 +5547,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5567,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -5575,7 +5575,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -5590,12 +5590,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -5610,23 +5610,23 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="B6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -5641,12 +5641,12 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -5661,23 +5661,23 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -5692,12 +5692,12 @@
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -5712,23 +5712,23 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -5743,12 +5743,12 @@
         <v>5</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -5763,23 +5763,23 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -5794,12 +5794,12 @@
         <v>5</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -5814,23 +5814,23 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="30">
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30">
       <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -5845,12 +5845,12 @@
         <v>5</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -5865,23 +5865,23 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="30">
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30">
       <c r="B22" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -5896,12 +5896,12 @@
         <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -5916,23 +5916,23 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="30">
       <c r="B24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="30">
       <c r="B25" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -5947,12 +5947,12 @@
         <v>5</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -5967,23 +5967,23 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="30">
       <c r="B27" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="30">
       <c r="B28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -5998,12 +5998,12 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -6018,23 +6018,23 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="30">
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="30">
       <c r="B31" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -6049,7 +6049,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6061,8 +6061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
@@ -6107,15 +6107,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6130,12 +6130,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6150,7 +6150,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -6158,7 +6158,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6173,12 +6173,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6193,15 +6193,15 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6224,7 +6224,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -6240,15 +6240,15 @@
         <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="B8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6263,15 +6263,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -6286,12 +6286,12 @@
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="A10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -6309,12 +6309,12 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -6329,18 +6329,18 @@
         <v>3</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -6349,7 +6349,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -6369,12 +6369,12 @@
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="B14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -6389,7 +6389,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6408,7 +6408,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -6448,15 +6448,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6471,12 +6471,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6491,7 +6491,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -6499,7 +6499,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6514,12 +6514,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6534,15 +6534,15 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6565,7 +6565,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -6581,18 +6581,18 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6607,84 +6607,84 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60">
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="B15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6704,10 +6704,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="2" spans="1:7" ht="29.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6767,10 +6767,10 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6788,10 +6788,10 @@
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6809,10 +6809,10 @@
     </row>
     <row r="6" spans="1:7" ht="29.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -6839,7 +6839,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -6853,10 +6853,10 @@
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="9" spans="1:7" ht="29.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
@@ -6883,7 +6883,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -6897,10 +6897,10 @@
     </row>
     <row r="10" spans="1:7" ht="29.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -6918,10 +6918,10 @@
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -6939,16 +6939,16 @@
     </row>
     <row r="12" spans="1:7" ht="29.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6956,10 +6956,10 @@
     </row>
     <row r="13" spans="1:7" ht="29.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -6998,10 +6998,10 @@
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -7019,10 +7019,10 @@
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>14</v>
@@ -7061,10 +7061,10 @@
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -7082,10 +7082,10 @@
     </row>
     <row r="19" spans="1:7" ht="29.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -7103,10 +7103,10 @@
     </row>
     <row r="20" spans="1:7" ht="29.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -7124,10 +7124,10 @@
     </row>
     <row r="21" spans="1:7" ht="29.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="22" spans="1:7" ht="29.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>15</v>
@@ -7154,7 +7154,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -7168,10 +7168,10 @@
     </row>
     <row r="23" spans="1:7" ht="29.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="24" spans="1:7" ht="29.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -7212,10 +7212,10 @@
     </row>
     <row r="25" spans="1:7" ht="29.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -7233,10 +7233,10 @@
     </row>
     <row r="26" spans="1:7" ht="29.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -7254,16 +7254,16 @@
     </row>
     <row r="27" spans="1:7" ht="29.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -7271,10 +7271,10 @@
     </row>
     <row r="28" spans="1:7" ht="29.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -7292,10 +7292,10 @@
     </row>
     <row r="29" spans="1:7" ht="29.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -7313,10 +7313,10 @@
     </row>
     <row r="30" spans="1:7" ht="29.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -7334,10 +7334,10 @@
     </row>
     <row r="31" spans="1:7" ht="29.25" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="32" spans="1:7" ht="29.25" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -7376,10 +7376,10 @@
     </row>
     <row r="33" spans="1:7" ht="29.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -7397,10 +7397,10 @@
     </row>
     <row r="34" spans="1:7" ht="29.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -7418,10 +7418,10 @@
     </row>
     <row r="35" spans="1:7" ht="29.25" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -7439,10 +7439,10 @@
     </row>
     <row r="36" spans="1:7" ht="29.25" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="37" spans="1:7" ht="29.25" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>15</v>
@@ -7469,7 +7469,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -7483,10 +7483,10 @@
     </row>
     <row r="38" spans="1:7" ht="29.25" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="39" spans="1:7" ht="29.25" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>15</v>
@@ -7513,7 +7513,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -7527,10 +7527,10 @@
     </row>
     <row r="40" spans="1:7" ht="29.25" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -7548,10 +7548,10 @@
     </row>
     <row r="41" spans="1:7" ht="29.25" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -7569,16 +7569,16 @@
     </row>
     <row r="42" spans="1:7" ht="29.25" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -7586,10 +7586,10 @@
     </row>
     <row r="43" spans="1:7" ht="29.25" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -7607,10 +7607,10 @@
     </row>
     <row r="44" spans="1:7" ht="29.25" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -7628,10 +7628,10 @@
     </row>
     <row r="45" spans="1:7" ht="29.25" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -7649,10 +7649,10 @@
     </row>
     <row r="46" spans="1:7" ht="29.25" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="47" spans="1:7" ht="29.25" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>14</v>
@@ -7691,10 +7691,10 @@
     </row>
     <row r="48" spans="1:7" ht="29.25" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -7712,10 +7712,10 @@
     </row>
     <row r="49" spans="1:7" ht="29.25" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -7733,10 +7733,10 @@
     </row>
     <row r="50" spans="1:7" ht="29.25" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -7754,10 +7754,10 @@
     </row>
     <row r="51" spans="1:7" ht="29.25" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="52" spans="1:7" ht="29.25" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>15</v>
@@ -7784,7 +7784,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -7798,10 +7798,10 @@
     </row>
     <row r="53" spans="1:7" ht="29.25" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
@@ -7819,7 +7819,7 @@
     </row>
     <row r="54" spans="1:7" ht="29.25" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>15</v>
@@ -7828,7 +7828,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -7842,10 +7842,10 @@
     </row>
     <row r="55" spans="1:7" ht="29.25" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
@@ -7863,10 +7863,10 @@
     </row>
     <row r="56" spans="1:7" ht="29.25" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -7884,16 +7884,16 @@
     </row>
     <row r="57" spans="1:7" ht="29.25" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -7901,10 +7901,10 @@
     </row>
     <row r="58" spans="1:7" ht="29.25" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>7</v>
@@ -7922,10 +7922,10 @@
     </row>
     <row r="59" spans="1:7" ht="29.25" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="60" spans="1:7" ht="29.25" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>7</v>
@@ -7964,10 +7964,10 @@
     </row>
     <row r="61" spans="1:7" ht="29.25" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>7</v>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="62" spans="1:7" ht="29.25" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>14</v>
@@ -8006,10 +8006,10 @@
     </row>
     <row r="63" spans="1:7" ht="29.25" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -8027,10 +8027,10 @@
     </row>
     <row r="64" spans="1:7" ht="29.25" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>7</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="65" spans="1:7" ht="29.25" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>7</v>
@@ -8069,10 +8069,10 @@
     </row>
     <row r="66" spans="1:7" ht="29.25" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="67" spans="1:7" ht="29.25" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>15</v>
@@ -8099,7 +8099,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -8113,10 +8113,10 @@
     </row>
     <row r="68" spans="1:7" ht="29.25" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="69" spans="1:7" ht="29.25" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>15</v>
@@ -8143,7 +8143,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -8157,10 +8157,10 @@
     </row>
     <row r="70" spans="1:7" ht="29.25" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -8178,10 +8178,10 @@
     </row>
     <row r="71" spans="1:7" ht="29.25" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>7</v>
@@ -8199,16 +8199,16 @@
     </row>
     <row r="72" spans="1:7" ht="29.25" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -8216,10 +8216,10 @@
     </row>
     <row r="73" spans="1:7" ht="29.25" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>7</v>
@@ -8237,10 +8237,10 @@
     </row>
     <row r="74" spans="1:7" ht="29.25" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="75" spans="1:7" ht="29.25" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>7</v>
@@ -8279,10 +8279,10 @@
     </row>
     <row r="76" spans="1:7" ht="29.25" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="77" spans="1:7" ht="29.25" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>14</v>
@@ -8321,10 +8321,10 @@
     </row>
     <row r="78" spans="1:7" ht="29.25" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>7</v>
@@ -8342,10 +8342,10 @@
     </row>
     <row r="79" spans="1:7" ht="29.25" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>7</v>
@@ -8363,10 +8363,10 @@
     </row>
     <row r="80" spans="1:7" ht="29.25" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>7</v>
@@ -8384,10 +8384,10 @@
     </row>
     <row r="81" spans="1:7" ht="29.25" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="82" spans="1:7" ht="29.25" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>15</v>
@@ -8414,7 +8414,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -8428,10 +8428,10 @@
     </row>
     <row r="83" spans="1:7" ht="29.25" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>7</v>
@@ -8449,7 +8449,7 @@
     </row>
     <row r="84" spans="1:7" ht="29.25" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>15</v>
@@ -8458,7 +8458,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E84" s="3">
         <v>1</v>
@@ -8472,10 +8472,10 @@
     </row>
     <row r="85" spans="1:7" ht="29.25" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -8493,10 +8493,10 @@
     </row>
     <row r="86" spans="1:7" ht="29.25" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>7</v>
@@ -8514,16 +8514,16 @@
     </row>
     <row r="87" spans="1:7" ht="29.25" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -8531,10 +8531,10 @@
     </row>
     <row r="88" spans="1:7" ht="29.25" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>7</v>
@@ -8552,10 +8552,10 @@
     </row>
     <row r="89" spans="1:7" ht="29.25" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>7</v>
@@ -8573,10 +8573,10 @@
     </row>
     <row r="90" spans="1:7" ht="29.25" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>7</v>
@@ -8609,10 +8609,10 @@
   <sheetData>
     <row r="2" spans="1:8" ht="210">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -8634,7 +8634,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -8656,13 +8656,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -8673,13 +8673,13 @@
     </row>
     <row r="5" spans="1:8" ht="180">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
@@ -8695,10 +8695,10 @@
     </row>
     <row r="6" spans="1:8" ht="150">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -8717,13 +8717,13 @@
     </row>
     <row r="7" spans="1:8" ht="75">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -8739,10 +8739,10 @@
     </row>
     <row r="8" spans="1:8" ht="225">
       <c r="B8" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -8754,8 +8754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -8796,15 +8796,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -8819,12 +8819,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -8839,7 +8839,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
@@ -8847,7 +8847,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -8862,12 +8862,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -8882,7 +8882,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
@@ -8890,7 +8890,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -8905,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
@@ -8913,7 +8913,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -8929,18 +8929,18 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -8955,12 +8955,12 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -8977,10 +8977,10 @@
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -9011,7 +9011,7 @@
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -9062,7 +9062,7 @@
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -9077,12 +9077,12 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -9099,7 +9099,7 @@
     </row>
     <row r="17" spans="2:7" ht="18" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -9116,7 +9116,7 @@
     </row>
     <row r="18" spans="2:7" ht="18" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="19" spans="2:7" ht="18" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -9150,7 +9150,7 @@
     </row>
     <row r="20" spans="2:7" ht="18" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -9167,7 +9167,7 @@
     </row>
     <row r="21" spans="2:7" ht="18" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="22" spans="2:7" ht="18" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -9201,10 +9201,10 @@
     </row>
     <row r="23" spans="2:7" ht="18" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="7"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="backup" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
     <sheet name="AddSched" sheetId="8" r:id="rId8"/>
+    <sheet name="CommNotes" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="231">
   <si>
     <t>Name</t>
   </si>
@@ -654,6 +655,66 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.filterShow = false; vm.focusInput()"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[4]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vmt.composeClick(null, 'ADD')"]</t>
+  </si>
+  <si>
+    <t>(//form[@name="emailForm"]//input)[1]</t>
+  </si>
+  <si>
+    <t>Case Conference Note</t>
+  </si>
+  <si>
+    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]//li[1]</t>
+  </si>
+  <si>
+    <t>(//form[@name="emailForm"]//input)[4]</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]//li[2]</t>
+  </si>
+  <si>
+    <t>(//form[@name="emailForm"]//md-select)</t>
+  </si>
+  <si>
+    <t>//button[@translate="ADD"]</t>
+  </si>
+  <si>
+    <t>//p[contains(text(),"CASE CONFERENCE NOTE")]</t>
+  </si>
+  <si>
+    <t>faile to create comm notest</t>
+  </si>
+  <si>
+    <t>Comm Notes</t>
+  </si>
+  <si>
+    <t>Add button</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>author name</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>verify comm notes</t>
   </si>
 </sst>
 </file>
@@ -8754,8 +8815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -9222,4 +9283,419 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" style="3" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="3"/>
+    <col min="10" max="10" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="A9" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45">
+      <c r="A11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45">
+      <c r="A12" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45">
+      <c r="A14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="A16" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -9290,7 +9290,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145:C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -9289,8 +9289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>222</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="230">
   <si>
     <t>Name</t>
   </si>
@@ -660,9 +660,6 @@
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[4]</t>
   </si>
   <si>
-    <t>//button[@ng-click="vmt.composeClick(null, 'ADD')"]</t>
-  </si>
-  <si>
     <t>(//form[@name="emailForm"]//input)[1]</t>
   </si>
   <si>
@@ -678,18 +675,12 @@
     <t>test</t>
   </si>
   <si>
-    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]//li[2]</t>
-  </si>
-  <si>
     <t>(//form[@name="emailForm"]//md-select)</t>
   </si>
   <si>
     <t>//button[@translate="ADD"]</t>
   </si>
   <si>
-    <t>//p[contains(text(),"CASE CONFERENCE NOTE")]</t>
-  </si>
-  <si>
     <t>faile to create comm notest</t>
   </si>
   <si>
@@ -715,6 +706,12 @@
   </si>
   <si>
     <t>verify comm notes</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vmt.composeClick(null, 'ADD')"]/md-icon</t>
+  </si>
+  <si>
+    <t>(//p[contains(text(),"CASE CONFERENCE NOTE")])[1]</t>
   </si>
 </sst>
 </file>
@@ -9287,10 +9284,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9486,15 +9483,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30">
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="28.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>211</v>
@@ -9511,119 +9508,121 @@
       <c r="G9" s="3">
         <v>2</v>
       </c>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="J9" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>5</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45">
-      <c r="A11" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
       <c r="A12" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="G12" s="3">
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45">
       <c r="A13" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>217</v>
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45">
       <c r="A15" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -9635,36 +9634,36 @@
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
+      <c r="A17" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
@@ -9672,30 +9671,63 @@
         <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>222</v>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="8"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="233">
   <si>
     <t>Name</t>
   </si>
@@ -645,9 +645,6 @@
     <t>/html/body/div/div/md-content/md-content/div/md-content/md-list/md-list-item[1]/div/div[1]/div/div[2]/button[1]</t>
   </si>
   <si>
-    <t>(//div[@id="fullCalendar"]//span[contains(text(),"MSW")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"])[1]</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
@@ -712,6 +709,18 @@
   </si>
   <si>
     <t>(//p[contains(text(),"CASE CONFERENCE NOTE")])[1]</t>
+  </si>
+  <si>
+    <t>//input[@name="selectedClinicianKey"]</t>
+  </si>
+  <si>
+    <t>jen</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[4]</t>
+  </si>
+  <si>
+    <t>(//div[@id="fullCalendar"]//span[conD:\SE\Documents\Desktop\test.pngtains(text(),"MSW")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"])[1]</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145:C147"/>
+    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1237,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -2706,7 +2715,7 @@
         <v>37</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -4460,7 +4469,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -4595,7 +4604,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6259,7 +6268,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6600,7 +6609,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -8810,10 +8819,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -8948,7 +8957,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -9118,29 +9127,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>196</v>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="50.25" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -9152,15 +9161,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="18" customHeight="1">
-      <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18" customHeight="1">
+      <c r="B17" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -9171,10 +9180,13 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="18" customHeight="1">
+      <c r="H17" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -9189,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18" customHeight="1">
+    <row r="19" spans="2:8" ht="18" customHeight="1">
       <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
@@ -9206,9 +9218,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="18" customHeight="1">
+    <row r="20" spans="2:8" ht="18" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -9220,12 +9232,12 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="18" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -9237,12 +9249,12 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="18" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -9254,18 +9266,15 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="18" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -9277,8 +9286,46 @@
         <v>3</v>
       </c>
     </row>
+    <row r="24" spans="2:8" ht="18" customHeight="1">
+      <c r="B24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9286,7 +9333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -9421,7 +9468,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -9491,10 +9538,10 @@
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="28.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -9511,15 +9558,15 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>57</v>
@@ -9531,15 +9578,15 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -9554,35 +9601,35 @@
         <v>5</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
       <c r="A12" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G12" s="3">
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="A13" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -9594,35 +9641,35 @@
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="A15" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -9634,15 +9681,15 @@
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -9654,12 +9701,12 @@
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -9674,15 +9721,15 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -9694,27 +9741,27 @@
         <v>5</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>30</v>
@@ -9723,7 +9770,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="7"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[4]</t>
   </si>
   <si>
-    <t>(//div[@id="fullCalendar"]//span[conD:\SE\Documents\Desktop\test.pngtains(text(),"MSW")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"])[1]</t>
+    <t>(//div[@id="fullCalendar"]//span[contains(text(),"MSW")])[2]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
   </si>
 </sst>
 </file>
@@ -8821,8 +8821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="18" customHeight="1"/>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -717,10 +717,10 @@
     <t>jen</t>
   </si>
   <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[4]</t>
-  </si>
-  <si>
     <t>(//div[@id="fullCalendar"]//span[contains(text(),"MSW")])[2]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[6]</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -2715,7 +2715,7 @@
         <v>37</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
@@ -4017,7 +4017,7 @@
         <v>37</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -8821,7 +8821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -9271,7 +9271,7 @@
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="234">
   <si>
     <t>Name</t>
   </si>
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[6]</t>
+  </si>
+  <si>
+    <t>D:\SE\Documents\Desktop\test.png</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -4469,7 +4472,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -4640,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>68</v>
@@ -4689,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>164</v>
@@ -4784,6 +4787,9 @@
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -9333,8 +9339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9738,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>218</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="8"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>//div[@id="fullCalendar"]//span[contains(text(),"RN")]/../../../a[@class="fc-day-grid-event fc-h-event fc-event fc-start fc-end fc-draggable"]</t>
   </si>
   <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>visit frequency</t>
   </si>
   <si>
@@ -724,13 +721,16 @@
   </si>
   <si>
     <t>D:\SE\Documents\Desktop\test.png</t>
+  </si>
+  <si>
+    <t>fullname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +759,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -784,7 +791,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -818,6 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1115,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1155,15 +1163,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1178,12 +1186,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1198,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -1206,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1221,12 +1229,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -1241,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="36.75" customHeight="1">
@@ -1249,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -1264,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1">
@@ -1287,11 +1295,11 @@
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
+      <c r="H7" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50.25" customHeight="1">
@@ -1299,7 +1307,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1314,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.75" customHeight="1">
@@ -1337,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36.75" customHeight="1">
@@ -1360,7 +1368,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:10" customFormat="1" ht="51" customHeight="1">
@@ -1384,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1">
@@ -1407,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1">
@@ -1430,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
@@ -1453,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1">
@@ -1476,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
@@ -1502,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
@@ -1525,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36.75" customHeight="1">
@@ -1551,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
@@ -1574,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36.75" customHeight="1">
@@ -1597,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36.75" customHeight="1">
@@ -1614,7 +1622,7 @@
         <v>49</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36.75" customHeight="1">
@@ -1638,7 +1646,7 @@
       </c>
       <c r="H22"/>
       <c r="J22" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="63" customHeight="1">
@@ -1661,15 +1669,15 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -1684,15 +1692,15 @@
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -1707,35 +1715,35 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G26" s="3">
         <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>32</v>
@@ -1750,15 +1758,15 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1773,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36.75" customHeight="1">
@@ -1796,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36.75" customHeight="1">
@@ -1819,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
@@ -1842,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36.75" customHeight="1">
@@ -1865,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36.75" customHeight="1">
@@ -1888,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36.75" customHeight="1">
@@ -1911,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36.75" customHeight="1">
@@ -1937,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.75" customHeight="1">
@@ -1960,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.75" customHeight="1">
@@ -1986,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36.75" customHeight="1">
@@ -2009,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.75" customHeight="1">
@@ -2032,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.75" customHeight="1">
@@ -2049,7 +2057,7 @@
         <v>49</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.75" customHeight="1">
@@ -2072,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.75" customHeight="1">
@@ -2095,15 +2103,15 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -2118,15 +2126,15 @@
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -2141,35 +2149,35 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G45" s="3">
         <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>32</v>
@@ -2184,15 +2192,15 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -2207,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.75" customHeight="1">
@@ -2230,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.75" customHeight="1">
@@ -2253,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.75" customHeight="1">
@@ -2276,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36.75" customHeight="1">
@@ -2299,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36.75" customHeight="1">
@@ -2322,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36.75" customHeight="1">
@@ -2345,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.75" customHeight="1">
@@ -2371,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
@@ -2394,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36.75" customHeight="1">
@@ -2420,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36.75" customHeight="1">
@@ -2443,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36.75" customHeight="1">
@@ -2466,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36.75" customHeight="1">
@@ -2483,7 +2491,7 @@
         <v>49</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="36.75" customHeight="1">
@@ -2506,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="36.75" customHeight="1">
@@ -2529,15 +2537,15 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
@@ -2552,15 +2560,15 @@
         <v>1</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -2575,35 +2583,35 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G64" s="3">
         <v>3</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="36.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>32</v>
@@ -2618,15 +2626,15 @@
         <v>1</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -2641,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="36.75" customHeight="1">
@@ -2664,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="36.75" customHeight="1">
@@ -2687,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1">
@@ -2710,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1">
@@ -2733,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="36.75" customHeight="1">
@@ -2756,7 +2764,7 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="36.75" customHeight="1">
@@ -2779,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="36.75" customHeight="1">
@@ -2805,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="36.75" customHeight="1">
@@ -2828,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="36.75" customHeight="1">
@@ -2854,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="36.75" customHeight="1">
@@ -2877,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="36.75" customHeight="1">
@@ -2900,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="36.75" customHeight="1">
@@ -2917,7 +2925,7 @@
         <v>49</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="36.75" customHeight="1">
@@ -2940,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="36.75" customHeight="1">
@@ -2963,15 +2971,15 @@
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="36.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -2986,15 +2994,15 @@
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>7</v>
@@ -3009,35 +3017,35 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G83" s="3">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="36.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>32</v>
@@ -3052,15 +3060,15 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -3075,7 +3083,7 @@
         <v>10</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1">
@@ -3098,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1">
@@ -3121,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.75" customHeight="1">
@@ -3144,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.75" customHeight="1">
@@ -3167,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.75" customHeight="1">
@@ -3190,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.75" customHeight="1">
@@ -3213,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="36.75" customHeight="1">
@@ -3239,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.75" customHeight="1">
@@ -3262,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.75" customHeight="1">
@@ -3288,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.75" customHeight="1">
@@ -3311,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="36.75" customHeight="1">
@@ -3334,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="36.75" customHeight="1">
@@ -3351,7 +3359,7 @@
         <v>49</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="36.75" customHeight="1">
@@ -3374,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.75" customHeight="1">
@@ -3397,15 +3405,15 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -3420,15 +3428,15 @@
         <v>1</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
@@ -3443,35 +3451,35 @@
         <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G102" s="3">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="36.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>32</v>
@@ -3486,15 +3494,15 @@
         <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -3509,7 +3517,7 @@
         <v>10</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="36.75" customHeight="1">
@@ -3532,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="36.75" customHeight="1">
@@ -3555,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="36.75" customHeight="1">
@@ -3578,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="36.75" customHeight="1">
@@ -3601,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="36.75" customHeight="1">
@@ -3624,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="36.75" customHeight="1">
@@ -3647,7 +3655,7 @@
         <v>3</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="36.75" customHeight="1">
@@ -3673,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="36.75" customHeight="1">
@@ -3696,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="36.75" customHeight="1">
@@ -3722,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="36.75" customHeight="1">
@@ -3745,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="36.75" customHeight="1">
@@ -3768,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="36.75" customHeight="1">
@@ -3785,7 +3793,7 @@
         <v>49</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="36.75" customHeight="1">
@@ -3808,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="36.75" customHeight="1">
@@ -3831,15 +3839,15 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="36.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>7</v>
@@ -3854,15 +3862,15 @@
         <v>1</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>7</v>
@@ -3877,35 +3885,35 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G121" s="3">
         <v>3</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="36.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>32</v>
@@ -3920,15 +3928,15 @@
         <v>1</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -3943,7 +3951,7 @@
         <v>10</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="36.75" customHeight="1">
@@ -3966,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="36.75" customHeight="1">
@@ -3989,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="36.75" customHeight="1">
@@ -4012,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="36.75" customHeight="1">
@@ -4020,7 +4028,7 @@
         <v>37</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -4035,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="36.75" customHeight="1">
@@ -4058,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="36.75" customHeight="1">
@@ -4081,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="36.75" customHeight="1">
@@ -4107,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="36.75" customHeight="1">
@@ -4130,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="36.75" customHeight="1">
@@ -4156,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="36.75" customHeight="1">
@@ -4179,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="36.75" customHeight="1">
@@ -4202,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="36.75" customHeight="1">
@@ -4219,7 +4227,7 @@
         <v>49</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="36.75" customHeight="1">
@@ -4242,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="36.75" customHeight="1">
@@ -4265,15 +4273,15 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="36.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>7</v>
@@ -4288,15 +4296,15 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>7</v>
@@ -4311,35 +4319,35 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G140" s="3">
         <v>3</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>32</v>
@@ -4354,15 +4362,15 @@
         <v>1</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>7</v>
@@ -4377,84 +4385,84 @@
         <v>10</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="2:10" ht="36.75" customHeight="1">
       <c r="B148" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="2:10" ht="36.75" customHeight="1">
       <c r="B149" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4471,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -4513,15 +4521,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -4536,12 +4544,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4556,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -4564,7 +4572,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -4579,12 +4587,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -4599,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
@@ -4607,7 +4615,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -4622,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
@@ -4645,11 +4653,11 @@
       <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
+      <c r="H7" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
@@ -4657,7 +4665,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -4672,15 +4680,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -4695,7 +4703,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
@@ -4706,12 +4714,12 @@
         <v>57</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>58</v>
@@ -4729,15 +4737,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -4752,16 +4760,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
@@ -4775,21 +4783,21 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -4801,15 +4809,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -4824,15 +4832,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -4847,12 +4855,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -4867,12 +4875,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -4887,12 +4895,12 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -4907,12 +4915,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4927,12 +4935,12 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -4947,12 +4955,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -4967,12 +4975,12 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -4987,12 +4995,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -5007,12 +5015,12 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -5027,12 +5035,12 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -5047,12 +5055,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -5067,12 +5075,12 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -5087,12 +5095,12 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -5107,12 +5115,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -5127,12 +5135,12 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
       <c r="B31" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -5147,12 +5155,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
       <c r="B32" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -5167,12 +5175,12 @@
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="17.25" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -5187,12 +5195,12 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="17.25" customHeight="1">
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -5207,12 +5215,12 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="17.25" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -5227,12 +5235,12 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="17.25" customHeight="1">
       <c r="B36" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -5247,12 +5255,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="17.25" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -5267,12 +5275,12 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="17.25" customHeight="1">
       <c r="B38" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -5287,12 +5295,12 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="17.25" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -5307,12 +5315,12 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="17.25" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -5327,12 +5335,12 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="17.25" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -5347,12 +5355,12 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="17.25" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -5367,12 +5375,12 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="17.25" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -5387,12 +5395,12 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="17.25" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -5407,12 +5415,12 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="17.25" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -5427,12 +5435,12 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="17.25" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -5447,12 +5455,12 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="17.25" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -5467,12 +5475,12 @@
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="17.25" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -5487,12 +5495,12 @@
         <v>1</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -5507,13 +5515,13 @@
         <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -5530,13 +5538,13 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>57</v>
@@ -5544,7 +5552,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5557,7 +5565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5597,15 +5605,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5620,12 +5628,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5640,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -5648,7 +5656,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -5663,12 +5671,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -5683,23 +5691,23 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -5714,12 +5722,12 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -5734,23 +5742,23 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -5765,12 +5773,12 @@
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -5785,23 +5793,23 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -5816,12 +5824,12 @@
         <v>5</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -5836,23 +5844,23 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -5867,12 +5875,12 @@
         <v>5</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -5887,23 +5895,23 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="30">
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30">
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -5918,12 +5926,12 @@
         <v>5</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -5938,23 +5946,23 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="30">
       <c r="B21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30">
       <c r="B22" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -5969,12 +5977,12 @@
         <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -5989,23 +5997,23 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="30">
       <c r="B24" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="30">
       <c r="B25" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -6020,12 +6028,12 @@
         <v>5</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -6040,23 +6048,23 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="30">
       <c r="B27" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="30">
       <c r="B28" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -6071,12 +6079,12 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -6091,23 +6099,23 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="30">
       <c r="B30" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="30">
       <c r="B31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -6122,7 +6130,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6134,8 +6142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
@@ -6180,15 +6188,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6203,12 +6211,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6223,7 +6231,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -6231,7 +6239,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6246,12 +6254,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6266,7 +6274,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -6274,7 +6282,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6289,10 +6297,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -6312,16 +6320,16 @@
       <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
+      <c r="H7" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6336,15 +6344,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -6359,12 +6367,12 @@
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -6382,12 +6390,12 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="B11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -6402,18 +6410,18 @@
         <v>3</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -6422,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -6442,12 +6450,12 @@
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="B14" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -6462,7 +6470,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6480,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -6521,15 +6529,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6544,12 +6552,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6564,7 +6572,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -6572,7 +6580,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6587,12 +6595,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6607,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45">
@@ -6615,7 +6623,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6630,10 +6638,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -6653,11 +6661,11 @@
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
+      <c r="H7" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
@@ -6665,7 +6673,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6680,84 +6688,84 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60">
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="B10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60">
       <c r="B12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60">
       <c r="B14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60">
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -8675,7 +8683,7 @@
   <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8685,7 +8693,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -8735,7 +8743,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -8812,7 +8820,7 @@
     </row>
     <row r="8" spans="1:8" ht="225">
       <c r="B8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
@@ -8827,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -8869,15 +8877,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -8892,12 +8900,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -8912,7 +8920,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
@@ -8920,7 +8928,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -8935,12 +8943,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -8955,7 +8963,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
@@ -8963,7 +8971,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -8978,7 +8986,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
@@ -9001,11 +9009,11 @@
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
+      <c r="H7" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.5" customHeight="1">
@@ -9013,7 +9021,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -9028,12 +9036,12 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -9050,7 +9058,7 @@
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
@@ -9067,7 +9075,7 @@
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -9084,7 +9092,7 @@
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -9101,7 +9109,7 @@
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -9118,7 +9126,7 @@
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -9135,13 +9143,13 @@
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -9155,7 +9163,7 @@
     </row>
     <row r="16" spans="1:10" ht="50.25" customHeight="1">
       <c r="B16" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -9172,7 +9180,7 @@
     </row>
     <row r="17" spans="2:8" ht="18" customHeight="1">
       <c r="B17" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -9187,12 +9195,12 @@
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -9226,7 +9234,7 @@
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -9260,7 +9268,7 @@
     </row>
     <row r="22" spans="2:8" ht="18" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -9277,7 +9285,7 @@
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -9294,7 +9302,7 @@
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -9311,10 +9319,10 @@
     </row>
     <row r="25" spans="2:8" ht="18" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -9339,8 +9347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9380,15 +9388,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -9403,12 +9411,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -9423,7 +9431,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
@@ -9431,7 +9439,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -9446,12 +9454,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -9466,7 +9474,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
@@ -9474,7 +9482,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -9489,7 +9497,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="18" customHeight="1">
@@ -9512,11 +9520,11 @@
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
+      <c r="H7" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="28.5" customHeight="1">
@@ -9524,7 +9532,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -9539,15 +9547,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="28.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -9564,15 +9572,15 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>57</v>
@@ -9584,15 +9592,15 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -9607,35 +9615,35 @@
         <v>5</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
       <c r="A12" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G12" s="3">
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="A13" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -9647,35 +9655,35 @@
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="A15" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -9687,15 +9695,15 @@
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -9707,12 +9715,12 @@
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -9727,15 +9735,15 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -9747,27 +9755,27 @@
         <v>10</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>30</v>
@@ -9776,7 +9784,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="B13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -5565,8 +5565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15"/>
@@ -6488,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
@@ -8835,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -9007,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>233</v>
@@ -9033,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>153</v>
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1">
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="18" customHeight="1">
@@ -9347,8 +9347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9518,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>233</v>
@@ -9544,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>153</v>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -9765,6 +9765,9 @@
       </c>
       <c r="C19" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>217</v>

--- a/resources/scheduling.xlsx
+++ b/resources/scheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380" activeTab="8"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14340" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Scheduling" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="235">
   <si>
     <t>Name</t>
   </si>
@@ -231,9 +231,6 @@
     <t>visit frequency</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
-  </si>
-  <si>
     <t>button click</t>
   </si>
   <si>
@@ -724,6 +721,12 @@
   </si>
   <si>
     <t>fullname</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[5]</t>
+  </si>
+  <si>
+    <t>//*[@id="compliance-tabs"]/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.28515625" defaultRowHeight="36.75" customHeight="1"/>
@@ -1163,15 +1166,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1186,12 +1189,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1206,7 +1209,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -1214,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1229,12 +1232,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -1249,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="36.75" customHeight="1">
@@ -1257,7 +1260,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -1272,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1">
@@ -1296,10 +1299,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50.25" customHeight="1">
@@ -1307,7 +1310,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1322,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="36.75" customHeight="1">
@@ -1345,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36.75" customHeight="1">
@@ -1368,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:10" customFormat="1" ht="51" customHeight="1">
@@ -1392,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.75" customHeight="1">
@@ -1415,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="36.75" customHeight="1">
@@ -1438,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="36.75" customHeight="1">
@@ -1461,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="36.75" customHeight="1">
@@ -1484,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1">
@@ -1510,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1">
@@ -1533,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="36.75" customHeight="1">
@@ -1559,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1">
@@ -1582,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36.75" customHeight="1">
@@ -1605,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36.75" customHeight="1">
@@ -1622,7 +1625,7 @@
         <v>49</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="36.75" customHeight="1">
@@ -1646,7 +1649,7 @@
       </c>
       <c r="H22"/>
       <c r="J22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="63" customHeight="1">
@@ -1669,15 +1672,15 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="36.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -1692,15 +1695,15 @@
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="36.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -1715,35 +1718,35 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="36.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G26" s="3">
         <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>32</v>
@@ -1758,15 +1761,15 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1781,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="36.75" customHeight="1">
@@ -1804,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="36.75" customHeight="1">
@@ -1827,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="36.75" customHeight="1">
@@ -1850,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="36.75" customHeight="1">
@@ -1873,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="36.75" customHeight="1">
@@ -1896,7 +1899,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="36.75" customHeight="1">
@@ -1919,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="36.75" customHeight="1">
@@ -1945,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="36.75" customHeight="1">
@@ -1968,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="36.75" customHeight="1">
@@ -1994,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="36.75" customHeight="1">
@@ -2017,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="36.75" customHeight="1">
@@ -2040,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="36.75" customHeight="1">
@@ -2057,7 +2060,7 @@
         <v>49</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="36.75" customHeight="1">
@@ -2080,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="36.75" customHeight="1">
@@ -2103,15 +2106,15 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="36.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -2126,15 +2129,15 @@
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -2149,35 +2152,35 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G45" s="3">
         <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>32</v>
@@ -2192,15 +2195,15 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -2215,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36.75" customHeight="1">
@@ -2238,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36.75" customHeight="1">
@@ -2261,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36.75" customHeight="1">
@@ -2284,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36.75" customHeight="1">
@@ -2307,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36.75" customHeight="1">
@@ -2330,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36.75" customHeight="1">
@@ -2353,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36.75" customHeight="1">
@@ -2379,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36.75" customHeight="1">
@@ -2402,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="36.75" customHeight="1">
@@ -2428,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="36.75" customHeight="1">
@@ -2451,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="36.75" customHeight="1">
@@ -2474,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36.75" customHeight="1">
@@ -2491,7 +2494,7 @@
         <v>49</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="36.75" customHeight="1">
@@ -2514,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="36.75" customHeight="1">
@@ -2537,15 +2540,15 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="36.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
@@ -2560,15 +2563,15 @@
         <v>1</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>7</v>
@@ -2583,35 +2586,35 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G64" s="3">
         <v>3</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="36.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>32</v>
@@ -2626,15 +2629,15 @@
         <v>1</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="36.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>7</v>
@@ -2649,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="36.75" customHeight="1">
@@ -2672,7 +2675,7 @@
         <v>3</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="36.75" customHeight="1">
@@ -2695,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1">
@@ -2718,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="36.75" customHeight="1">
@@ -2741,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="36.75" customHeight="1">
@@ -2764,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="36.75" customHeight="1">
@@ -2787,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="36.75" customHeight="1">
@@ -2813,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="36.75" customHeight="1">
@@ -2836,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="36.75" customHeight="1">
@@ -2862,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="36.75" customHeight="1">
@@ -2885,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="36.75" customHeight="1">
@@ -2908,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="36.75" customHeight="1">
@@ -2925,7 +2928,7 @@
         <v>49</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="36.75" customHeight="1">
@@ -2948,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="36.75" customHeight="1">
@@ -2971,15 +2974,15 @@
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="36.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -2994,15 +2997,15 @@
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="36.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>7</v>
@@ -3017,35 +3020,35 @@
         <v>1</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="36.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G83" s="3">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="36.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>32</v>
@@ -3060,15 +3063,15 @@
         <v>1</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="36.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>7</v>
@@ -3083,7 +3086,7 @@
         <v>10</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="36.75" customHeight="1">
@@ -3106,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="36.75" customHeight="1">
@@ -3129,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="36.75" customHeight="1">
@@ -3152,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="36.75" customHeight="1">
@@ -3175,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="36.75" customHeight="1">
@@ -3198,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="36.75" customHeight="1">
@@ -3221,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="36.75" customHeight="1">
@@ -3247,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="36.75" customHeight="1">
@@ -3270,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="36.75" customHeight="1">
@@ -3296,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="36.75" customHeight="1">
@@ -3319,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="36.75" customHeight="1">
@@ -3342,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="36.75" customHeight="1">
@@ -3359,7 +3362,7 @@
         <v>49</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="36.75" customHeight="1">
@@ -3382,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="36.75" customHeight="1">
@@ -3405,15 +3408,15 @@
         <v>1</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="36.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -3428,15 +3431,15 @@
         <v>1</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="36.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>7</v>
@@ -3451,35 +3454,35 @@
         <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="36.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G102" s="3">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="36.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>32</v>
@@ -3494,15 +3497,15 @@
         <v>1</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="36.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>7</v>
@@ -3517,7 +3520,7 @@
         <v>10</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="36.75" customHeight="1">
@@ -3540,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="36.75" customHeight="1">
@@ -3563,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="36.75" customHeight="1">
@@ -3586,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="36.75" customHeight="1">
@@ -3609,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="36.75" customHeight="1">
@@ -3632,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="36.75" customHeight="1">
@@ -3655,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="36.75" customHeight="1">
@@ -3681,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="36.75" customHeight="1">
@@ -3704,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="36.75" customHeight="1">
@@ -3730,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="36.75" customHeight="1">
@@ -3753,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="36.75" customHeight="1">
@@ -3776,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="36.75" customHeight="1">
@@ -3793,7 +3796,7 @@
         <v>49</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="36.75" customHeight="1">
@@ -3816,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="36.75" customHeight="1">
@@ -3839,15 +3842,15 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="36.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>7</v>
@@ -3862,15 +3865,15 @@
         <v>1</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="36.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>7</v>
@@ -3885,35 +3888,35 @@
         <v>1</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="36.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G121" s="3">
         <v>3</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="36.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>32</v>
@@ -3928,15 +3931,15 @@
         <v>1</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="36.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -3951,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="36.75" customHeight="1">
@@ -3974,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="36.75" customHeight="1">
@@ -3997,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="36.75" customHeight="1">
@@ -4020,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="36.75" customHeight="1">
@@ -4028,7 +4031,7 @@
         <v>37</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>7</v>
@@ -4043,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="36.75" customHeight="1">
@@ -4066,7 +4069,7 @@
         <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="36.75" customHeight="1">
@@ -4089,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="36.75" customHeight="1">
@@ -4115,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="36.75" customHeight="1">
@@ -4138,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="36.75" customHeight="1">
@@ -4164,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="36.75" customHeight="1">
@@ -4187,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="36.75" customHeight="1">
@@ -4210,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="36.75" customHeight="1">
@@ -4227,7 +4230,7 @@
         <v>49</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="36.75" customHeight="1">
@@ -4250,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="36.75" customHeight="1">
@@ -4273,15 +4276,15 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="36.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>7</v>
@@ -4296,15 +4299,15 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="36.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>7</v>
@@ -4319,35 +4322,35 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="36.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G140" s="3">
         <v>3</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="36.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>32</v>
@@ -4362,15 +4365,15 @@
         <v>1</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="36.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>7</v>
@@ -4385,84 +4388,84 @@
         <v>10</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="36.75" customHeight="1">
       <c r="B143" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="36.75" customHeight="1">
       <c r="B144" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="36.75" customHeight="1">
       <c r="B145" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="2:10" ht="36.75" customHeight="1">
       <c r="B146" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="2:10" ht="36.75" customHeight="1">
       <c r="B147" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="2:10" ht="36.75" customHeight="1">
       <c r="B148" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="2:10" ht="36.75" customHeight="1">
       <c r="B149" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4479,8 +4482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -4521,15 +4524,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -4544,12 +4547,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -4564,7 +4567,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -4572,7 +4575,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -4587,12 +4590,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -4607,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" customHeight="1">
@@ -4615,7 +4618,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -4630,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" customHeight="1">
@@ -4654,10 +4657,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" customHeight="1">
@@ -4665,7 +4668,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -4680,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
@@ -4688,7 +4691,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -4703,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
@@ -4714,12 +4717,12 @@
         <v>57</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>58</v>
@@ -4737,15 +4740,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -4760,16 +4763,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
@@ -4783,21 +4786,21 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -4809,15 +4812,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -4832,15 +4835,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -4855,12 +4858,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -4875,12 +4878,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
       <c r="B18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -4895,12 +4898,12 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -4915,12 +4918,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -4935,12 +4938,12 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -4955,12 +4958,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -4975,12 +4978,12 @@
         <v>1</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17.25" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -4995,12 +4998,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
       <c r="B24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -5015,12 +5018,12 @@
         <v>1</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17.25" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -5035,12 +5038,12 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17.25" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -5055,12 +5058,12 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17.25" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -5075,12 +5078,12 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17.25" customHeight="1">
       <c r="B28" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -5095,12 +5098,12 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -5115,12 +5118,12 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17.25" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -5135,12 +5138,12 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" customHeight="1">
       <c r="B31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -5155,12 +5158,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17.25" customHeight="1">
       <c r="B32" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -5175,12 +5178,12 @@
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="17.25" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
@@ -5195,12 +5198,12 @@
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="17.25" customHeight="1">
       <c r="B34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -5215,12 +5218,12 @@
         <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="17.25" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -5235,12 +5238,12 @@
         <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="17.25" customHeight="1">
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
@@ -5255,12 +5258,12 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="17.25" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
@@ -5275,12 +5278,12 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="17.25" customHeight="1">
       <c r="B38" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -5295,12 +5298,12 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="17.25" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
@@ -5315,12 +5318,12 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="17.25" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
@@ -5335,12 +5338,12 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="17.25" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
@@ -5355,12 +5358,12 @@
         <v>1</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="17.25" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
@@ -5375,12 +5378,12 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="17.25" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -5395,12 +5398,12 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="17.25" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
@@ -5415,12 +5418,12 @@
         <v>1</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="17.25" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -5435,12 +5438,12 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="17.25" customHeight="1">
       <c r="B46" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -5455,12 +5458,12 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="17.25" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
@@ -5475,12 +5478,12 @@
         <v>1</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="17.25" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
@@ -5495,12 +5498,12 @@
         <v>1</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="17.25" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -5515,13 +5518,13 @@
         <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
@@ -5538,13 +5541,13 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17.25" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>57</v>
@@ -5552,7 +5555,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5605,15 +5608,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -5628,12 +5631,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -5648,7 +5651,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -5656,7 +5659,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -5671,12 +5674,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -5691,23 +5694,23 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="B6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -5722,12 +5725,12 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -5742,23 +5745,23 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -5773,12 +5776,12 @@
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -5793,23 +5796,23 @@
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -5824,12 +5827,12 @@
         <v>5</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -5844,23 +5847,23 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30">
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30">
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -5875,12 +5878,12 @@
         <v>5</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>7</v>
@@ -5895,23 +5898,23 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="30">
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30">
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -5926,12 +5929,12 @@
         <v>5</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -5946,23 +5949,23 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="30">
       <c r="B21" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30">
       <c r="B22" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -5977,12 +5980,12 @@
         <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -5997,23 +6000,23 @@
         <v>1</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="30">
       <c r="B24" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="30">
       <c r="B25" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -6028,12 +6031,12 @@
         <v>5</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -6048,23 +6051,23 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="30">
       <c r="B27" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="30">
       <c r="B28" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -6079,12 +6082,12 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -6099,23 +6102,23 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="30">
       <c r="B30" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="30">
       <c r="B31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -6130,7 +6133,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6188,15 +6191,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6211,12 +6214,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6231,7 +6234,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -6239,7 +6242,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6254,12 +6257,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="36.75" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -6274,7 +6277,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -6282,7 +6285,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -6297,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18">
@@ -6321,15 +6324,15 @@
         <v>5</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="B8" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -6344,15 +6347,15 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
       <c r="A9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -6367,12 +6370,12 @@
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60">
       <c r="A10" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -6390,12 +6393,12 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -6410,18 +6413,18 @@
         <v>3</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -6430,7 +6433,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
@@ -6450,12 +6453,12 @@
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30">
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -6470,7 +6473,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6529,15 +6532,15 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -6552,12 +6555,12 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -6572,7 +6575,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1">
@@ -6580,7 +6583,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -6595,12 +6598,12 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>154</